--- a/JupyterNotebooks/AvgHW/CubeA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9587701285357418</v>
+      </c>
+      <c r="D3">
+        <v>0.9529824144288545</v>
+      </c>
+      <c r="E3">
+        <v>0.9421002430646669</v>
+      </c>
+      <c r="F3">
+        <v>0.9625532574558078</v>
+      </c>
+      <c r="G3">
         <v>0.9446819902974765</v>
       </c>
-      <c r="D3">
-        <v>1.313557282760122</v>
-      </c>
-      <c r="E3">
-        <v>1.132691488267001</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.9446819902974765</v>
-      </c>
-      <c r="G3">
-        <v>0.9421002430646669</v>
-      </c>
-      <c r="H3">
-        <v>0.9625532574558078</v>
       </c>
       <c r="I3">
         <v>0.9446819902974765</v>
       </c>
       <c r="J3">
+        <v>1.132691488267001</v>
+      </c>
+      <c r="K3">
         <v>1.313557282760122</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>1.313557282760122</v>
+      </c>
+      <c r="M3">
         <v>1.120614964915243</v>
-      </c>
-      <c r="L3">
-        <v>0.9529824144288545</v>
-      </c>
-      <c r="M3">
-        <v>0.9587701285357418</v>
       </c>
       <c r="N3">
         <v>0.9446819902974765</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9518818160728856</v>
+      </c>
+      <c r="D4">
+        <v>0.9711807209918591</v>
+      </c>
+      <c r="E4">
+        <v>0.8586229122657004</v>
+      </c>
+      <c r="F4">
+        <v>0.8849646903713391</v>
+      </c>
+      <c r="G4">
         <v>0.9685179208066926</v>
       </c>
-      <c r="D4">
-        <v>1.671977490293228</v>
-      </c>
-      <c r="E4">
-        <v>1.205893345514888</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.9685179208066926</v>
-      </c>
-      <c r="G4">
-        <v>0.8586229122657004</v>
-      </c>
-      <c r="H4">
-        <v>0.8849646903713391</v>
       </c>
       <c r="I4">
         <v>0.9685179208066926</v>
       </c>
       <c r="J4">
+        <v>1.205893345514888</v>
+      </c>
+      <c r="K4">
         <v>1.671977490293228</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>1.671977490293228</v>
+      </c>
+      <c r="M4">
         <v>1.229885850192874</v>
-      </c>
-      <c r="L4">
-        <v>0.9711807209918591</v>
-      </c>
-      <c r="M4">
-        <v>0.9518818160728856</v>
       </c>
       <c r="N4">
         <v>0.9685179208066926</v>
@@ -783,43 +795,43 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.6604853551142255</v>
+      </c>
+      <c r="D5">
+        <v>0.6826008457045653</v>
+      </c>
+      <c r="E5">
+        <v>0.9695876622103261</v>
+      </c>
+      <c r="F5">
+        <v>0.6914714126149754</v>
+      </c>
+      <c r="G5">
         <v>1.301148574220877</v>
       </c>
-      <c r="D5">
-        <v>2.690797619181962</v>
-      </c>
-      <c r="E5">
-        <v>1.486679829182679</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.301148574220877</v>
-      </c>
-      <c r="G5">
-        <v>0.9695876622103261</v>
-      </c>
-      <c r="H5">
-        <v>0.6914714126149754</v>
       </c>
       <c r="I5">
         <v>1.301148574220877</v>
       </c>
       <c r="J5">
+        <v>1.48667982918268</v>
+      </c>
+      <c r="K5">
         <v>2.690797619181962</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>2.690797619181962</v>
+      </c>
+      <c r="M5">
         <v>1.628875154625719</v>
-      </c>
-      <c r="L5">
-        <v>0.6826008457045653</v>
-      </c>
-      <c r="M5">
-        <v>0.6604853551142255</v>
       </c>
       <c r="N5">
         <v>1.301148574220877</v>
       </c>
       <c r="O5">
-        <v>1.486679829182679</v>
+        <v>1.48667982918268</v>
       </c>
       <c r="P5">
         <v>2.088738724182321</v>
@@ -840,7 +852,7 @@
         <v>1.612053421198961</v>
       </c>
       <c r="V5">
-        <v>1.549872451803344</v>
+        <v>1.549872451803345</v>
       </c>
       <c r="W5">
         <v>1.263955806606916</v>
@@ -854,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.421768598668107</v>
+      </c>
+      <c r="D6">
+        <v>1.076843431513267</v>
+      </c>
+      <c r="E6">
+        <v>0.4032459628981633</v>
+      </c>
+      <c r="F6">
+        <v>0.1937812277589059</v>
+      </c>
+      <c r="G6">
         <v>0.2464754178935255</v>
       </c>
-      <c r="D6">
-        <v>4.995588504086641</v>
-      </c>
-      <c r="E6">
-        <v>3.277622917459601</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.2464754178935255</v>
-      </c>
-      <c r="G6">
-        <v>0.4032459628981633</v>
-      </c>
-      <c r="H6">
-        <v>0.1937812277589059</v>
       </c>
       <c r="I6">
         <v>0.2464754178935255</v>
       </c>
       <c r="J6">
+        <v>3.277622917459601</v>
+      </c>
+      <c r="K6">
         <v>4.995588504086641</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>4.995588504086641</v>
+      </c>
+      <c r="M6">
         <v>2.215040945160054</v>
-      </c>
-      <c r="L6">
-        <v>1.076843431513267</v>
-      </c>
-      <c r="M6">
-        <v>0.421768598668107</v>
       </c>
       <c r="N6">
         <v>0.2464754178935255</v>
@@ -893,16 +905,16 @@
         <v>3.277622917459601</v>
       </c>
       <c r="P6">
-        <v>4.136605710773121</v>
+        <v>4.136605710773122</v>
       </c>
       <c r="Q6">
         <v>1.840434440178882</v>
       </c>
       <c r="R6">
-        <v>2.839895613146589</v>
+        <v>2.83989561314659</v>
       </c>
       <c r="S6">
-        <v>2.892152461481468</v>
+        <v>2.892152461481469</v>
       </c>
       <c r="T6">
         <v>2.839895613146589</v>
@@ -925,49 +937,49 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9994429548471711</v>
+      </c>
+      <c r="D7">
+        <v>0.9990990231997954</v>
+      </c>
+      <c r="E7">
+        <v>0.998787373256819</v>
+      </c>
+      <c r="F7">
+        <v>0.9987068072638141</v>
+      </c>
+      <c r="G7">
         <v>0.9981281483657627</v>
       </c>
-      <c r="D7">
-        <v>1.060497045109141</v>
-      </c>
-      <c r="E7">
-        <v>0.9981286879799174</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.9981281483657627</v>
-      </c>
-      <c r="G7">
-        <v>0.9987873732568189</v>
-      </c>
-      <c r="H7">
-        <v>0.9987068072638137</v>
       </c>
       <c r="I7">
         <v>0.9981281483657627</v>
       </c>
       <c r="J7">
+        <v>0.9981286879799181</v>
+      </c>
+      <c r="K7">
         <v>1.060497045109141</v>
       </c>
-      <c r="K7">
-        <v>0.9991445760890145</v>
-      </c>
       <c r="L7">
-        <v>0.9990990231997957</v>
+        <v>1.060497045109141</v>
       </c>
       <c r="M7">
-        <v>0.9994429548471705</v>
+        <v>0.9991445760890142</v>
       </c>
       <c r="N7">
         <v>0.9981281483657627</v>
       </c>
       <c r="O7">
-        <v>0.9981286879799174</v>
+        <v>0.9981286879799181</v>
       </c>
       <c r="P7">
         <v>1.029312866544529</v>
       </c>
       <c r="Q7">
-        <v>0.9984580306183681</v>
+        <v>0.9984580306183686</v>
       </c>
       <c r="R7">
         <v>1.018917960484941</v>
@@ -976,7 +988,7 @@
         <v>1.019137702115293</v>
       </c>
       <c r="T7">
-        <v>1.01891796048494</v>
+        <v>1.018917960484941</v>
       </c>
       <c r="U7">
         <v>1.01388531367791</v>
@@ -996,64 +1008,64 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9983842380150153</v>
+        <v>1.000246631325177</v>
       </c>
       <c r="D8">
-        <v>1.154334423271946</v>
+        <v>0.9921999634001185</v>
       </c>
       <c r="E8">
+        <v>0.9987226475765173</v>
+      </c>
+      <c r="F8">
+        <v>0.9906987850728354</v>
+      </c>
+      <c r="G8">
+        <v>0.9983842380150161</v>
+      </c>
+      <c r="H8">
+        <v>0.9983842380150161</v>
+      </c>
+      <c r="I8">
+        <v>0.9983842380150161</v>
+      </c>
+      <c r="J8">
         <v>0.9890206659675871</v>
       </c>
-      <c r="F8">
-        <v>0.9983842380150153</v>
-      </c>
-      <c r="G8">
-        <v>0.9987226475765184</v>
-      </c>
-      <c r="H8">
-        <v>0.990698785072836</v>
-      </c>
-      <c r="I8">
-        <v>0.9983842380150153</v>
-      </c>
-      <c r="J8">
-        <v>1.154334423271946</v>
-      </c>
       <c r="K8">
-        <v>0.9976412720085419</v>
+        <v>1.154334423271956</v>
       </c>
       <c r="L8">
-        <v>0.9921999634001188</v>
+        <v>1.154334423271956</v>
       </c>
       <c r="M8">
-        <v>1.000246631325178</v>
+        <v>0.9976412720085414</v>
       </c>
       <c r="N8">
-        <v>0.9983842380150153</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="O8">
         <v>0.9890206659675871</v>
       </c>
       <c r="P8">
-        <v>1.071677544619767</v>
+        <v>1.071677544619772</v>
       </c>
       <c r="Q8">
-        <v>0.9938716567720527</v>
+        <v>0.9938716567720522</v>
       </c>
       <c r="R8">
-        <v>1.047246442418183</v>
+        <v>1.047246442418187</v>
       </c>
       <c r="S8">
-        <v>1.047359245605351</v>
+        <v>1.047359245605354</v>
       </c>
       <c r="T8">
-        <v>1.047246442418183</v>
+        <v>1.047246442418186</v>
       </c>
       <c r="U8">
-        <v>1.035115493707767</v>
+        <v>1.035115493707769</v>
       </c>
       <c r="V8">
-        <v>1.027769242569217</v>
+        <v>1.027769242569219</v>
       </c>
       <c r="W8">
         <v>1.015156078329718</v>
@@ -1067,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.998130567150189</v>
+      </c>
+      <c r="D9">
+        <v>0.9918429683681035</v>
+      </c>
+      <c r="E9">
+        <v>0.9969242017806696</v>
+      </c>
+      <c r="F9">
+        <v>0.9940733591651486</v>
+      </c>
+      <c r="G9">
         <v>0.9913119217424731</v>
       </c>
-      <c r="D9">
-        <v>1.26199931635865</v>
-      </c>
-      <c r="E9">
-        <v>1.0219636784962</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.9913119217424731</v>
-      </c>
-      <c r="G9">
-        <v>0.9969242017806696</v>
-      </c>
-      <c r="H9">
-        <v>0.9940733591651486</v>
       </c>
       <c r="I9">
         <v>0.9913119217424731</v>
       </c>
       <c r="J9">
+        <v>1.0219636784962</v>
+      </c>
+      <c r="K9">
         <v>1.26199931635865</v>
       </c>
-      <c r="K9">
-        <v>0.9964958667854427</v>
-      </c>
       <c r="L9">
-        <v>0.9918429683681033</v>
+        <v>1.26199931635865</v>
       </c>
       <c r="M9">
-        <v>0.998130567150189</v>
+        <v>0.9964958667854423</v>
       </c>
       <c r="N9">
         <v>0.9913119217424731</v>
@@ -1138,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.017868080730268</v>
+      </c>
+      <c r="D10">
+        <v>0.9877940771695772</v>
+      </c>
+      <c r="E10">
+        <v>0.9881996959514808</v>
+      </c>
+      <c r="F10">
+        <v>0.9962351215104377</v>
+      </c>
+      <c r="G10">
         <v>0.9896873653915497</v>
       </c>
-      <c r="D10">
-        <v>1.516172581477966</v>
-      </c>
-      <c r="E10">
-        <v>0.9808963063579704</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.9896873653915497</v>
-      </c>
-      <c r="G10">
-        <v>0.9881996959514808</v>
-      </c>
-      <c r="H10">
-        <v>0.9962351215104378</v>
       </c>
       <c r="I10">
         <v>0.9896873653915497</v>
       </c>
       <c r="J10">
+        <v>0.9808963063579704</v>
+      </c>
+      <c r="K10">
         <v>1.516172581477966</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <v>1.516172581477966</v>
+      </c>
+      <c r="M10">
         <v>0.982281405064565</v>
-      </c>
-      <c r="L10">
-        <v>0.9877940771695772</v>
-      </c>
-      <c r="M10">
-        <v>1.017868080730268</v>
       </c>
       <c r="N10">
         <v>0.9896873653915497</v>
@@ -1209,40 +1221,40 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8109170700227573</v>
+        <v>1.01371351104464</v>
       </c>
       <c r="D11">
+        <v>1.045201545640358</v>
+      </c>
+      <c r="E11">
+        <v>1.019897287505652</v>
+      </c>
+      <c r="F11">
+        <v>1.052592904524059</v>
+      </c>
+      <c r="G11">
+        <v>0.8109170700227578</v>
+      </c>
+      <c r="H11">
+        <v>0.8109170700227578</v>
+      </c>
+      <c r="I11">
+        <v>0.8109170700227578</v>
+      </c>
+      <c r="J11">
+        <v>1.253631508310531</v>
+      </c>
+      <c r="K11">
         <v>2.063420723421012</v>
       </c>
-      <c r="E11">
-        <v>1.253631508310531</v>
-      </c>
-      <c r="F11">
-        <v>0.8109170700227573</v>
-      </c>
-      <c r="G11">
-        <v>1.019897287505652</v>
-      </c>
-      <c r="H11">
-        <v>1.052592904524059</v>
-      </c>
-      <c r="I11">
-        <v>0.8109170700227573</v>
-      </c>
-      <c r="J11">
+      <c r="L11">
         <v>2.063420723421012</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.9944398385084143</v>
       </c>
-      <c r="L11">
-        <v>1.045201545640359</v>
-      </c>
-      <c r="M11">
-        <v>1.01371351104464</v>
-      </c>
       <c r="N11">
-        <v>0.8109170700227573</v>
+        <v>0.8109170700227578</v>
       </c>
       <c r="O11">
         <v>1.253631508310531</v>
@@ -1280,64 +1292,64 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.379937255016049</v>
+        <v>0.569984070182464</v>
       </c>
       <c r="D12">
+        <v>0.3632148420855516</v>
+      </c>
+      <c r="E12">
+        <v>1.916597466133352</v>
+      </c>
+      <c r="F12">
+        <v>0.5588256154470996</v>
+      </c>
+      <c r="G12">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="H12">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="I12">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="J12">
+        <v>0.002237596383924254</v>
+      </c>
+      <c r="K12">
         <v>0.001328490850010016</v>
       </c>
-      <c r="E12">
-        <v>0.00223759638392426</v>
-      </c>
-      <c r="F12">
-        <v>1.379937255016049</v>
-      </c>
-      <c r="G12">
-        <v>1.916597466133351</v>
-      </c>
-      <c r="H12">
-        <v>0.5588256154470996</v>
-      </c>
-      <c r="I12">
-        <v>1.379937255016049</v>
-      </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.001328490850010016</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.08313614211869384</v>
       </c>
-      <c r="L12">
-        <v>0.3632148420855515</v>
-      </c>
-      <c r="M12">
-        <v>0.569984070182466</v>
-      </c>
       <c r="N12">
-        <v>1.379937255016049</v>
+        <v>1.379937255016048</v>
       </c>
       <c r="O12">
-        <v>0.00223759638392426</v>
+        <v>0.002237596383924254</v>
       </c>
       <c r="P12">
-        <v>0.001783043616967138</v>
+        <v>0.001783043616967135</v>
       </c>
       <c r="Q12">
-        <v>0.9594175312586375</v>
+        <v>0.9594175312586382</v>
       </c>
       <c r="R12">
         <v>0.4611677807499943</v>
       </c>
       <c r="S12">
-        <v>0.6400545177890949</v>
+        <v>0.6400545177890954</v>
       </c>
       <c r="T12">
         <v>0.4611677807499943</v>
       </c>
       <c r="U12">
-        <v>0.8250252020958334</v>
+        <v>0.8250252020958337</v>
       </c>
       <c r="V12">
-        <v>0.9360076126798764</v>
+        <v>0.9360076126798766</v>
       </c>
       <c r="W12">
         <v>0.609407684777143</v>
@@ -1351,64 +1363,64 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.3930322337325861</v>
+      </c>
+      <c r="D13">
+        <v>0.4028156866737078</v>
+      </c>
+      <c r="E13">
+        <v>0.005356301082907026</v>
+      </c>
+      <c r="F13">
+        <v>1.128610781007443</v>
+      </c>
+      <c r="G13">
         <v>1.376818959164313</v>
       </c>
-      <c r="D13">
-        <v>0.4869577846942588</v>
-      </c>
-      <c r="E13">
-        <v>2.359611698722835</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.376818959164313</v>
-      </c>
-      <c r="G13">
-        <v>0.005356301082907025</v>
-      </c>
-      <c r="H13">
-        <v>1.128610781007445</v>
       </c>
       <c r="I13">
         <v>1.376818959164313</v>
       </c>
       <c r="J13">
-        <v>0.4869577846942588</v>
+        <v>2.359611698722838</v>
       </c>
       <c r="K13">
+        <v>0.4869577846942586</v>
+      </c>
+      <c r="L13">
+        <v>0.4869577846942586</v>
+      </c>
+      <c r="M13">
         <v>1.911625012920187</v>
-      </c>
-      <c r="L13">
-        <v>0.4028156866737078</v>
-      </c>
-      <c r="M13">
-        <v>0.3930322337325864</v>
       </c>
       <c r="N13">
         <v>1.376818959164313</v>
       </c>
       <c r="O13">
-        <v>2.359611698722835</v>
+        <v>2.359611698722838</v>
       </c>
       <c r="P13">
-        <v>1.423284741708547</v>
+        <v>1.423284741708549</v>
       </c>
       <c r="Q13">
-        <v>1.182483999902871</v>
+        <v>1.182483999902873</v>
       </c>
       <c r="R13">
-        <v>1.407796147527136</v>
+        <v>1.407796147527137</v>
       </c>
       <c r="S13">
-        <v>0.950641928166667</v>
+        <v>0.950641928166668</v>
       </c>
       <c r="T13">
-        <v>1.407796147527136</v>
+        <v>1.407796147527137</v>
       </c>
       <c r="U13">
-        <v>1.057186185916078</v>
+        <v>1.057186185916079</v>
       </c>
       <c r="V13">
-        <v>1.121112740565725</v>
+        <v>1.121112740565726</v>
       </c>
       <c r="W13">
         <v>1.00810355724978</v>
@@ -1422,43 +1434,43 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0003904390819234695</v>
+        <v>0.0287933131695283</v>
       </c>
       <c r="D14">
+        <v>0.03001048724434661</v>
+      </c>
+      <c r="E14">
+        <v>0.08375329453524756</v>
+      </c>
+      <c r="F14">
+        <v>2.215396312838418</v>
+      </c>
+      <c r="G14">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="H14">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="I14">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="J14">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="K14">
         <v>0.001195947500271863</v>
       </c>
-      <c r="E14">
-        <v>3.835382676343218</v>
-      </c>
-      <c r="F14">
-        <v>0.0003904390819234695</v>
-      </c>
-      <c r="G14">
-        <v>0.08375329453524762</v>
-      </c>
-      <c r="H14">
-        <v>2.215396312838417</v>
-      </c>
-      <c r="I14">
-        <v>0.0003904390819234695</v>
-      </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.001195947500271863</v>
       </c>
-      <c r="K14">
-        <v>1.719955642120349</v>
-      </c>
-      <c r="L14">
-        <v>0.03001048724434666</v>
-      </c>
       <c r="M14">
-        <v>0.02879331316952837</v>
+        <v>1.719955642120351</v>
       </c>
       <c r="N14">
-        <v>0.0003904390819234695</v>
+        <v>0.0003904390819234697</v>
       </c>
       <c r="O14">
-        <v>3.835382676343218</v>
+        <v>3.835382676343219</v>
       </c>
       <c r="P14">
         <v>1.918289311921745</v>
@@ -1473,16 +1485,16 @@
         <v>1.306777306126246</v>
       </c>
       <c r="T14">
-        <v>1.278989687641804</v>
+        <v>1.278989687641805</v>
       </c>
       <c r="U14">
-        <v>0.9801805893651652</v>
+        <v>0.9801805893651654</v>
       </c>
       <c r="V14">
-        <v>0.7842225593085168</v>
+        <v>0.784222559308517</v>
       </c>
       <c r="W14">
-        <v>0.9893597641041627</v>
+        <v>0.989359764104163</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1505,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3335060775395658</v>
+        <v>1.978017528762467</v>
       </c>
       <c r="D15">
+        <v>2.103189352075622</v>
+      </c>
+      <c r="E15">
+        <v>1.930752885397657</v>
+      </c>
+      <c r="F15">
+        <v>0.3262007917718728</v>
+      </c>
+      <c r="G15">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="H15">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="I15">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="J15">
+        <v>0.0062426259214741</v>
+      </c>
+      <c r="K15">
         <v>0.4867331853026556</v>
       </c>
-      <c r="E15">
-        <v>0.006242625921474101</v>
-      </c>
-      <c r="F15">
-        <v>0.3335060775395658</v>
-      </c>
-      <c r="G15">
-        <v>1.930752885397658</v>
-      </c>
-      <c r="H15">
-        <v>0.3262007917718728</v>
-      </c>
-      <c r="I15">
-        <v>0.3335060775395658</v>
-      </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.4867331853026556</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0.7639804803541627</v>
       </c>
-      <c r="L15">
-        <v>2.103189352075621</v>
-      </c>
-      <c r="M15">
-        <v>1.978017528762467</v>
-      </c>
       <c r="N15">
-        <v>0.3335060775395658</v>
+        <v>0.3335060775395657</v>
       </c>
       <c r="O15">
-        <v>0.006242625921474101</v>
+        <v>0.0062426259214741</v>
       </c>
       <c r="P15">
         <v>0.2464879056120649</v>
       </c>
       <c r="Q15">
-        <v>0.9684977556595662</v>
+        <v>0.9684977556595658</v>
       </c>
       <c r="R15">
         <v>0.2754939629212318</v>
       </c>
       <c r="S15">
-        <v>0.807909565540596</v>
+        <v>0.8079095655405957</v>
       </c>
       <c r="T15">
         <v>0.2754939629212318</v>
       </c>
       <c r="U15">
-        <v>0.6893086935403384</v>
+        <v>0.6893086935403382</v>
       </c>
       <c r="V15">
-        <v>0.6181481703401839</v>
+        <v>0.6181481703401837</v>
       </c>
       <c r="W15">
-        <v>0.9910778658906847</v>
+        <v>0.9910778658906845</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9989514806277295</v>
+        <v>0.4897031399322694</v>
       </c>
       <c r="D16">
-        <v>1.041638882366565</v>
+        <v>0.2088750462036798</v>
       </c>
       <c r="E16">
-        <v>0.9885399238155337</v>
+        <v>0.2384442471549519</v>
       </c>
       <c r="F16">
-        <v>0.9989514806277295</v>
+        <v>0.2203851410462157</v>
       </c>
       <c r="G16">
-        <v>0.999572588401094</v>
+        <v>0.1936824347984073</v>
       </c>
       <c r="H16">
-        <v>0.9994326851865296</v>
+        <v>0.1936824347984073</v>
       </c>
       <c r="I16">
-        <v>0.9989514806277295</v>
+        <v>0.1936824347984073</v>
       </c>
       <c r="J16">
-        <v>1.041638882366565</v>
+        <v>2.903836302671713</v>
       </c>
       <c r="K16">
-        <v>1.003008283263953</v>
+        <v>6.425370482485471</v>
       </c>
       <c r="L16">
-        <v>1.000013452344058</v>
+        <v>6.425370482485471</v>
       </c>
       <c r="M16">
-        <v>0.9995624595088477</v>
+        <v>2.931722553383704</v>
       </c>
       <c r="N16">
-        <v>0.9989514806277295</v>
+        <v>0.1936824347984073</v>
       </c>
       <c r="O16">
-        <v>0.9885399238155337</v>
+        <v>2.903836302671713</v>
       </c>
       <c r="P16">
-        <v>1.01508940309105</v>
+        <v>4.664603392578592</v>
       </c>
       <c r="Q16">
-        <v>0.9940562561083138</v>
+        <v>1.571140274913333</v>
       </c>
       <c r="R16">
-        <v>1.009710095603276</v>
+        <v>3.174296406651864</v>
       </c>
       <c r="S16">
-        <v>1.009917131527731</v>
+        <v>3.189217010770712</v>
       </c>
       <c r="T16">
-        <v>1.009710095603276</v>
+        <v>3.174296406651864</v>
       </c>
       <c r="U16">
-        <v>1.007175718802731</v>
+        <v>2.440333366777636</v>
       </c>
       <c r="V16">
-        <v>1.00553087116773</v>
+        <v>1.99100318038179</v>
       </c>
       <c r="W16">
-        <v>1.003839969439289</v>
+        <v>1.701502418459552</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9931101478651679</v>
+        <v>0.74022200203002</v>
       </c>
       <c r="D17">
-        <v>1.006463253683539</v>
+        <v>0.4161884932873424</v>
       </c>
       <c r="E17">
-        <v>1.038860998658934</v>
+        <v>0.4740230179964037</v>
       </c>
       <c r="F17">
-        <v>0.9931101478651679</v>
+        <v>0.4139305141833607</v>
       </c>
       <c r="G17">
-        <v>0.9930648890227211</v>
+        <v>0.3881974605006971</v>
       </c>
       <c r="H17">
-        <v>0.9909018666916166</v>
+        <v>0.3881974605006971</v>
       </c>
       <c r="I17">
-        <v>0.9931101478651679</v>
+        <v>0.3881974605006971</v>
       </c>
       <c r="J17">
-        <v>1.006463253683539</v>
+        <v>2.210280459027976</v>
       </c>
       <c r="K17">
-        <v>0.9879946921121984</v>
+        <v>5.700520034431405</v>
       </c>
       <c r="L17">
-        <v>0.9937588461679059</v>
+        <v>5.700520034431405</v>
       </c>
       <c r="M17">
-        <v>1.000698421633131</v>
+        <v>2.267259871064979</v>
       </c>
       <c r="N17">
-        <v>0.9931101478651679</v>
+        <v>0.3881974605006971</v>
       </c>
       <c r="O17">
-        <v>1.038860998658934</v>
+        <v>2.210280459027976</v>
       </c>
       <c r="P17">
-        <v>1.022662126171237</v>
+        <v>3.95540024672969</v>
       </c>
       <c r="Q17">
-        <v>1.015962943840828</v>
+        <v>1.34215173851219</v>
       </c>
       <c r="R17">
-        <v>1.01281146673588</v>
+        <v>2.766332651320026</v>
       </c>
       <c r="S17">
-        <v>1.012796380455065</v>
+        <v>2.794941170485262</v>
       </c>
       <c r="T17">
-        <v>1.01281146673588</v>
+        <v>2.766332651320026</v>
       </c>
       <c r="U17">
-        <v>1.00787482230759</v>
+        <v>2.193255242989121</v>
       </c>
       <c r="V17">
-        <v>1.004921887419106</v>
+        <v>1.832243686491436</v>
       </c>
       <c r="W17">
-        <v>1.000606639479402</v>
+        <v>1.576327731565273</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.018010906094998</v>
+        <v>1.254903373433086</v>
       </c>
       <c r="D18">
-        <v>1.304988921488536</v>
+        <v>0.822885328681112</v>
       </c>
       <c r="E18">
-        <v>0.9758771606163259</v>
+        <v>0.953889729049725</v>
       </c>
       <c r="F18">
-        <v>1.018010906094998</v>
+        <v>0.790707322023482</v>
       </c>
       <c r="G18">
-        <v>0.9824433943532049</v>
+        <v>0.7685627495754669</v>
       </c>
       <c r="H18">
-        <v>0.9918378834124513</v>
+        <v>0.7685627495754669</v>
       </c>
       <c r="I18">
-        <v>1.018010906094998</v>
+        <v>0.7685627495754669</v>
       </c>
       <c r="J18">
-        <v>1.304988921488536</v>
+        <v>0.8160410648557657</v>
       </c>
       <c r="K18">
-        <v>1.106263235839372</v>
+        <v>4.238667332708141</v>
       </c>
       <c r="L18">
-        <v>1.000717621606259</v>
+        <v>4.238667332708141</v>
       </c>
       <c r="M18">
-        <v>0.9571415779518964</v>
+        <v>0.9416898348624537</v>
       </c>
       <c r="N18">
-        <v>1.018010906094998</v>
+        <v>0.7685627495754669</v>
       </c>
       <c r="O18">
-        <v>0.9758771606163259</v>
+        <v>0.8160410648557657</v>
       </c>
       <c r="P18">
-        <v>1.140433041052431</v>
+        <v>2.527354198781953</v>
       </c>
       <c r="Q18">
-        <v>0.9791602774847654</v>
+        <v>0.8849653969527453</v>
       </c>
       <c r="R18">
-        <v>1.099625662733287</v>
+        <v>1.941090382379791</v>
       </c>
       <c r="S18">
-        <v>1.087769825486022</v>
+        <v>2.002866042204544</v>
       </c>
       <c r="T18">
-        <v>1.099625662733287</v>
+        <v>1.941090382379791</v>
       </c>
       <c r="U18">
-        <v>1.070330095638266</v>
+        <v>1.694290219047275</v>
       </c>
       <c r="V18">
-        <v>1.059866257729613</v>
+        <v>1.509144725152913</v>
       </c>
       <c r="W18">
-        <v>1.04216008767038</v>
+        <v>1.323418341898654</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.208820561009928</v>
+      </c>
+      <c r="D19">
+        <v>0.6464873878705333</v>
+      </c>
+      <c r="E19">
+        <v>0.7522179040192777</v>
+      </c>
+      <c r="F19">
+        <v>0.881800368914881</v>
+      </c>
+      <c r="G19">
+        <v>1.210449963865938</v>
+      </c>
+      <c r="H19">
+        <v>1.210449963865938</v>
+      </c>
+      <c r="I19">
+        <v>1.210449963865938</v>
+      </c>
+      <c r="J19">
+        <v>0.96961148854978</v>
+      </c>
+      <c r="K19">
+        <v>5.538708441774834</v>
+      </c>
+      <c r="L19">
+        <v>5.538708441774834</v>
+      </c>
+      <c r="M19">
+        <v>0.8700687005566781</v>
+      </c>
+      <c r="N19">
+        <v>1.210449963865938</v>
+      </c>
+      <c r="O19">
+        <v>0.96961148854978</v>
+      </c>
+      <c r="P19">
+        <v>3.254159965162307</v>
+      </c>
+      <c r="Q19">
+        <v>0.8609146962845289</v>
+      </c>
+      <c r="R19">
+        <v>2.572923298063517</v>
+      </c>
+      <c r="S19">
+        <v>2.420179278114631</v>
+      </c>
+      <c r="T19">
+        <v>2.572923298063517</v>
+      </c>
+      <c r="U19">
+        <v>2.117746949552457</v>
+      </c>
+      <c r="V19">
+        <v>1.936287552415153</v>
+      </c>
+      <c r="W19">
+        <v>1.509770602070231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9995624595088485</v>
+      </c>
+      <c r="D20">
+        <v>1.000013452344058</v>
+      </c>
+      <c r="E20">
+        <v>0.999572588401094</v>
+      </c>
+      <c r="F20">
+        <v>0.9994326851865284</v>
+      </c>
+      <c r="G20">
+        <v>0.9989514806277288</v>
+      </c>
+      <c r="H20">
+        <v>0.9989514806277288</v>
+      </c>
+      <c r="I20">
+        <v>0.9989514806277288</v>
+      </c>
+      <c r="J20">
+        <v>0.988539923815534</v>
+      </c>
+      <c r="K20">
+        <v>1.041638882366567</v>
+      </c>
+      <c r="L20">
+        <v>1.041638882366567</v>
+      </c>
+      <c r="M20">
+        <v>1.003008283263954</v>
+      </c>
+      <c r="N20">
+        <v>0.9989514806277288</v>
+      </c>
+      <c r="O20">
+        <v>0.988539923815534</v>
+      </c>
+      <c r="P20">
+        <v>1.015089403091051</v>
+      </c>
+      <c r="Q20">
+        <v>0.9940562561083139</v>
+      </c>
+      <c r="R20">
+        <v>1.009710095603277</v>
+      </c>
+      <c r="S20">
+        <v>1.009917131527732</v>
+      </c>
+      <c r="T20">
+        <v>1.009710095603277</v>
+      </c>
+      <c r="U20">
+        <v>1.007175718802731</v>
+      </c>
+      <c r="V20">
+        <v>1.005530871167731</v>
+      </c>
+      <c r="W20">
+        <v>1.003839969439289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000698421633131</v>
+      </c>
+      <c r="D21">
+        <v>0.993758846167905</v>
+      </c>
+      <c r="E21">
+        <v>0.9930648890227208</v>
+      </c>
+      <c r="F21">
+        <v>0.9909018666916163</v>
+      </c>
+      <c r="G21">
+        <v>0.9931101478651673</v>
+      </c>
+      <c r="H21">
+        <v>0.9931101478651673</v>
+      </c>
+      <c r="I21">
+        <v>0.9931101478651673</v>
+      </c>
+      <c r="J21">
+        <v>1.038860998658936</v>
+      </c>
+      <c r="K21">
+        <v>1.006463253683541</v>
+      </c>
+      <c r="L21">
+        <v>1.006463253683541</v>
+      </c>
+      <c r="M21">
+        <v>0.9879946921121984</v>
+      </c>
+      <c r="N21">
+        <v>0.9931101478651673</v>
+      </c>
+      <c r="O21">
+        <v>1.038860998658936</v>
+      </c>
+      <c r="P21">
+        <v>1.022662126171238</v>
+      </c>
+      <c r="Q21">
+        <v>1.015962943840828</v>
+      </c>
+      <c r="R21">
+        <v>1.012811466735881</v>
+      </c>
+      <c r="S21">
+        <v>1.012796380455066</v>
+      </c>
+      <c r="T21">
+        <v>1.012811466735881</v>
+      </c>
+      <c r="U21">
+        <v>1.007874822307591</v>
+      </c>
+      <c r="V21">
+        <v>1.004921887419106</v>
+      </c>
+      <c r="W21">
+        <v>1.000606639479402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9571415779518953</v>
+      </c>
+      <c r="D22">
+        <v>1.000717621606258</v>
+      </c>
+      <c r="E22">
+        <v>0.9824433943532045</v>
+      </c>
+      <c r="F22">
+        <v>0.9918378834124509</v>
+      </c>
+      <c r="G22">
+        <v>1.018010906094998</v>
+      </c>
+      <c r="H22">
+        <v>1.018010906094998</v>
+      </c>
+      <c r="I22">
+        <v>1.018010906094998</v>
+      </c>
+      <c r="J22">
+        <v>0.9758771606163263</v>
+      </c>
+      <c r="K22">
+        <v>1.304988921488541</v>
+      </c>
+      <c r="L22">
+        <v>1.304988921488541</v>
+      </c>
+      <c r="M22">
+        <v>1.106263235839375</v>
+      </c>
+      <c r="N22">
+        <v>1.018010906094998</v>
+      </c>
+      <c r="O22">
+        <v>0.9758771606163263</v>
+      </c>
+      <c r="P22">
+        <v>1.140433041052434</v>
+      </c>
+      <c r="Q22">
+        <v>0.9791602774847654</v>
+      </c>
+      <c r="R22">
+        <v>1.099625662733289</v>
+      </c>
+      <c r="S22">
+        <v>1.087769825486024</v>
+      </c>
+      <c r="T22">
+        <v>1.099625662733289</v>
+      </c>
+      <c r="U22">
+        <v>1.070330095638268</v>
+      </c>
+      <c r="V22">
+        <v>1.059866257729614</v>
+      </c>
+      <c r="W22">
+        <v>1.042160087670381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.898966052342543</v>
+      </c>
+      <c r="D23">
+        <v>1.001998485719895</v>
+      </c>
+      <c r="E23">
+        <v>1.07264057679271</v>
+      </c>
+      <c r="F23">
+        <v>0.7944352776713611</v>
+      </c>
+      <c r="G23">
         <v>1.364968759966968</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>1.364968759966968</v>
+      </c>
+      <c r="I23">
+        <v>1.364968759966968</v>
+      </c>
+      <c r="J23">
+        <v>1.24708349411705</v>
+      </c>
+      <c r="K23">
         <v>1.534320803069876</v>
       </c>
-      <c r="E19">
+      <c r="L23">
+        <v>1.534320803069876</v>
+      </c>
+      <c r="M23">
+        <v>1.244150697344267</v>
+      </c>
+      <c r="N23">
+        <v>1.364968759966968</v>
+      </c>
+      <c r="O23">
         <v>1.24708349411705</v>
       </c>
-      <c r="F19">
-        <v>1.364968759966968</v>
-      </c>
-      <c r="G19">
-        <v>1.07264057679271</v>
-      </c>
-      <c r="H19">
-        <v>0.794435277671361</v>
-      </c>
-      <c r="I19">
-        <v>1.364968759966968</v>
-      </c>
-      <c r="J19">
-        <v>1.534320803069876</v>
-      </c>
-      <c r="K19">
-        <v>1.244150697344267</v>
-      </c>
-      <c r="L19">
-        <v>1.001998485719895</v>
-      </c>
-      <c r="M19">
-        <v>0.898966052342543</v>
-      </c>
-      <c r="N19">
-        <v>1.364968759966968</v>
-      </c>
-      <c r="O19">
-        <v>1.24708349411705</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.390702148593463</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.15986203545488</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.382124352384631</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.284681624659878</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.382124352384631</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.304753408486651</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.316796478782714</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.144820518378084</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9587701285357418</v>
+        <v>1.177227910082598</v>
       </c>
       <c r="D3">
-        <v>0.9529824144288545</v>
+        <v>0.7814294200670343</v>
       </c>
       <c r="E3">
-        <v>0.9421002430646669</v>
+        <v>0.8892397304736644</v>
       </c>
       <c r="F3">
-        <v>0.9625532574558078</v>
+        <v>0.7546233449214304</v>
       </c>
       <c r="G3">
-        <v>0.9446819902974765</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="H3">
-        <v>0.9446819902974765</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="I3">
-        <v>0.9446819902974765</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="J3">
-        <v>1.132691488267001</v>
+        <v>0.9022677565366983</v>
       </c>
       <c r="K3">
-        <v>1.313557282760122</v>
+        <v>5.697991800285292</v>
       </c>
       <c r="L3">
-        <v>1.313557282760122</v>
+        <v>5.697991800285292</v>
       </c>
       <c r="M3">
-        <v>1.120614964915243</v>
+        <v>1.010453874806119</v>
       </c>
       <c r="N3">
-        <v>0.9446819902974765</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="O3">
-        <v>1.132691488267001</v>
+        <v>0.9022677565366983</v>
       </c>
       <c r="P3">
-        <v>1.223124385513561</v>
+        <v>3.300129778410995</v>
       </c>
       <c r="Q3">
-        <v>1.037395865665834</v>
+        <v>0.8957537435051814</v>
       </c>
       <c r="R3">
-        <v>1.130310253774866</v>
+        <v>2.443831999907371</v>
       </c>
       <c r="S3">
-        <v>1.12944967136393</v>
+        <v>2.496499762431885</v>
       </c>
       <c r="T3">
-        <v>1.130310253774866</v>
+        <v>2.443831999907371</v>
       </c>
       <c r="U3">
-        <v>1.083257751097316</v>
+        <v>2.055183932548945</v>
       </c>
       <c r="V3">
-        <v>1.055542598937348</v>
+        <v>1.79039443461918</v>
       </c>
       <c r="W3">
-        <v>1.040993971215614</v>
+        <v>1.49305878500912</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9518818160728856</v>
+        <v>1.21251380638576</v>
       </c>
       <c r="D4">
-        <v>0.9711807209918591</v>
+        <v>0.8085877467027321</v>
       </c>
       <c r="E4">
-        <v>0.8586229122657004</v>
+        <v>0.9199772560565421</v>
       </c>
       <c r="F4">
-        <v>0.8849646903713391</v>
+        <v>0.7801351711356335</v>
       </c>
       <c r="G4">
-        <v>0.9685179208066926</v>
+        <v>0.75651812870035</v>
       </c>
       <c r="H4">
-        <v>0.9685179208066926</v>
+        <v>0.75651812870035</v>
       </c>
       <c r="I4">
-        <v>0.9685179208066926</v>
+        <v>0.75651812870035</v>
       </c>
       <c r="J4">
-        <v>1.205893345514888</v>
+        <v>0.8611177673911361</v>
       </c>
       <c r="K4">
-        <v>1.671977490293228</v>
+        <v>4.86751873108657</v>
       </c>
       <c r="L4">
-        <v>1.671977490293228</v>
+        <v>4.86751873108657</v>
       </c>
       <c r="M4">
-        <v>1.229885850192874</v>
+        <v>0.9730797040422711</v>
       </c>
       <c r="N4">
-        <v>0.9685179208066926</v>
+        <v>0.75651812870035</v>
       </c>
       <c r="O4">
-        <v>1.205893345514888</v>
+        <v>0.8611177673911361</v>
       </c>
       <c r="P4">
-        <v>1.438935417904058</v>
+        <v>2.864318249238853</v>
       </c>
       <c r="Q4">
-        <v>1.032258128890294</v>
+        <v>0.8905475117238391</v>
       </c>
       <c r="R4">
-        <v>1.28212958553827</v>
+        <v>2.161718209059352</v>
       </c>
       <c r="S4">
-        <v>1.245497916024605</v>
+        <v>2.21620458484475</v>
       </c>
       <c r="T4">
-        <v>1.28212958553827</v>
+        <v>2.161718209059352</v>
       </c>
       <c r="U4">
-        <v>1.176252917220127</v>
+        <v>1.85128297080865</v>
       </c>
       <c r="V4">
-        <v>1.13470591793744</v>
+        <v>1.63233000238699</v>
       </c>
       <c r="W4">
-        <v>1.092865593313683</v>
+        <v>1.397431038937624</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.6604853551142255</v>
+        <v>1.105877347635785</v>
       </c>
       <c r="D5">
-        <v>0.6826008457045653</v>
+        <v>0.6862197591723446</v>
       </c>
       <c r="E5">
-        <v>0.9695876622103261</v>
+        <v>0.8178162145844196</v>
       </c>
       <c r="F5">
-        <v>0.6914714126149754</v>
+        <v>0.6745806324543401</v>
       </c>
       <c r="G5">
-        <v>1.301148574220877</v>
+        <v>0.6397446577796122</v>
       </c>
       <c r="H5">
-        <v>1.301148574220877</v>
+        <v>0.6397446577796122</v>
       </c>
       <c r="I5">
-        <v>1.301148574220877</v>
+        <v>0.6397446577796122</v>
       </c>
       <c r="J5">
-        <v>1.48667982918268</v>
+        <v>0.9312716001500801</v>
       </c>
       <c r="K5">
-        <v>2.690797619181962</v>
+        <v>7.559014007207876</v>
       </c>
       <c r="L5">
-        <v>2.690797619181962</v>
+        <v>7.559014007207876</v>
       </c>
       <c r="M5">
-        <v>1.628875154625719</v>
+        <v>1.055273499724583</v>
       </c>
       <c r="N5">
-        <v>1.301148574220877</v>
+        <v>0.6397446577796122</v>
       </c>
       <c r="O5">
-        <v>1.48667982918268</v>
+        <v>0.9312716001500801</v>
       </c>
       <c r="P5">
-        <v>2.088738724182321</v>
+        <v>4.245142803678978</v>
       </c>
       <c r="Q5">
-        <v>1.228133745696503</v>
+        <v>0.8745439073672499</v>
       </c>
       <c r="R5">
-        <v>1.826208674195173</v>
+        <v>3.043343421712523</v>
       </c>
       <c r="S5">
-        <v>1.715688370191656</v>
+        <v>3.102700607314125</v>
       </c>
       <c r="T5">
-        <v>1.826208674195173</v>
+        <v>3.043343421712522</v>
       </c>
       <c r="U5">
-        <v>1.612053421198961</v>
+        <v>2.486961619930497</v>
       </c>
       <c r="V5">
-        <v>1.549872451803345</v>
+        <v>2.11751822750032</v>
       </c>
       <c r="W5">
-        <v>1.263955806606916</v>
+        <v>1.68372471483863</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.421768598668107</v>
+        <v>1.29866023522534</v>
       </c>
       <c r="D6">
-        <v>1.076843431513267</v>
+        <v>0.5132938773590908</v>
       </c>
       <c r="E6">
-        <v>0.4032459628981633</v>
+        <v>0.779209352841477</v>
       </c>
       <c r="F6">
-        <v>0.1937812277589059</v>
+        <v>0.9829145718720474</v>
       </c>
       <c r="G6">
-        <v>0.2464754178935255</v>
+        <v>0.5728008300650002</v>
       </c>
       <c r="H6">
-        <v>0.2464754178935255</v>
+        <v>0.5728008300650002</v>
       </c>
       <c r="I6">
-        <v>0.2464754178935255</v>
+        <v>0.5728008300650002</v>
       </c>
       <c r="J6">
-        <v>3.277622917459601</v>
+        <v>1.623966048330001</v>
       </c>
       <c r="K6">
-        <v>4.995588504086641</v>
+        <v>10.72660315373433</v>
       </c>
       <c r="L6">
-        <v>4.995588504086641</v>
+        <v>10.72660315373433</v>
       </c>
       <c r="M6">
-        <v>2.215040945160054</v>
+        <v>1.300554106414375</v>
       </c>
       <c r="N6">
-        <v>0.2464754178935255</v>
+        <v>0.5728008300650002</v>
       </c>
       <c r="O6">
-        <v>3.277622917459601</v>
+        <v>1.623966048330001</v>
       </c>
       <c r="P6">
-        <v>4.136605710773122</v>
+        <v>6.175284601032163</v>
       </c>
       <c r="Q6">
-        <v>1.840434440178882</v>
+        <v>1.201587700585739</v>
       </c>
       <c r="R6">
-        <v>2.83989561314659</v>
+        <v>4.307790010709776</v>
       </c>
       <c r="S6">
-        <v>2.892152461481469</v>
+        <v>4.376592851635268</v>
       </c>
       <c r="T6">
-        <v>2.839895613146589</v>
+        <v>4.307790010709776</v>
       </c>
       <c r="U6">
-        <v>2.230733200584483</v>
+        <v>3.425644846242701</v>
       </c>
       <c r="V6">
-        <v>1.833881644046291</v>
+        <v>2.855076043007161</v>
       </c>
       <c r="W6">
-        <v>1.603795875679783</v>
+        <v>2.224750271980207</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994429548471711</v>
+        <v>0.2402253409968262</v>
       </c>
       <c r="D7">
-        <v>0.9990990231997954</v>
+        <v>0.00113892893827271</v>
       </c>
       <c r="E7">
-        <v>0.998787373256819</v>
+        <v>0.002535014580144676</v>
       </c>
       <c r="F7">
-        <v>0.9987068072638141</v>
+        <v>0.02764711682902918</v>
       </c>
       <c r="G7">
-        <v>0.9981281483657627</v>
+        <v>-0.001342139815924844</v>
       </c>
       <c r="H7">
-        <v>0.9981281483657627</v>
+        <v>-0.001342139815924844</v>
       </c>
       <c r="I7">
-        <v>0.9981281483657627</v>
+        <v>-0.001342139815924844</v>
       </c>
       <c r="J7">
-        <v>0.9981286879799181</v>
+        <v>3.787230915888017</v>
       </c>
       <c r="K7">
-        <v>1.060497045109141</v>
+        <v>5.221192146086116</v>
       </c>
       <c r="L7">
-        <v>1.060497045109141</v>
+        <v>5.221192146086116</v>
       </c>
       <c r="M7">
-        <v>0.9991445760890142</v>
+        <v>3.784510685936604</v>
       </c>
       <c r="N7">
-        <v>0.9981281483657627</v>
+        <v>-0.001342139815924844</v>
       </c>
       <c r="O7">
-        <v>0.9981286879799181</v>
+        <v>3.787230915888017</v>
       </c>
       <c r="P7">
-        <v>1.029312866544529</v>
+        <v>4.504211530987067</v>
       </c>
       <c r="Q7">
-        <v>0.9984580306183686</v>
+        <v>1.894882965234081</v>
       </c>
       <c r="R7">
-        <v>1.018917960484941</v>
+        <v>3.002360307386069</v>
       </c>
       <c r="S7">
-        <v>1.019137702115293</v>
+        <v>3.003652692184759</v>
       </c>
       <c r="T7">
-        <v>1.018917960484941</v>
+        <v>3.002360307386069</v>
       </c>
       <c r="U7">
-        <v>1.01388531367791</v>
+        <v>2.252403984184588</v>
       </c>
       <c r="V7">
-        <v>1.010733880615481</v>
+        <v>1.801654759384486</v>
       </c>
       <c r="W7">
-        <v>1.006491827013929</v>
+        <v>1.632892251179886</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000246631325177</v>
+        <v>0.2394496837162838</v>
       </c>
       <c r="D8">
-        <v>0.9921999634001185</v>
+        <v>0.00112344790160153</v>
       </c>
       <c r="E8">
-        <v>0.9987226475765173</v>
+        <v>0.002512355825932856</v>
       </c>
       <c r="F8">
-        <v>0.9906987850728354</v>
+        <v>0.02752177195081789</v>
       </c>
       <c r="G8">
-        <v>0.9983842380150161</v>
+        <v>-0.001327213979300888</v>
       </c>
       <c r="H8">
-        <v>0.9983842380150161</v>
+        <v>-0.001327213979300888</v>
       </c>
       <c r="I8">
-        <v>0.9983842380150161</v>
+        <v>-0.001327213979300888</v>
       </c>
       <c r="J8">
-        <v>0.9890206659675871</v>
+        <v>3.766703332693279</v>
       </c>
       <c r="K8">
-        <v>1.154334423271956</v>
+        <v>5.488704988933891</v>
       </c>
       <c r="L8">
-        <v>1.154334423271956</v>
+        <v>5.488704988933891</v>
       </c>
       <c r="M8">
-        <v>0.9976412720085414</v>
+        <v>3.762758854977094</v>
       </c>
       <c r="N8">
-        <v>0.9983842380150161</v>
+        <v>-0.001327213979300888</v>
       </c>
       <c r="O8">
-        <v>0.9890206659675871</v>
+        <v>3.766703332693279</v>
       </c>
       <c r="P8">
-        <v>1.071677544619772</v>
+        <v>4.627704160813585</v>
       </c>
       <c r="Q8">
-        <v>0.9938716567720522</v>
+        <v>1.884607844259606</v>
       </c>
       <c r="R8">
-        <v>1.047246442418187</v>
+        <v>3.08469370254929</v>
       </c>
       <c r="S8">
-        <v>1.047359245605354</v>
+        <v>3.085973559151034</v>
       </c>
       <c r="T8">
-        <v>1.047246442418186</v>
+        <v>3.08469370254929</v>
       </c>
       <c r="U8">
-        <v>1.035115493707769</v>
+        <v>2.314148365868451</v>
       </c>
       <c r="V8">
-        <v>1.027769242569219</v>
+        <v>1.851053249898901</v>
       </c>
       <c r="W8">
-        <v>1.015156078329718</v>
+        <v>1.66093090275245</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.998130567150189</v>
+        <v>0.2383260844378625</v>
       </c>
       <c r="D9">
-        <v>0.9918429683681035</v>
+        <v>0.00109965181655336</v>
       </c>
       <c r="E9">
-        <v>0.9969242017806696</v>
+        <v>0.002499900292827315</v>
       </c>
       <c r="F9">
-        <v>0.9940733591651486</v>
+        <v>0.02745440868780524</v>
       </c>
       <c r="G9">
-        <v>0.9913119217424731</v>
+        <v>-0.001304887573046856</v>
       </c>
       <c r="H9">
-        <v>0.9913119217424731</v>
+        <v>-0.001304887573046856</v>
       </c>
       <c r="I9">
-        <v>0.9913119217424731</v>
+        <v>-0.001304887573046856</v>
       </c>
       <c r="J9">
-        <v>1.0219636784962</v>
+        <v>3.75331679356298</v>
       </c>
       <c r="K9">
-        <v>1.26199931635865</v>
+        <v>5.732969410930469</v>
       </c>
       <c r="L9">
-        <v>1.26199931635865</v>
+        <v>5.732969410930469</v>
       </c>
       <c r="M9">
-        <v>0.9964958667854423</v>
+        <v>3.746013465503728</v>
       </c>
       <c r="N9">
-        <v>0.9913119217424731</v>
+        <v>-0.001304887573046856</v>
       </c>
       <c r="O9">
-        <v>1.0219636784962</v>
+        <v>3.75331679356298</v>
       </c>
       <c r="P9">
-        <v>1.141981497427425</v>
+        <v>4.743143102246725</v>
       </c>
       <c r="Q9">
-        <v>1.009443940138435</v>
+        <v>1.877908346927903</v>
       </c>
       <c r="R9">
-        <v>1.091758305532441</v>
+        <v>3.161660438973467</v>
       </c>
       <c r="S9">
-        <v>1.093629065545173</v>
+        <v>3.162928701595426</v>
       </c>
       <c r="T9">
-        <v>1.091758305532441</v>
+        <v>3.161660438973467</v>
       </c>
       <c r="U9">
-        <v>1.068049779594498</v>
+        <v>2.371870304303307</v>
       </c>
       <c r="V9">
-        <v>1.052702208024093</v>
+        <v>1.897235265928036</v>
       </c>
       <c r="W9">
-        <v>1.03159273498086</v>
+        <v>1.687546853457397</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.017868080730268</v>
+        <v>0.2337256779372219</v>
       </c>
       <c r="D10">
-        <v>0.9877940771695772</v>
+        <v>0.0009906345690860207</v>
       </c>
       <c r="E10">
-        <v>0.9881996959514808</v>
+        <v>0.00247559387204324</v>
       </c>
       <c r="F10">
-        <v>0.9962351215104377</v>
+        <v>0.02720422509780755</v>
       </c>
       <c r="G10">
-        <v>0.9896873653915497</v>
+        <v>-0.001199810403832538</v>
       </c>
       <c r="H10">
-        <v>0.9896873653915497</v>
+        <v>-0.001199810403832538</v>
       </c>
       <c r="I10">
-        <v>0.9896873653915497</v>
+        <v>-0.001199810403832538</v>
       </c>
       <c r="J10">
-        <v>0.9808963063579704</v>
+        <v>3.701048257542288</v>
       </c>
       <c r="K10">
-        <v>1.516172581477966</v>
+        <v>6.6785096978487</v>
       </c>
       <c r="L10">
-        <v>1.516172581477966</v>
+        <v>6.6785096978487</v>
       </c>
       <c r="M10">
-        <v>0.982281405064565</v>
+        <v>3.685635145740544</v>
       </c>
       <c r="N10">
-        <v>0.9896873653915497</v>
+        <v>-0.001199810403832538</v>
       </c>
       <c r="O10">
-        <v>0.9808963063579704</v>
+        <v>3.701048257542288</v>
       </c>
       <c r="P10">
-        <v>1.248534443917968</v>
+        <v>5.189778977695494</v>
       </c>
       <c r="Q10">
-        <v>0.9845480011547256</v>
+        <v>1.851761925707165</v>
       </c>
       <c r="R10">
-        <v>1.162252084409162</v>
+        <v>3.459452714995718</v>
       </c>
       <c r="S10">
-        <v>1.161756194595806</v>
+        <v>3.460677849754344</v>
       </c>
       <c r="T10">
-        <v>1.162252084409162</v>
+        <v>3.459452714995718</v>
       </c>
       <c r="U10">
-        <v>1.118738987294742</v>
+        <v>2.5952084347148</v>
       </c>
       <c r="V10">
-        <v>1.092928662914103</v>
+        <v>2.075926785691073</v>
       </c>
       <c r="W10">
-        <v>1.057391829206727</v>
+        <v>1.791048677775482</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.01371351104464</v>
+        <v>0.9694832973219962</v>
       </c>
       <c r="D11">
-        <v>1.045201545640358</v>
+        <v>0.9496169627056327</v>
       </c>
       <c r="E11">
-        <v>1.019897287505652</v>
+        <v>0.9531403875924397</v>
       </c>
       <c r="F11">
-        <v>1.052592904524059</v>
+        <v>0.9550730015016526</v>
       </c>
       <c r="G11">
-        <v>0.8109170700227578</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="H11">
-        <v>0.8109170700227578</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="I11">
-        <v>0.8109170700227578</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="J11">
-        <v>1.253631508310531</v>
+        <v>1.108154912647222</v>
       </c>
       <c r="K11">
-        <v>2.063420723421012</v>
+        <v>1.277531034035431</v>
       </c>
       <c r="L11">
-        <v>2.063420723421012</v>
+        <v>1.277531034035431</v>
       </c>
       <c r="M11">
-        <v>0.9944398385084143</v>
+        <v>1.114145282339764</v>
       </c>
       <c r="N11">
-        <v>0.8109170700227578</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="O11">
-        <v>1.253631508310531</v>
+        <v>1.108154912647222</v>
       </c>
       <c r="P11">
-        <v>1.658526115865772</v>
+        <v>1.192842973341327</v>
       </c>
       <c r="Q11">
-        <v>1.136764397908091</v>
+        <v>1.030647650119831</v>
       </c>
       <c r="R11">
-        <v>1.375989767251434</v>
+        <v>1.111557808984846</v>
       </c>
       <c r="S11">
-        <v>1.445649839745732</v>
+        <v>1.112942111425031</v>
       </c>
       <c r="T11">
-        <v>1.375989767251434</v>
+        <v>1.111557808984846</v>
       </c>
       <c r="U11">
-        <v>1.286966647314988</v>
+        <v>1.071953453636744</v>
       </c>
       <c r="V11">
-        <v>1.191756731856542</v>
+        <v>1.047360258963772</v>
       </c>
       <c r="W11">
-        <v>1.156726798622178</v>
+        <v>1.034516544802003</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.569984070182464</v>
+        <v>0.9789940541439455</v>
       </c>
       <c r="D12">
-        <v>0.3632148420855516</v>
+        <v>0.9754959122955211</v>
       </c>
       <c r="E12">
-        <v>1.916597466133352</v>
+        <v>0.972884862082778</v>
       </c>
       <c r="F12">
-        <v>0.5588256154470996</v>
+        <v>0.9737543296289498</v>
       </c>
       <c r="G12">
-        <v>1.379937255016048</v>
+        <v>0.9725772322027998</v>
       </c>
       <c r="H12">
-        <v>1.379937255016048</v>
+        <v>0.9725772322027998</v>
       </c>
       <c r="I12">
-        <v>1.379937255016048</v>
+        <v>0.9725772322027998</v>
       </c>
       <c r="J12">
-        <v>0.002237596383924254</v>
+        <v>1.071353174370487</v>
       </c>
       <c r="K12">
-        <v>0.001328490850010016</v>
+        <v>1.174051424177327</v>
       </c>
       <c r="L12">
-        <v>0.001328490850010016</v>
+        <v>1.174051424177327</v>
       </c>
       <c r="M12">
-        <v>0.08313614211869384</v>
+        <v>1.064121409340077</v>
       </c>
       <c r="N12">
-        <v>1.379937255016048</v>
+        <v>0.9725772322027998</v>
       </c>
       <c r="O12">
-        <v>0.002237596383924254</v>
+        <v>1.071353174370487</v>
       </c>
       <c r="P12">
-        <v>0.001783043616967135</v>
+        <v>1.122702299273907</v>
       </c>
       <c r="Q12">
-        <v>0.9594175312586382</v>
+        <v>1.022119018226633</v>
       </c>
       <c r="R12">
-        <v>0.4611677807499943</v>
+        <v>1.072660610250205</v>
       </c>
       <c r="S12">
-        <v>0.6400545177890954</v>
+        <v>1.072763153543531</v>
       </c>
       <c r="T12">
-        <v>0.4611677807499943</v>
+        <v>1.072660610250205</v>
       </c>
       <c r="U12">
-        <v>0.8250252020958337</v>
+        <v>1.047716673208348</v>
       </c>
       <c r="V12">
-        <v>0.9360076126798766</v>
+        <v>1.032688785007238</v>
       </c>
       <c r="W12">
-        <v>0.609407684777143</v>
+        <v>1.022904049780236</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3930322337325861</v>
+        <v>0.9256797702180856</v>
       </c>
       <c r="D13">
-        <v>0.4028156866737078</v>
+        <v>0.8587115594000619</v>
       </c>
       <c r="E13">
-        <v>0.005356301082907026</v>
+        <v>0.8720326035257026</v>
       </c>
       <c r="F13">
-        <v>1.128610781007443</v>
+        <v>0.8805794530012211</v>
       </c>
       <c r="G13">
-        <v>1.376818959164313</v>
+        <v>0.8513471394754552</v>
       </c>
       <c r="H13">
-        <v>1.376818959164313</v>
+        <v>0.8513471394754552</v>
       </c>
       <c r="I13">
-        <v>1.376818959164313</v>
+        <v>0.8513471394754552</v>
       </c>
       <c r="J13">
-        <v>2.359611698722838</v>
+        <v>1.244819439287141</v>
       </c>
       <c r="K13">
-        <v>0.4869577846942586</v>
+        <v>1.659532803955847</v>
       </c>
       <c r="L13">
-        <v>0.4869577846942586</v>
+        <v>1.659532803955847</v>
       </c>
       <c r="M13">
-        <v>1.911625012920187</v>
+        <v>1.21010064674572</v>
       </c>
       <c r="N13">
-        <v>1.376818959164313</v>
+        <v>0.8513471394754552</v>
       </c>
       <c r="O13">
-        <v>2.359611698722838</v>
+        <v>1.244819439287141</v>
       </c>
       <c r="P13">
-        <v>1.423284741708549</v>
+        <v>1.452176121621494</v>
       </c>
       <c r="Q13">
-        <v>1.182483999902873</v>
+        <v>1.058426021406422</v>
       </c>
       <c r="R13">
-        <v>1.407796147527137</v>
+        <v>1.251899794239481</v>
       </c>
       <c r="S13">
-        <v>0.950641928166668</v>
+        <v>1.258794948922897</v>
       </c>
       <c r="T13">
-        <v>1.407796147527137</v>
+        <v>1.251899794239481</v>
       </c>
       <c r="U13">
-        <v>1.057186185916079</v>
+        <v>1.156932996561036</v>
       </c>
       <c r="V13">
-        <v>1.121112740565726</v>
+        <v>1.09581582514392</v>
       </c>
       <c r="W13">
-        <v>1.00810355724978</v>
+        <v>1.062850426951155</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0287933131695283</v>
+        <v>0.9671786839128624</v>
       </c>
       <c r="D14">
-        <v>0.03001048724434661</v>
+        <v>0.5225162333292762</v>
       </c>
       <c r="E14">
-        <v>0.08375329453524756</v>
+        <v>0.8971918853663592</v>
       </c>
       <c r="F14">
-        <v>2.215396312838418</v>
+        <v>1.152892183263886</v>
       </c>
       <c r="G14">
-        <v>0.0003904390819234697</v>
+        <v>0.6722771099011959</v>
       </c>
       <c r="H14">
-        <v>0.0003904390819234697</v>
+        <v>0.6722771099011959</v>
       </c>
       <c r="I14">
-        <v>0.0003904390819234697</v>
+        <v>0.6722771099011959</v>
       </c>
       <c r="J14">
-        <v>3.835382676343219</v>
+        <v>2.024988589250265</v>
       </c>
       <c r="K14">
-        <v>0.001195947500271863</v>
+        <v>2.940046394784901</v>
       </c>
       <c r="L14">
-        <v>0.001195947500271863</v>
+        <v>2.940046394784901</v>
       </c>
       <c r="M14">
-        <v>1.719955642120351</v>
+        <v>1.624726820935379</v>
       </c>
       <c r="N14">
-        <v>0.0003904390819234697</v>
+        <v>0.6722771099011959</v>
       </c>
       <c r="O14">
-        <v>3.835382676343219</v>
+        <v>2.024988589250265</v>
       </c>
       <c r="P14">
-        <v>1.918289311921745</v>
+        <v>2.482517492017583</v>
       </c>
       <c r="Q14">
-        <v>1.959567985439233</v>
+        <v>1.461090237308312</v>
       </c>
       <c r="R14">
-        <v>1.278989687641805</v>
+        <v>1.879104031312121</v>
       </c>
       <c r="S14">
-        <v>1.306777306126246</v>
+        <v>1.954075623133842</v>
       </c>
       <c r="T14">
-        <v>1.278989687641805</v>
+        <v>1.879104031312121</v>
       </c>
       <c r="U14">
-        <v>0.9801805893651654</v>
+        <v>1.63362599482568</v>
       </c>
       <c r="V14">
-        <v>0.784222559308517</v>
+        <v>1.441356217840783</v>
       </c>
       <c r="W14">
-        <v>0.989359764104163</v>
+        <v>1.350227237593016</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.978017528762467</v>
+        <v>0.9587701285357418</v>
       </c>
       <c r="D15">
-        <v>2.103189352075622</v>
+        <v>0.9529824144288545</v>
       </c>
       <c r="E15">
-        <v>1.930752885397657</v>
+        <v>0.9421002430646669</v>
       </c>
       <c r="F15">
-        <v>0.3262007917718728</v>
+        <v>0.9625532574558078</v>
       </c>
       <c r="G15">
-        <v>0.3335060775395657</v>
+        <v>0.9446819902974765</v>
       </c>
       <c r="H15">
-        <v>0.3335060775395657</v>
+        <v>0.9446819902974765</v>
       </c>
       <c r="I15">
-        <v>0.3335060775395657</v>
+        <v>0.9446819902974765</v>
       </c>
       <c r="J15">
-        <v>0.0062426259214741</v>
+        <v>1.132691488267001</v>
       </c>
       <c r="K15">
-        <v>0.4867331853026556</v>
+        <v>1.313557282760122</v>
       </c>
       <c r="L15">
-        <v>0.4867331853026556</v>
+        <v>1.313557282760122</v>
       </c>
       <c r="M15">
-        <v>0.7639804803541627</v>
+        <v>1.120614964915243</v>
       </c>
       <c r="N15">
-        <v>0.3335060775395657</v>
+        <v>0.9446819902974765</v>
       </c>
       <c r="O15">
-        <v>0.0062426259214741</v>
+        <v>1.132691488267001</v>
       </c>
       <c r="P15">
-        <v>0.2464879056120649</v>
+        <v>1.223124385513561</v>
       </c>
       <c r="Q15">
-        <v>0.9684977556595658</v>
+        <v>1.037395865665834</v>
       </c>
       <c r="R15">
-        <v>0.2754939629212318</v>
+        <v>1.130310253774866</v>
       </c>
       <c r="S15">
-        <v>0.8079095655405957</v>
+        <v>1.12944967136393</v>
       </c>
       <c r="T15">
-        <v>0.2754939629212318</v>
+        <v>1.130310253774866</v>
       </c>
       <c r="U15">
-        <v>0.6893086935403382</v>
+        <v>1.083257751097316</v>
       </c>
       <c r="V15">
-        <v>0.6181481703401837</v>
+        <v>1.055542598937348</v>
       </c>
       <c r="W15">
-        <v>0.9910778658906845</v>
+        <v>1.040993971215614</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4897031399322694</v>
+        <v>0.9518818160728856</v>
       </c>
       <c r="D16">
-        <v>0.2088750462036798</v>
+        <v>0.9711807209918591</v>
       </c>
       <c r="E16">
-        <v>0.2384442471549519</v>
+        <v>0.8586229122657004</v>
       </c>
       <c r="F16">
-        <v>0.2203851410462157</v>
+        <v>0.8849646903713391</v>
       </c>
       <c r="G16">
-        <v>0.1936824347984073</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="H16">
-        <v>0.1936824347984073</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="I16">
-        <v>0.1936824347984073</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="J16">
-        <v>2.903836302671713</v>
+        <v>1.205893345514888</v>
       </c>
       <c r="K16">
-        <v>6.425370482485471</v>
+        <v>1.671977490293228</v>
       </c>
       <c r="L16">
-        <v>6.425370482485471</v>
+        <v>1.671977490293228</v>
       </c>
       <c r="M16">
-        <v>2.931722553383704</v>
+        <v>1.229885850192874</v>
       </c>
       <c r="N16">
-        <v>0.1936824347984073</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="O16">
-        <v>2.903836302671713</v>
+        <v>1.205893345514888</v>
       </c>
       <c r="P16">
-        <v>4.664603392578592</v>
+        <v>1.438935417904058</v>
       </c>
       <c r="Q16">
-        <v>1.571140274913333</v>
+        <v>1.032258128890294</v>
       </c>
       <c r="R16">
-        <v>3.174296406651864</v>
+        <v>1.28212958553827</v>
       </c>
       <c r="S16">
-        <v>3.189217010770712</v>
+        <v>1.245497916024605</v>
       </c>
       <c r="T16">
-        <v>3.174296406651864</v>
+        <v>1.28212958553827</v>
       </c>
       <c r="U16">
-        <v>2.440333366777636</v>
+        <v>1.176252917220127</v>
       </c>
       <c r="V16">
-        <v>1.99100318038179</v>
+        <v>1.13470591793744</v>
       </c>
       <c r="W16">
-        <v>1.701502418459552</v>
+        <v>1.092865593313683</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.74022200203002</v>
+        <v>0.6604853551142255</v>
       </c>
       <c r="D17">
-        <v>0.4161884932873424</v>
+        <v>0.6826008457045653</v>
       </c>
       <c r="E17">
-        <v>0.4740230179964037</v>
+        <v>0.9695876622103261</v>
       </c>
       <c r="F17">
-        <v>0.4139305141833607</v>
+        <v>0.6914714126149754</v>
       </c>
       <c r="G17">
-        <v>0.3881974605006971</v>
+        <v>1.301148574220877</v>
       </c>
       <c r="H17">
-        <v>0.3881974605006971</v>
+        <v>1.301148574220877</v>
       </c>
       <c r="I17">
-        <v>0.3881974605006971</v>
+        <v>1.301148574220877</v>
       </c>
       <c r="J17">
-        <v>2.210280459027976</v>
+        <v>1.48667982918268</v>
       </c>
       <c r="K17">
-        <v>5.700520034431405</v>
+        <v>2.690797619181962</v>
       </c>
       <c r="L17">
-        <v>5.700520034431405</v>
+        <v>2.690797619181962</v>
       </c>
       <c r="M17">
-        <v>2.267259871064979</v>
+        <v>1.628875154625719</v>
       </c>
       <c r="N17">
-        <v>0.3881974605006971</v>
+        <v>1.301148574220877</v>
       </c>
       <c r="O17">
-        <v>2.210280459027976</v>
+        <v>1.48667982918268</v>
       </c>
       <c r="P17">
-        <v>3.95540024672969</v>
+        <v>2.088738724182321</v>
       </c>
       <c r="Q17">
-        <v>1.34215173851219</v>
+        <v>1.228133745696503</v>
       </c>
       <c r="R17">
-        <v>2.766332651320026</v>
+        <v>1.826208674195173</v>
       </c>
       <c r="S17">
-        <v>2.794941170485262</v>
+        <v>1.715688370191656</v>
       </c>
       <c r="T17">
-        <v>2.766332651320026</v>
+        <v>1.826208674195173</v>
       </c>
       <c r="U17">
-        <v>2.193255242989121</v>
+        <v>1.612053421198961</v>
       </c>
       <c r="V17">
-        <v>1.832243686491436</v>
+        <v>1.549872451803345</v>
       </c>
       <c r="W17">
-        <v>1.576327731565273</v>
+        <v>1.263955806606916</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.254903373433086</v>
+        <v>0.421768598668107</v>
       </c>
       <c r="D18">
-        <v>0.822885328681112</v>
+        <v>1.076843431513267</v>
       </c>
       <c r="E18">
-        <v>0.953889729049725</v>
+        <v>0.4032459628981633</v>
       </c>
       <c r="F18">
-        <v>0.790707322023482</v>
+        <v>0.1937812277589059</v>
       </c>
       <c r="G18">
-        <v>0.7685627495754669</v>
+        <v>0.2464754178935255</v>
       </c>
       <c r="H18">
-        <v>0.7685627495754669</v>
+        <v>0.2464754178935255</v>
       </c>
       <c r="I18">
-        <v>0.7685627495754669</v>
+        <v>0.2464754178935255</v>
       </c>
       <c r="J18">
-        <v>0.8160410648557657</v>
+        <v>3.277622917459601</v>
       </c>
       <c r="K18">
-        <v>4.238667332708141</v>
+        <v>4.995588504086641</v>
       </c>
       <c r="L18">
-        <v>4.238667332708141</v>
+        <v>4.995588504086641</v>
       </c>
       <c r="M18">
-        <v>0.9416898348624537</v>
+        <v>2.215040945160054</v>
       </c>
       <c r="N18">
-        <v>0.7685627495754669</v>
+        <v>0.2464754178935255</v>
       </c>
       <c r="O18">
-        <v>0.8160410648557657</v>
+        <v>3.277622917459601</v>
       </c>
       <c r="P18">
-        <v>2.527354198781953</v>
+        <v>4.136605710773122</v>
       </c>
       <c r="Q18">
-        <v>0.8849653969527453</v>
+        <v>1.840434440178882</v>
       </c>
       <c r="R18">
-        <v>1.941090382379791</v>
+        <v>2.83989561314659</v>
       </c>
       <c r="S18">
-        <v>2.002866042204544</v>
+        <v>2.892152461481469</v>
       </c>
       <c r="T18">
-        <v>1.941090382379791</v>
+        <v>2.839895613146589</v>
       </c>
       <c r="U18">
-        <v>1.694290219047275</v>
+        <v>2.230733200584483</v>
       </c>
       <c r="V18">
-        <v>1.509144725152913</v>
+        <v>1.833881644046291</v>
       </c>
       <c r="W18">
-        <v>1.323418341898654</v>
+        <v>1.603795875679783</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.208820561009928</v>
+        <v>0.9994429548471711</v>
       </c>
       <c r="D19">
-        <v>0.6464873878705333</v>
+        <v>0.9990990231997954</v>
       </c>
       <c r="E19">
-        <v>0.7522179040192777</v>
+        <v>0.998787373256819</v>
       </c>
       <c r="F19">
-        <v>0.881800368914881</v>
+        <v>0.9987068072638141</v>
       </c>
       <c r="G19">
-        <v>1.210449963865938</v>
+        <v>0.9981281483657627</v>
       </c>
       <c r="H19">
-        <v>1.210449963865938</v>
+        <v>0.9981281483657627</v>
       </c>
       <c r="I19">
-        <v>1.210449963865938</v>
+        <v>0.9981281483657627</v>
       </c>
       <c r="J19">
-        <v>0.96961148854978</v>
+        <v>0.9981286879799181</v>
       </c>
       <c r="K19">
-        <v>5.538708441774834</v>
+        <v>1.060497045109141</v>
       </c>
       <c r="L19">
-        <v>5.538708441774834</v>
+        <v>1.060497045109141</v>
       </c>
       <c r="M19">
-        <v>0.8700687005566781</v>
+        <v>0.9991445760890142</v>
       </c>
       <c r="N19">
-        <v>1.210449963865938</v>
+        <v>0.9981281483657627</v>
       </c>
       <c r="O19">
-        <v>0.96961148854978</v>
+        <v>0.9981286879799181</v>
       </c>
       <c r="P19">
-        <v>3.254159965162307</v>
+        <v>1.029312866544529</v>
       </c>
       <c r="Q19">
-        <v>0.8609146962845289</v>
+        <v>0.9984580306183686</v>
       </c>
       <c r="R19">
-        <v>2.572923298063517</v>
+        <v>1.018917960484941</v>
       </c>
       <c r="S19">
-        <v>2.420179278114631</v>
+        <v>1.019137702115293</v>
       </c>
       <c r="T19">
-        <v>2.572923298063517</v>
+        <v>1.018917960484941</v>
       </c>
       <c r="U19">
-        <v>2.117746949552457</v>
+        <v>1.01388531367791</v>
       </c>
       <c r="V19">
-        <v>1.936287552415153</v>
+        <v>1.010733880615481</v>
       </c>
       <c r="W19">
-        <v>1.509770602070231</v>
+        <v>1.006491827013929</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9995624595088485</v>
+        <v>1.000246631325177</v>
       </c>
       <c r="D20">
-        <v>1.000013452344058</v>
+        <v>0.9921999634001185</v>
       </c>
       <c r="E20">
-        <v>0.999572588401094</v>
+        <v>0.9987226475765173</v>
       </c>
       <c r="F20">
-        <v>0.9994326851865284</v>
+        <v>0.9906987850728354</v>
       </c>
       <c r="G20">
-        <v>0.9989514806277288</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="H20">
-        <v>0.9989514806277288</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="I20">
-        <v>0.9989514806277288</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="J20">
-        <v>0.988539923815534</v>
+        <v>0.9890206659675871</v>
       </c>
       <c r="K20">
-        <v>1.041638882366567</v>
+        <v>1.154334423271956</v>
       </c>
       <c r="L20">
-        <v>1.041638882366567</v>
+        <v>1.154334423271956</v>
       </c>
       <c r="M20">
-        <v>1.003008283263954</v>
+        <v>0.9976412720085414</v>
       </c>
       <c r="N20">
-        <v>0.9989514806277288</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="O20">
-        <v>0.988539923815534</v>
+        <v>0.9890206659675871</v>
       </c>
       <c r="P20">
-        <v>1.015089403091051</v>
+        <v>1.071677544619772</v>
       </c>
       <c r="Q20">
-        <v>0.9940562561083139</v>
+        <v>0.9938716567720522</v>
       </c>
       <c r="R20">
-        <v>1.009710095603277</v>
+        <v>1.047246442418187</v>
       </c>
       <c r="S20">
-        <v>1.009917131527732</v>
+        <v>1.047359245605354</v>
       </c>
       <c r="T20">
-        <v>1.009710095603277</v>
+        <v>1.047246442418186</v>
       </c>
       <c r="U20">
-        <v>1.007175718802731</v>
+        <v>1.035115493707769</v>
       </c>
       <c r="V20">
-        <v>1.005530871167731</v>
+        <v>1.027769242569219</v>
       </c>
       <c r="W20">
-        <v>1.003839969439289</v>
+        <v>1.015156078329718</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000698421633131</v>
+        <v>0.998130567150189</v>
       </c>
       <c r="D21">
-        <v>0.993758846167905</v>
+        <v>0.9918429683681035</v>
       </c>
       <c r="E21">
-        <v>0.9930648890227208</v>
+        <v>0.9969242017806696</v>
       </c>
       <c r="F21">
-        <v>0.9909018666916163</v>
+        <v>0.9940733591651486</v>
       </c>
       <c r="G21">
-        <v>0.9931101478651673</v>
+        <v>0.9913119217424731</v>
       </c>
       <c r="H21">
-        <v>0.9931101478651673</v>
+        <v>0.9913119217424731</v>
       </c>
       <c r="I21">
-        <v>0.9931101478651673</v>
+        <v>0.9913119217424731</v>
       </c>
       <c r="J21">
-        <v>1.038860998658936</v>
+        <v>1.0219636784962</v>
       </c>
       <c r="K21">
-        <v>1.006463253683541</v>
+        <v>1.26199931635865</v>
       </c>
       <c r="L21">
-        <v>1.006463253683541</v>
+        <v>1.26199931635865</v>
       </c>
       <c r="M21">
-        <v>0.9879946921121984</v>
+        <v>0.9964958667854423</v>
       </c>
       <c r="N21">
-        <v>0.9931101478651673</v>
+        <v>0.9913119217424731</v>
       </c>
       <c r="O21">
-        <v>1.038860998658936</v>
+        <v>1.0219636784962</v>
       </c>
       <c r="P21">
-        <v>1.022662126171238</v>
+        <v>1.141981497427425</v>
       </c>
       <c r="Q21">
-        <v>1.015962943840828</v>
+        <v>1.009443940138435</v>
       </c>
       <c r="R21">
-        <v>1.012811466735881</v>
+        <v>1.091758305532441</v>
       </c>
       <c r="S21">
-        <v>1.012796380455066</v>
+        <v>1.093629065545173</v>
       </c>
       <c r="T21">
-        <v>1.012811466735881</v>
+        <v>1.091758305532441</v>
       </c>
       <c r="U21">
-        <v>1.007874822307591</v>
+        <v>1.068049779594498</v>
       </c>
       <c r="V21">
-        <v>1.004921887419106</v>
+        <v>1.052702208024093</v>
       </c>
       <c r="W21">
-        <v>1.000606639479402</v>
+        <v>1.03159273498086</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9571415779518953</v>
+        <v>1.017868080730268</v>
       </c>
       <c r="D22">
-        <v>1.000717621606258</v>
+        <v>0.9877940771695772</v>
       </c>
       <c r="E22">
-        <v>0.9824433943532045</v>
+        <v>0.9881996959514808</v>
       </c>
       <c r="F22">
-        <v>0.9918378834124509</v>
+        <v>0.9962351215104377</v>
       </c>
       <c r="G22">
-        <v>1.018010906094998</v>
+        <v>0.9896873653915497</v>
       </c>
       <c r="H22">
-        <v>1.018010906094998</v>
+        <v>0.9896873653915497</v>
       </c>
       <c r="I22">
-        <v>1.018010906094998</v>
+        <v>0.9896873653915497</v>
       </c>
       <c r="J22">
-        <v>0.9758771606163263</v>
+        <v>0.9808963063579704</v>
       </c>
       <c r="K22">
-        <v>1.304988921488541</v>
+        <v>1.516172581477966</v>
       </c>
       <c r="L22">
-        <v>1.304988921488541</v>
+        <v>1.516172581477966</v>
       </c>
       <c r="M22">
-        <v>1.106263235839375</v>
+        <v>0.982281405064565</v>
       </c>
       <c r="N22">
-        <v>1.018010906094998</v>
+        <v>0.9896873653915497</v>
       </c>
       <c r="O22">
-        <v>0.9758771606163263</v>
+        <v>0.9808963063579704</v>
       </c>
       <c r="P22">
-        <v>1.140433041052434</v>
+        <v>1.248534443917968</v>
       </c>
       <c r="Q22">
-        <v>0.9791602774847654</v>
+        <v>0.9845480011547256</v>
       </c>
       <c r="R22">
-        <v>1.099625662733289</v>
+        <v>1.162252084409162</v>
       </c>
       <c r="S22">
-        <v>1.087769825486024</v>
+        <v>1.161756194595806</v>
       </c>
       <c r="T22">
-        <v>1.099625662733289</v>
+        <v>1.162252084409162</v>
       </c>
       <c r="U22">
-        <v>1.070330095638268</v>
+        <v>1.118738987294742</v>
       </c>
       <c r="V22">
-        <v>1.059866257729614</v>
+        <v>1.092928662914103</v>
       </c>
       <c r="W22">
-        <v>1.042160087670381</v>
+        <v>1.057391829206727</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.01371351104464</v>
+      </c>
+      <c r="D23">
+        <v>1.045201545640358</v>
+      </c>
+      <c r="E23">
+        <v>1.019897287505652</v>
+      </c>
+      <c r="F23">
+        <v>1.052592904524059</v>
+      </c>
+      <c r="G23">
+        <v>0.8109170700227578</v>
+      </c>
+      <c r="H23">
+        <v>0.8109170700227578</v>
+      </c>
+      <c r="I23">
+        <v>0.8109170700227578</v>
+      </c>
+      <c r="J23">
+        <v>1.253631508310531</v>
+      </c>
+      <c r="K23">
+        <v>2.063420723421012</v>
+      </c>
+      <c r="L23">
+        <v>2.063420723421012</v>
+      </c>
+      <c r="M23">
+        <v>0.9944398385084143</v>
+      </c>
+      <c r="N23">
+        <v>0.8109170700227578</v>
+      </c>
+      <c r="O23">
+        <v>1.253631508310531</v>
+      </c>
+      <c r="P23">
+        <v>1.658526115865772</v>
+      </c>
+      <c r="Q23">
+        <v>1.136764397908091</v>
+      </c>
+      <c r="R23">
+        <v>1.375989767251434</v>
+      </c>
+      <c r="S23">
+        <v>1.445649839745732</v>
+      </c>
+      <c r="T23">
+        <v>1.375989767251434</v>
+      </c>
+      <c r="U23">
+        <v>1.286966647314988</v>
+      </c>
+      <c r="V23">
+        <v>1.191756731856542</v>
+      </c>
+      <c r="W23">
+        <v>1.156726798622178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.569984070182464</v>
+      </c>
+      <c r="D24">
+        <v>0.3632148420855516</v>
+      </c>
+      <c r="E24">
+        <v>1.916597466133352</v>
+      </c>
+      <c r="F24">
+        <v>0.5588256154470996</v>
+      </c>
+      <c r="G24">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="H24">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="I24">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="J24">
+        <v>0.002237596383924254</v>
+      </c>
+      <c r="K24">
+        <v>0.001328490850010016</v>
+      </c>
+      <c r="L24">
+        <v>0.001328490850010016</v>
+      </c>
+      <c r="M24">
+        <v>0.08313614211869384</v>
+      </c>
+      <c r="N24">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="O24">
+        <v>0.002237596383924254</v>
+      </c>
+      <c r="P24">
+        <v>0.001783043616967135</v>
+      </c>
+      <c r="Q24">
+        <v>0.9594175312586382</v>
+      </c>
+      <c r="R24">
+        <v>0.4611677807499943</v>
+      </c>
+      <c r="S24">
+        <v>0.6400545177890954</v>
+      </c>
+      <c r="T24">
+        <v>0.4611677807499943</v>
+      </c>
+      <c r="U24">
+        <v>0.8250252020958337</v>
+      </c>
+      <c r="V24">
+        <v>0.9360076126798766</v>
+      </c>
+      <c r="W24">
+        <v>0.609407684777143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.3930322337325861</v>
+      </c>
+      <c r="D25">
+        <v>0.4028156866737078</v>
+      </c>
+      <c r="E25">
+        <v>0.005356301082907026</v>
+      </c>
+      <c r="F25">
+        <v>1.128610781007443</v>
+      </c>
+      <c r="G25">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="H25">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="I25">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="J25">
+        <v>2.359611698722838</v>
+      </c>
+      <c r="K25">
+        <v>0.4869577846942586</v>
+      </c>
+      <c r="L25">
+        <v>0.4869577846942586</v>
+      </c>
+      <c r="M25">
+        <v>1.911625012920187</v>
+      </c>
+      <c r="N25">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="O25">
+        <v>2.359611698722838</v>
+      </c>
+      <c r="P25">
+        <v>1.423284741708549</v>
+      </c>
+      <c r="Q25">
+        <v>1.182483999902873</v>
+      </c>
+      <c r="R25">
+        <v>1.407796147527137</v>
+      </c>
+      <c r="S25">
+        <v>0.950641928166668</v>
+      </c>
+      <c r="T25">
+        <v>1.407796147527137</v>
+      </c>
+      <c r="U25">
+        <v>1.057186185916079</v>
+      </c>
+      <c r="V25">
+        <v>1.121112740565726</v>
+      </c>
+      <c r="W25">
+        <v>1.00810355724978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.0287933131695283</v>
+      </c>
+      <c r="D26">
+        <v>0.03001048724434661</v>
+      </c>
+      <c r="E26">
+        <v>0.08375329453524756</v>
+      </c>
+      <c r="F26">
+        <v>2.215396312838418</v>
+      </c>
+      <c r="G26">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="H26">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="I26">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="J26">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="K26">
+        <v>0.001195947500271863</v>
+      </c>
+      <c r="L26">
+        <v>0.001195947500271863</v>
+      </c>
+      <c r="M26">
+        <v>1.719955642120351</v>
+      </c>
+      <c r="N26">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="O26">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="P26">
+        <v>1.918289311921745</v>
+      </c>
+      <c r="Q26">
+        <v>1.959567985439233</v>
+      </c>
+      <c r="R26">
+        <v>1.278989687641805</v>
+      </c>
+      <c r="S26">
+        <v>1.306777306126246</v>
+      </c>
+      <c r="T26">
+        <v>1.278989687641805</v>
+      </c>
+      <c r="U26">
+        <v>0.9801805893651654</v>
+      </c>
+      <c r="V26">
+        <v>0.784222559308517</v>
+      </c>
+      <c r="W26">
+        <v>0.989359764104163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.978017528762467</v>
+      </c>
+      <c r="D27">
+        <v>2.103189352075622</v>
+      </c>
+      <c r="E27">
+        <v>1.930752885397657</v>
+      </c>
+      <c r="F27">
+        <v>0.3262007917718728</v>
+      </c>
+      <c r="G27">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="H27">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="I27">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="J27">
+        <v>0.0062426259214741</v>
+      </c>
+      <c r="K27">
+        <v>0.4867331853026556</v>
+      </c>
+      <c r="L27">
+        <v>0.4867331853026556</v>
+      </c>
+      <c r="M27">
+        <v>0.7639804803541627</v>
+      </c>
+      <c r="N27">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="O27">
+        <v>0.0062426259214741</v>
+      </c>
+      <c r="P27">
+        <v>0.2464879056120649</v>
+      </c>
+      <c r="Q27">
+        <v>0.9684977556595658</v>
+      </c>
+      <c r="R27">
+        <v>0.2754939629212318</v>
+      </c>
+      <c r="S27">
+        <v>0.8079095655405957</v>
+      </c>
+      <c r="T27">
+        <v>0.2754939629212318</v>
+      </c>
+      <c r="U27">
+        <v>0.6893086935403382</v>
+      </c>
+      <c r="V27">
+        <v>0.6181481703401837</v>
+      </c>
+      <c r="W27">
+        <v>0.9910778658906845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.4897031399322694</v>
+      </c>
+      <c r="D28">
+        <v>0.2088750462036798</v>
+      </c>
+      <c r="E28">
+        <v>0.2384442471549519</v>
+      </c>
+      <c r="F28">
+        <v>0.2203851410462157</v>
+      </c>
+      <c r="G28">
+        <v>0.1936824347984073</v>
+      </c>
+      <c r="H28">
+        <v>0.1936824347984073</v>
+      </c>
+      <c r="I28">
+        <v>0.1936824347984073</v>
+      </c>
+      <c r="J28">
+        <v>2.903836302671713</v>
+      </c>
+      <c r="K28">
+        <v>6.425370482485471</v>
+      </c>
+      <c r="L28">
+        <v>6.425370482485471</v>
+      </c>
+      <c r="M28">
+        <v>2.931722553383704</v>
+      </c>
+      <c r="N28">
+        <v>0.1936824347984073</v>
+      </c>
+      <c r="O28">
+        <v>2.903836302671713</v>
+      </c>
+      <c r="P28">
+        <v>4.664603392578592</v>
+      </c>
+      <c r="Q28">
+        <v>1.571140274913333</v>
+      </c>
+      <c r="R28">
+        <v>3.174296406651864</v>
+      </c>
+      <c r="S28">
+        <v>3.189217010770712</v>
+      </c>
+      <c r="T28">
+        <v>3.174296406651864</v>
+      </c>
+      <c r="U28">
+        <v>2.440333366777636</v>
+      </c>
+      <c r="V28">
+        <v>1.99100318038179</v>
+      </c>
+      <c r="W28">
+        <v>1.701502418459552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.74022200203002</v>
+      </c>
+      <c r="D29">
+        <v>0.4161884932873424</v>
+      </c>
+      <c r="E29">
+        <v>0.4740230179964037</v>
+      </c>
+      <c r="F29">
+        <v>0.4139305141833607</v>
+      </c>
+      <c r="G29">
+        <v>0.3881974605006971</v>
+      </c>
+      <c r="H29">
+        <v>0.3881974605006971</v>
+      </c>
+      <c r="I29">
+        <v>0.3881974605006971</v>
+      </c>
+      <c r="J29">
+        <v>2.210280459027976</v>
+      </c>
+      <c r="K29">
+        <v>5.700520034431405</v>
+      </c>
+      <c r="L29">
+        <v>5.700520034431405</v>
+      </c>
+      <c r="M29">
+        <v>2.267259871064979</v>
+      </c>
+      <c r="N29">
+        <v>0.3881974605006971</v>
+      </c>
+      <c r="O29">
+        <v>2.210280459027976</v>
+      </c>
+      <c r="P29">
+        <v>3.95540024672969</v>
+      </c>
+      <c r="Q29">
+        <v>1.34215173851219</v>
+      </c>
+      <c r="R29">
+        <v>2.766332651320026</v>
+      </c>
+      <c r="S29">
+        <v>2.794941170485262</v>
+      </c>
+      <c r="T29">
+        <v>2.766332651320026</v>
+      </c>
+      <c r="U29">
+        <v>2.193255242989121</v>
+      </c>
+      <c r="V29">
+        <v>1.832243686491436</v>
+      </c>
+      <c r="W29">
+        <v>1.576327731565273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.254903373433086</v>
+      </c>
+      <c r="D30">
+        <v>0.822885328681112</v>
+      </c>
+      <c r="E30">
+        <v>0.953889729049725</v>
+      </c>
+      <c r="F30">
+        <v>0.790707322023482</v>
+      </c>
+      <c r="G30">
+        <v>0.7685627495754669</v>
+      </c>
+      <c r="H30">
+        <v>0.7685627495754669</v>
+      </c>
+      <c r="I30">
+        <v>0.7685627495754669</v>
+      </c>
+      <c r="J30">
+        <v>0.8160410648557657</v>
+      </c>
+      <c r="K30">
+        <v>4.238667332708141</v>
+      </c>
+      <c r="L30">
+        <v>4.238667332708141</v>
+      </c>
+      <c r="M30">
+        <v>0.9416898348624537</v>
+      </c>
+      <c r="N30">
+        <v>0.7685627495754669</v>
+      </c>
+      <c r="O30">
+        <v>0.8160410648557657</v>
+      </c>
+      <c r="P30">
+        <v>2.527354198781953</v>
+      </c>
+      <c r="Q30">
+        <v>0.8849653969527453</v>
+      </c>
+      <c r="R30">
+        <v>1.941090382379791</v>
+      </c>
+      <c r="S30">
+        <v>2.002866042204544</v>
+      </c>
+      <c r="T30">
+        <v>1.941090382379791</v>
+      </c>
+      <c r="U30">
+        <v>1.694290219047275</v>
+      </c>
+      <c r="V30">
+        <v>1.509144725152913</v>
+      </c>
+      <c r="W30">
+        <v>1.323418341898654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.208820561009928</v>
+      </c>
+      <c r="D31">
+        <v>0.6464873878705333</v>
+      </c>
+      <c r="E31">
+        <v>0.7522179040192777</v>
+      </c>
+      <c r="F31">
+        <v>0.881800368914881</v>
+      </c>
+      <c r="G31">
+        <v>1.210449963865938</v>
+      </c>
+      <c r="H31">
+        <v>1.210449963865938</v>
+      </c>
+      <c r="I31">
+        <v>1.210449963865938</v>
+      </c>
+      <c r="J31">
+        <v>0.96961148854978</v>
+      </c>
+      <c r="K31">
+        <v>5.538708441774834</v>
+      </c>
+      <c r="L31">
+        <v>5.538708441774834</v>
+      </c>
+      <c r="M31">
+        <v>0.8700687005566781</v>
+      </c>
+      <c r="N31">
+        <v>1.210449963865938</v>
+      </c>
+      <c r="O31">
+        <v>0.96961148854978</v>
+      </c>
+      <c r="P31">
+        <v>3.254159965162307</v>
+      </c>
+      <c r="Q31">
+        <v>0.8609146962845289</v>
+      </c>
+      <c r="R31">
+        <v>2.572923298063517</v>
+      </c>
+      <c r="S31">
+        <v>2.420179278114631</v>
+      </c>
+      <c r="T31">
+        <v>2.572923298063517</v>
+      </c>
+      <c r="U31">
+        <v>2.117746949552457</v>
+      </c>
+      <c r="V31">
+        <v>1.936287552415153</v>
+      </c>
+      <c r="W31">
+        <v>1.509770602070231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.2358865764986303</v>
+      </c>
+      <c r="D32">
+        <v>0.000972024362191781</v>
+      </c>
+      <c r="E32">
+        <v>0.002328569554794522</v>
+      </c>
+      <c r="F32">
+        <v>0.0261257860890411</v>
+      </c>
+      <c r="G32">
+        <v>-0.001174491636986302</v>
+      </c>
+      <c r="H32">
+        <v>-0.001174491636986302</v>
+      </c>
+      <c r="I32">
+        <v>-0.001174491636986302</v>
+      </c>
+      <c r="J32">
+        <v>3.546992953636714</v>
+      </c>
+      <c r="K32">
+        <v>7.927111028986301</v>
+      </c>
+      <c r="L32">
+        <v>7.927111028986301</v>
+      </c>
+      <c r="M32">
+        <v>3.545767832329591</v>
+      </c>
+      <c r="N32">
+        <v>-0.001174491636986302</v>
+      </c>
+      <c r="O32">
+        <v>3.546992953636714</v>
+      </c>
+      <c r="P32">
+        <v>5.737051991311508</v>
+      </c>
+      <c r="Q32">
+        <v>1.774660761595754</v>
+      </c>
+      <c r="R32">
+        <v>3.824309830328676</v>
+      </c>
+      <c r="S32">
+        <v>3.825477517392603</v>
+      </c>
+      <c r="T32">
+        <v>3.824309830328676</v>
+      </c>
+      <c r="U32">
+        <v>2.868814515135206</v>
+      </c>
+      <c r="V32">
+        <v>2.294816713780768</v>
+      </c>
+      <c r="W32">
+        <v>1.910501284977535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.2285312454789473</v>
+      </c>
+      <c r="D33">
+        <v>0.0006797100494736845</v>
+      </c>
+      <c r="E33">
+        <v>0.002342972905263157</v>
+      </c>
+      <c r="F33">
+        <v>0.02540550047368421</v>
+      </c>
+      <c r="G33">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="H33">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="I33">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="J33">
+        <v>3.407102321590526</v>
+      </c>
+      <c r="K33">
+        <v>10.01261273836842</v>
+      </c>
+      <c r="L33">
+        <v>10.01261273836842</v>
+      </c>
+      <c r="M33">
+        <v>3.405923355662632</v>
+      </c>
+      <c r="N33">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="O33">
+        <v>3.407102321590526</v>
+      </c>
+      <c r="P33">
+        <v>6.709857529979473</v>
+      </c>
+      <c r="Q33">
+        <v>1.704722647247894</v>
+      </c>
+      <c r="R33">
+        <v>4.472944363472281</v>
+      </c>
+      <c r="S33">
+        <v>4.474019344288069</v>
+      </c>
+      <c r="T33">
+        <v>4.47294436347228</v>
+      </c>
+      <c r="U33">
+        <v>3.355294015830526</v>
+      </c>
+      <c r="V33">
+        <v>2.684058818755999</v>
+      </c>
+      <c r="W33">
+        <v>2.135214484373355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.2285312454789473</v>
+      </c>
+      <c r="D34">
+        <v>0.0006797100494736845</v>
+      </c>
+      <c r="E34">
+        <v>0.002342972905263157</v>
+      </c>
+      <c r="F34">
+        <v>0.02540550047368421</v>
+      </c>
+      <c r="G34">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="H34">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="I34">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="J34">
+        <v>3.407102321590526</v>
+      </c>
+      <c r="K34">
+        <v>10.01261273836842</v>
+      </c>
+      <c r="L34">
+        <v>10.01261273836842</v>
+      </c>
+      <c r="M34">
+        <v>3.405923355662632</v>
+      </c>
+      <c r="N34">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="O34">
+        <v>3.407102321590526</v>
+      </c>
+      <c r="P34">
+        <v>6.709857529979473</v>
+      </c>
+      <c r="Q34">
+        <v>1.704722647247894</v>
+      </c>
+      <c r="R34">
+        <v>4.472944363472281</v>
+      </c>
+      <c r="S34">
+        <v>4.474019344288069</v>
+      </c>
+      <c r="T34">
+        <v>4.47294436347228</v>
+      </c>
+      <c r="U34">
+        <v>3.355294015830526</v>
+      </c>
+      <c r="V34">
+        <v>2.684058818755999</v>
+      </c>
+      <c r="W34">
+        <v>2.135214484373355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.6503803038767374</v>
+      </c>
+      <c r="D35">
+        <v>0.4143490544170742</v>
+      </c>
+      <c r="E35">
+        <v>0.476978684855654</v>
+      </c>
+      <c r="F35">
+        <v>0.4064132418113491</v>
+      </c>
+      <c r="G35">
+        <v>0.394274429213854</v>
+      </c>
+      <c r="H35">
+        <v>0.394274429213854</v>
+      </c>
+      <c r="I35">
+        <v>0.394274429213854</v>
+      </c>
+      <c r="J35">
+        <v>0.4086466486231076</v>
+      </c>
+      <c r="K35">
+        <v>32.38979835641413</v>
+      </c>
+      <c r="L35">
+        <v>32.38979835641413</v>
+      </c>
+      <c r="M35">
+        <v>0.4669330274124808</v>
+      </c>
+      <c r="N35">
+        <v>0.394274429213854</v>
+      </c>
+      <c r="O35">
+        <v>0.4086466486231076</v>
+      </c>
+      <c r="P35">
+        <v>16.39922250251862</v>
+      </c>
+      <c r="Q35">
+        <v>0.4428126667393808</v>
+      </c>
+      <c r="R35">
+        <v>11.06423981141703</v>
+      </c>
+      <c r="S35">
+        <v>11.09180789663096</v>
+      </c>
+      <c r="T35">
+        <v>11.06423981141703</v>
+      </c>
+      <c r="U35">
+        <v>8.417424529776685</v>
+      </c>
+      <c r="V35">
+        <v>6.812794509664118</v>
+      </c>
+      <c r="W35">
+        <v>4.450971718328049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9995624595088485</v>
+      </c>
+      <c r="D36">
+        <v>1.000013452344058</v>
+      </c>
+      <c r="E36">
+        <v>0.999572588401094</v>
+      </c>
+      <c r="F36">
+        <v>0.9994326851865284</v>
+      </c>
+      <c r="G36">
+        <v>0.9989514806277288</v>
+      </c>
+      <c r="H36">
+        <v>0.9989514806277288</v>
+      </c>
+      <c r="I36">
+        <v>0.9989514806277288</v>
+      </c>
+      <c r="J36">
+        <v>0.988539923815534</v>
+      </c>
+      <c r="K36">
+        <v>1.041638882366567</v>
+      </c>
+      <c r="L36">
+        <v>1.041638882366567</v>
+      </c>
+      <c r="M36">
+        <v>1.003008283263954</v>
+      </c>
+      <c r="N36">
+        <v>0.9989514806277288</v>
+      </c>
+      <c r="O36">
+        <v>0.988539923815534</v>
+      </c>
+      <c r="P36">
+        <v>1.015089403091051</v>
+      </c>
+      <c r="Q36">
+        <v>0.9940562561083139</v>
+      </c>
+      <c r="R36">
+        <v>1.009710095603277</v>
+      </c>
+      <c r="S36">
+        <v>1.009917131527732</v>
+      </c>
+      <c r="T36">
+        <v>1.009710095603277</v>
+      </c>
+      <c r="U36">
+        <v>1.007175718802731</v>
+      </c>
+      <c r="V36">
+        <v>1.005530871167731</v>
+      </c>
+      <c r="W36">
+        <v>1.003839969439289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000698421633131</v>
+      </c>
+      <c r="D37">
+        <v>0.993758846167905</v>
+      </c>
+      <c r="E37">
+        <v>0.9930648890227208</v>
+      </c>
+      <c r="F37">
+        <v>0.9909018666916163</v>
+      </c>
+      <c r="G37">
+        <v>0.9931101478651673</v>
+      </c>
+      <c r="H37">
+        <v>0.9931101478651673</v>
+      </c>
+      <c r="I37">
+        <v>0.9931101478651673</v>
+      </c>
+      <c r="J37">
+        <v>1.038860998658936</v>
+      </c>
+      <c r="K37">
+        <v>1.006463253683541</v>
+      </c>
+      <c r="L37">
+        <v>1.006463253683541</v>
+      </c>
+      <c r="M37">
+        <v>0.9879946921121984</v>
+      </c>
+      <c r="N37">
+        <v>0.9931101478651673</v>
+      </c>
+      <c r="O37">
+        <v>1.038860998658936</v>
+      </c>
+      <c r="P37">
+        <v>1.022662126171238</v>
+      </c>
+      <c r="Q37">
+        <v>1.015962943840828</v>
+      </c>
+      <c r="R37">
+        <v>1.012811466735881</v>
+      </c>
+      <c r="S37">
+        <v>1.012796380455066</v>
+      </c>
+      <c r="T37">
+        <v>1.012811466735881</v>
+      </c>
+      <c r="U37">
+        <v>1.007874822307591</v>
+      </c>
+      <c r="V37">
+        <v>1.004921887419106</v>
+      </c>
+      <c r="W37">
+        <v>1.000606639479402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9571415779518953</v>
+      </c>
+      <c r="D38">
+        <v>1.000717621606258</v>
+      </c>
+      <c r="E38">
+        <v>0.9824433943532045</v>
+      </c>
+      <c r="F38">
+        <v>0.9918378834124509</v>
+      </c>
+      <c r="G38">
+        <v>1.018010906094998</v>
+      </c>
+      <c r="H38">
+        <v>1.018010906094998</v>
+      </c>
+      <c r="I38">
+        <v>1.018010906094998</v>
+      </c>
+      <c r="J38">
+        <v>0.9758771606163263</v>
+      </c>
+      <c r="K38">
+        <v>1.304988921488541</v>
+      </c>
+      <c r="L38">
+        <v>1.304988921488541</v>
+      </c>
+      <c r="M38">
+        <v>1.106263235839375</v>
+      </c>
+      <c r="N38">
+        <v>1.018010906094998</v>
+      </c>
+      <c r="O38">
+        <v>0.9758771606163263</v>
+      </c>
+      <c r="P38">
+        <v>1.140433041052434</v>
+      </c>
+      <c r="Q38">
+        <v>0.9791602774847654</v>
+      </c>
+      <c r="R38">
+        <v>1.099625662733289</v>
+      </c>
+      <c r="S38">
+        <v>1.087769825486024</v>
+      </c>
+      <c r="T38">
+        <v>1.099625662733289</v>
+      </c>
+      <c r="U38">
+        <v>1.070330095638268</v>
+      </c>
+      <c r="V38">
+        <v>1.059866257729614</v>
+      </c>
+      <c r="W38">
+        <v>1.042160087670381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.898966052342543</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001998485719895</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.07264057679271</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.7944352776713611</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.364968759966968</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.364968759966968</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.364968759966968</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.24708349411705</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.534320803069876</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.534320803069876</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.244150697344267</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.364968759966968</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.24708349411705</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.390702148593463</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.15986203545488</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.382124352384631</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.284681624659878</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.382124352384631</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.304753408486651</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.316796478782714</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.144820518378084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.271305302961586</v>
+      </c>
+      <c r="D40">
+        <v>0.8157452884046038</v>
+      </c>
+      <c r="E40">
+        <v>0.9326485799463847</v>
+      </c>
+      <c r="F40">
+        <v>0.7935572696759775</v>
+      </c>
+      <c r="G40">
+        <v>0.7628010176520446</v>
+      </c>
+      <c r="H40">
+        <v>0.7628010176520446</v>
+      </c>
+      <c r="I40">
+        <v>0.7628010176520446</v>
+      </c>
+      <c r="J40">
+        <v>0.8780196593461093</v>
+      </c>
+      <c r="K40">
+        <v>3.133541325624553</v>
+      </c>
+      <c r="L40">
+        <v>3.133541325624553</v>
+      </c>
+      <c r="M40">
+        <v>0.9901082499467646</v>
+      </c>
+      <c r="N40">
+        <v>0.7628010176520446</v>
+      </c>
+      <c r="O40">
+        <v>0.8780196593461093</v>
+      </c>
+      <c r="P40">
+        <v>2.005780492485331</v>
+      </c>
+      <c r="Q40">
+        <v>0.905334119646247</v>
+      </c>
+      <c r="R40">
+        <v>1.591454000874235</v>
+      </c>
+      <c r="S40">
+        <v>1.648069854972349</v>
+      </c>
+      <c r="T40">
+        <v>1.591454000874235</v>
+      </c>
+      <c r="U40">
+        <v>1.426752645642273</v>
+      </c>
+      <c r="V40">
+        <v>1.293962320044227</v>
+      </c>
+      <c r="W40">
+        <v>1.197215836694753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.8653522240926947</v>
+      </c>
+      <c r="D41">
+        <v>1.154656364128145</v>
+      </c>
+      <c r="E41">
+        <v>0.9423937387570124</v>
+      </c>
+      <c r="F41">
+        <v>1.022546249017645</v>
+      </c>
+      <c r="G41">
+        <v>1.437158885128865</v>
+      </c>
+      <c r="H41">
+        <v>1.437158885128865</v>
+      </c>
+      <c r="I41">
+        <v>1.437158885128865</v>
+      </c>
+      <c r="J41">
+        <v>0.9767019451967417</v>
+      </c>
+      <c r="K41">
+        <v>0.7317772522736894</v>
+      </c>
+      <c r="L41">
+        <v>0.7317772522736894</v>
+      </c>
+      <c r="M41">
+        <v>0.8429449112196477</v>
+      </c>
+      <c r="N41">
+        <v>1.437158885128865</v>
+      </c>
+      <c r="O41">
+        <v>0.9767019451967417</v>
+      </c>
+      <c r="P41">
+        <v>0.8542395987352156</v>
+      </c>
+      <c r="Q41">
+        <v>0.959547841976877</v>
+      </c>
+      <c r="R41">
+        <v>1.048546027533099</v>
+      </c>
+      <c r="S41">
+        <v>0.8836243120758146</v>
+      </c>
+      <c r="T41">
+        <v>1.048546027533099</v>
+      </c>
+      <c r="U41">
+        <v>1.022007955339077</v>
+      </c>
+      <c r="V41">
+        <v>1.105038141297035</v>
+      </c>
+      <c r="W41">
+        <v>0.9966914462268051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.280126664380463</v>
+      </c>
+      <c r="D42">
+        <v>0.6446940462428493</v>
+      </c>
+      <c r="E42">
+        <v>0.8670738750376098</v>
+      </c>
+      <c r="F42">
+        <v>0.7990676825224233</v>
+      </c>
+      <c r="G42">
+        <v>0.06143298377886626</v>
+      </c>
+      <c r="H42">
+        <v>0.06143298377886626</v>
+      </c>
+      <c r="I42">
+        <v>0.06143298377886626</v>
+      </c>
+      <c r="J42">
+        <v>0.8432865315768008</v>
+      </c>
+      <c r="K42">
+        <v>3.206289971415837</v>
+      </c>
+      <c r="L42">
+        <v>3.206289971415837</v>
+      </c>
+      <c r="M42">
+        <v>1.253220763746504</v>
+      </c>
+      <c r="N42">
+        <v>0.06143298377886626</v>
+      </c>
+      <c r="O42">
+        <v>0.8432865315768008</v>
+      </c>
+      <c r="P42">
+        <v>2.024788251496319</v>
+      </c>
+      <c r="Q42">
+        <v>0.8551802033072053</v>
+      </c>
+      <c r="R42">
+        <v>1.370336495590501</v>
+      </c>
+      <c r="S42">
+        <v>1.638883459343416</v>
+      </c>
+      <c r="T42">
+        <v>1.370336495590501</v>
+      </c>
+      <c r="U42">
+        <v>1.244520840452279</v>
+      </c>
+      <c r="V42">
+        <v>1.007903269117596</v>
+      </c>
+      <c r="W42">
+        <v>1.119399064837669</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9446819902974765</v>
+        <v>1.000246631325177</v>
       </c>
       <c r="D3">
-        <v>1.313557282760122</v>
+        <v>0.9921999634001185</v>
       </c>
       <c r="E3">
-        <v>1.132691488267001</v>
+        <v>0.9987226475765173</v>
       </c>
       <c r="F3">
-        <v>0.9446819902974765</v>
+        <v>0.9906987850728354</v>
       </c>
       <c r="G3">
-        <v>0.9421002430646669</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="H3">
-        <v>0.9625532574558078</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="I3">
-        <v>0.9446819902974765</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="J3">
-        <v>1.313557282760122</v>
+        <v>0.9890206659675871</v>
       </c>
       <c r="K3">
-        <v>1.120614964915243</v>
+        <v>1.154334423271956</v>
       </c>
       <c r="L3">
-        <v>0.9529824144288545</v>
+        <v>1.154334423271956</v>
       </c>
       <c r="M3">
-        <v>0.9587701285357418</v>
+        <v>0.9976412720085414</v>
       </c>
       <c r="N3">
-        <v>0.9446819902974765</v>
+        <v>0.9983842380150161</v>
       </c>
       <c r="O3">
-        <v>1.132691488267001</v>
+        <v>0.9890206659675871</v>
       </c>
       <c r="P3">
-        <v>1.223124385513561</v>
+        <v>1.071677544619772</v>
       </c>
       <c r="Q3">
-        <v>1.037395865665834</v>
+        <v>0.9938716567720522</v>
       </c>
       <c r="R3">
-        <v>1.130310253774866</v>
+        <v>1.047246442418187</v>
       </c>
       <c r="S3">
-        <v>1.12944967136393</v>
+        <v>1.047359245605354</v>
       </c>
       <c r="T3">
-        <v>1.130310253774866</v>
+        <v>1.047246442418186</v>
       </c>
       <c r="U3">
-        <v>1.083257751097316</v>
+        <v>1.035115493707769</v>
       </c>
       <c r="V3">
-        <v>1.055542598937348</v>
+        <v>1.027769242569219</v>
       </c>
       <c r="W3">
-        <v>1.040993971215614</v>
+        <v>1.015156078329718</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9685179208066926</v>
+        <v>1.271305302961586</v>
       </c>
       <c r="D4">
-        <v>1.671977490293228</v>
+        <v>0.8157452884046038</v>
       </c>
       <c r="E4">
-        <v>1.205893345514888</v>
+        <v>0.9326485799463847</v>
       </c>
       <c r="F4">
-        <v>0.9685179208066926</v>
+        <v>0.7935572696759775</v>
       </c>
       <c r="G4">
-        <v>0.8586229122657004</v>
+        <v>0.7628010176520446</v>
       </c>
       <c r="H4">
-        <v>0.8849646903713391</v>
+        <v>0.7628010176520446</v>
       </c>
       <c r="I4">
-        <v>0.9685179208066926</v>
+        <v>0.7628010176520446</v>
       </c>
       <c r="J4">
-        <v>1.671977490293228</v>
+        <v>0.8780196593461093</v>
       </c>
       <c r="K4">
-        <v>1.229885850192874</v>
+        <v>3.133541325624553</v>
       </c>
       <c r="L4">
-        <v>0.9711807209918591</v>
+        <v>3.133541325624553</v>
       </c>
       <c r="M4">
-        <v>0.9518818160728856</v>
+        <v>0.9901082499467646</v>
       </c>
       <c r="N4">
-        <v>0.9685179208066926</v>
+        <v>0.7628010176520446</v>
       </c>
       <c r="O4">
-        <v>1.205893345514888</v>
+        <v>0.8780196593461093</v>
       </c>
       <c r="P4">
-        <v>1.438935417904058</v>
+        <v>2.005780492485331</v>
       </c>
       <c r="Q4">
-        <v>1.032258128890294</v>
+        <v>0.905334119646247</v>
       </c>
       <c r="R4">
-        <v>1.28212958553827</v>
+        <v>1.591454000874235</v>
       </c>
       <c r="S4">
-        <v>1.245497916024605</v>
+        <v>1.648069854972349</v>
       </c>
       <c r="T4">
-        <v>1.28212958553827</v>
+        <v>1.591454000874235</v>
       </c>
       <c r="U4">
-        <v>1.176252917220127</v>
+        <v>1.426752645642273</v>
       </c>
       <c r="V4">
-        <v>1.13470591793744</v>
+        <v>1.293962320044227</v>
       </c>
       <c r="W4">
-        <v>1.092865593313683</v>
+        <v>1.197215836694753</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.301148574220877</v>
+        <v>1.177227910082598</v>
       </c>
       <c r="D5">
-        <v>2.690797619181962</v>
+        <v>0.7814294200670343</v>
       </c>
       <c r="E5">
-        <v>1.486679829182679</v>
+        <v>0.8892397304736644</v>
       </c>
       <c r="F5">
-        <v>1.301148574220877</v>
+        <v>0.7546233449214304</v>
       </c>
       <c r="G5">
-        <v>0.9695876622103261</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="H5">
-        <v>0.6914714126149754</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="I5">
-        <v>1.301148574220877</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="J5">
-        <v>2.690797619181962</v>
+        <v>0.9022677565366983</v>
       </c>
       <c r="K5">
-        <v>1.628875154625719</v>
+        <v>5.697991800285292</v>
       </c>
       <c r="L5">
-        <v>0.6826008457045653</v>
+        <v>5.697991800285292</v>
       </c>
       <c r="M5">
-        <v>0.6604853551142255</v>
+        <v>1.010453874806119</v>
       </c>
       <c r="N5">
-        <v>1.301148574220877</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="O5">
-        <v>1.486679829182679</v>
+        <v>0.9022677565366983</v>
       </c>
       <c r="P5">
-        <v>2.088738724182321</v>
+        <v>3.300129778410995</v>
       </c>
       <c r="Q5">
-        <v>1.228133745696503</v>
+        <v>0.8957537435051814</v>
       </c>
       <c r="R5">
-        <v>1.826208674195173</v>
+        <v>2.443831999907371</v>
       </c>
       <c r="S5">
-        <v>1.715688370191656</v>
+        <v>2.496499762431885</v>
       </c>
       <c r="T5">
-        <v>1.826208674195173</v>
+        <v>2.443831999907371</v>
       </c>
       <c r="U5">
-        <v>1.612053421198961</v>
+        <v>2.055183932548945</v>
       </c>
       <c r="V5">
-        <v>1.549872451803344</v>
+        <v>1.79039443461918</v>
       </c>
       <c r="W5">
-        <v>1.263955806606916</v>
+        <v>1.49305878500912</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2464754178935255</v>
+        <v>0.6503803038767374</v>
       </c>
       <c r="D6">
-        <v>4.995588504086641</v>
+        <v>0.4143490544170742</v>
       </c>
       <c r="E6">
-        <v>3.277622917459601</v>
+        <v>0.476978684855654</v>
       </c>
       <c r="F6">
-        <v>0.2464754178935255</v>
+        <v>0.4064132418113491</v>
       </c>
       <c r="G6">
-        <v>0.4032459628981633</v>
+        <v>0.394274429213854</v>
       </c>
       <c r="H6">
-        <v>0.1937812277589059</v>
+        <v>0.394274429213854</v>
       </c>
       <c r="I6">
-        <v>0.2464754178935255</v>
+        <v>0.394274429213854</v>
       </c>
       <c r="J6">
-        <v>4.995588504086641</v>
+        <v>0.4086466486231076</v>
       </c>
       <c r="K6">
-        <v>2.215040945160054</v>
+        <v>32.38979835641413</v>
       </c>
       <c r="L6">
-        <v>1.076843431513267</v>
+        <v>32.38979835641413</v>
       </c>
       <c r="M6">
-        <v>0.421768598668107</v>
+        <v>0.4669330274124808</v>
       </c>
       <c r="N6">
-        <v>0.2464754178935255</v>
+        <v>0.394274429213854</v>
       </c>
       <c r="O6">
-        <v>3.277622917459601</v>
+        <v>0.4086466486231076</v>
       </c>
       <c r="P6">
-        <v>4.136605710773121</v>
+        <v>16.39922250251862</v>
       </c>
       <c r="Q6">
-        <v>1.840434440178882</v>
+        <v>0.4428126667393808</v>
       </c>
       <c r="R6">
-        <v>2.839895613146589</v>
+        <v>11.06423981141703</v>
       </c>
       <c r="S6">
-        <v>2.892152461481468</v>
+        <v>11.09180789663096</v>
       </c>
       <c r="T6">
-        <v>2.839895613146589</v>
+        <v>11.06423981141703</v>
       </c>
       <c r="U6">
-        <v>2.230733200584483</v>
+        <v>8.417424529776685</v>
       </c>
       <c r="V6">
-        <v>1.833881644046291</v>
+        <v>6.812794509664118</v>
       </c>
       <c r="W6">
-        <v>1.603795875679783</v>
+        <v>4.450971718328049</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9981281483657627</v>
+        <v>0.9694832973219962</v>
       </c>
       <c r="D7">
-        <v>1.060497045109141</v>
+        <v>0.9496169627056327</v>
       </c>
       <c r="E7">
-        <v>0.9981286879799174</v>
+        <v>0.9531403875924397</v>
       </c>
       <c r="F7">
-        <v>0.9981281483657627</v>
+        <v>0.9550730015016526</v>
       </c>
       <c r="G7">
-        <v>0.9987873732568189</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="H7">
-        <v>0.9987068072638137</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="I7">
-        <v>0.9981281483657627</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="J7">
-        <v>1.060497045109141</v>
+        <v>1.108154912647222</v>
       </c>
       <c r="K7">
-        <v>0.9991445760890145</v>
+        <v>1.277531034035431</v>
       </c>
       <c r="L7">
-        <v>0.9990990231997957</v>
+        <v>1.277531034035431</v>
       </c>
       <c r="M7">
-        <v>0.9994429548471705</v>
+        <v>1.114145282339764</v>
       </c>
       <c r="N7">
-        <v>0.9981281483657627</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="O7">
-        <v>0.9981286879799174</v>
+        <v>1.108154912647222</v>
       </c>
       <c r="P7">
-        <v>1.029312866544529</v>
+        <v>1.192842973341327</v>
       </c>
       <c r="Q7">
-        <v>0.9984580306183681</v>
+        <v>1.030647650119831</v>
       </c>
       <c r="R7">
-        <v>1.018917960484941</v>
+        <v>1.111557808984846</v>
       </c>
       <c r="S7">
-        <v>1.019137702115293</v>
+        <v>1.112942111425031</v>
       </c>
       <c r="T7">
-        <v>1.01891796048494</v>
+        <v>1.111557808984846</v>
       </c>
       <c r="U7">
-        <v>1.01388531367791</v>
+        <v>1.071953453636744</v>
       </c>
       <c r="V7">
-        <v>1.010733880615481</v>
+        <v>1.047360258963772</v>
       </c>
       <c r="W7">
-        <v>1.006491827013929</v>
+        <v>1.034516544802003</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9983842380150153</v>
+        <v>1.000698421633131</v>
       </c>
       <c r="D8">
-        <v>1.154334423271946</v>
+        <v>0.993758846167905</v>
       </c>
       <c r="E8">
-        <v>0.9890206659675871</v>
+        <v>0.9930648890227208</v>
       </c>
       <c r="F8">
-        <v>0.9983842380150153</v>
+        <v>0.9909018666916163</v>
       </c>
       <c r="G8">
-        <v>0.9987226475765184</v>
+        <v>0.9931101478651673</v>
       </c>
       <c r="H8">
-        <v>0.990698785072836</v>
+        <v>0.9931101478651673</v>
       </c>
       <c r="I8">
-        <v>0.9983842380150153</v>
+        <v>0.9931101478651673</v>
       </c>
       <c r="J8">
-        <v>1.154334423271946</v>
+        <v>1.038860998658936</v>
       </c>
       <c r="K8">
-        <v>0.9976412720085419</v>
+        <v>1.006463253683541</v>
       </c>
       <c r="L8">
-        <v>0.9921999634001188</v>
+        <v>1.006463253683541</v>
       </c>
       <c r="M8">
-        <v>1.000246631325178</v>
+        <v>0.9879946921121984</v>
       </c>
       <c r="N8">
-        <v>0.9983842380150153</v>
+        <v>0.9931101478651673</v>
       </c>
       <c r="O8">
-        <v>0.9890206659675871</v>
+        <v>1.038860998658936</v>
       </c>
       <c r="P8">
-        <v>1.071677544619767</v>
+        <v>1.022662126171238</v>
       </c>
       <c r="Q8">
-        <v>0.9938716567720527</v>
+        <v>1.015962943840828</v>
       </c>
       <c r="R8">
-        <v>1.047246442418183</v>
+        <v>1.012811466735881</v>
       </c>
       <c r="S8">
-        <v>1.047359245605351</v>
+        <v>1.012796380455066</v>
       </c>
       <c r="T8">
-        <v>1.047246442418183</v>
+        <v>1.012811466735881</v>
       </c>
       <c r="U8">
-        <v>1.035115493707767</v>
+        <v>1.007874822307591</v>
       </c>
       <c r="V8">
-        <v>1.027769242569217</v>
+        <v>1.004921887419106</v>
       </c>
       <c r="W8">
-        <v>1.015156078329718</v>
+        <v>1.000606639479402</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9913119217424731</v>
+        <v>0.9518818160728856</v>
       </c>
       <c r="D9">
-        <v>1.26199931635865</v>
+        <v>0.9711807209918591</v>
       </c>
       <c r="E9">
-        <v>1.0219636784962</v>
+        <v>0.8586229122657004</v>
       </c>
       <c r="F9">
-        <v>0.9913119217424731</v>
+        <v>0.8849646903713391</v>
       </c>
       <c r="G9">
-        <v>0.9969242017806696</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="H9">
-        <v>0.9940733591651486</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="I9">
-        <v>0.9913119217424731</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="J9">
-        <v>1.26199931635865</v>
+        <v>1.205893345514888</v>
       </c>
       <c r="K9">
-        <v>0.9964958667854427</v>
+        <v>1.671977490293228</v>
       </c>
       <c r="L9">
-        <v>0.9918429683681033</v>
+        <v>1.671977490293228</v>
       </c>
       <c r="M9">
-        <v>0.998130567150189</v>
+        <v>1.229885850192874</v>
       </c>
       <c r="N9">
-        <v>0.9913119217424731</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="O9">
-        <v>1.0219636784962</v>
+        <v>1.205893345514888</v>
       </c>
       <c r="P9">
-        <v>1.141981497427425</v>
+        <v>1.438935417904058</v>
       </c>
       <c r="Q9">
-        <v>1.009443940138435</v>
+        <v>1.032258128890294</v>
       </c>
       <c r="R9">
-        <v>1.091758305532441</v>
+        <v>1.28212958553827</v>
       </c>
       <c r="S9">
-        <v>1.093629065545173</v>
+        <v>1.245497916024605</v>
       </c>
       <c r="T9">
-        <v>1.091758305532441</v>
+        <v>1.28212958553827</v>
       </c>
       <c r="U9">
-        <v>1.068049779594498</v>
+        <v>1.176252917220127</v>
       </c>
       <c r="V9">
-        <v>1.052702208024093</v>
+        <v>1.13470591793744</v>
       </c>
       <c r="W9">
-        <v>1.03159273498086</v>
+        <v>1.092865593313683</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9896873653915497</v>
+        <v>0.6365323209873008</v>
       </c>
       <c r="D10">
-        <v>1.516172581477966</v>
+        <v>0.3132099058101704</v>
       </c>
       <c r="E10">
-        <v>0.9808963063579704</v>
+        <v>0.3814906670904826</v>
       </c>
       <c r="F10">
-        <v>0.9896873653915497</v>
+        <v>0.4440747210660893</v>
       </c>
       <c r="G10">
-        <v>0.9881996959514808</v>
+        <v>0.5149012431344437</v>
       </c>
       <c r="H10">
-        <v>0.9962351215104378</v>
+        <v>0.5149012431344437</v>
       </c>
       <c r="I10">
-        <v>0.9896873653915497</v>
+        <v>0.5149012431344437</v>
       </c>
       <c r="J10">
-        <v>1.516172581477966</v>
+        <v>0.4539281208841073</v>
       </c>
       <c r="K10">
-        <v>0.982281405064565</v>
+        <v>33.07672559460195</v>
       </c>
       <c r="L10">
-        <v>0.9877940771695772</v>
+        <v>33.07672559460195</v>
       </c>
       <c r="M10">
-        <v>1.017868080730268</v>
+        <v>0.4060912466534862</v>
       </c>
       <c r="N10">
-        <v>0.9896873653915497</v>
+        <v>0.5149012431344437</v>
       </c>
       <c r="O10">
-        <v>0.9808963063579704</v>
+        <v>0.4539281208841073</v>
       </c>
       <c r="P10">
-        <v>1.248534443917968</v>
+        <v>16.76532685774303</v>
       </c>
       <c r="Q10">
-        <v>0.9845480011547256</v>
+        <v>0.417709393987295</v>
       </c>
       <c r="R10">
-        <v>1.162252084409162</v>
+        <v>11.34851831954017</v>
       </c>
       <c r="S10">
-        <v>1.161756194595806</v>
+        <v>11.30404812752551</v>
       </c>
       <c r="T10">
-        <v>1.162252084409162</v>
+        <v>11.34851831954017</v>
       </c>
       <c r="U10">
-        <v>1.118738987294742</v>
+        <v>8.606761406427747</v>
       </c>
       <c r="V10">
-        <v>1.092928662914103</v>
+        <v>6.988389373769087</v>
       </c>
       <c r="W10">
-        <v>1.057391829206727</v>
+        <v>4.528369227528504</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8109170700227573</v>
+        <v>1.275742217209513</v>
       </c>
       <c r="D11">
-        <v>2.063420723421012</v>
+        <v>1.00183046425107</v>
       </c>
       <c r="E11">
-        <v>1.253631508310531</v>
+        <v>1.006496178566581</v>
       </c>
       <c r="F11">
-        <v>0.8109170700227573</v>
+        <v>0.7934671790204072</v>
       </c>
       <c r="G11">
-        <v>1.019897287505652</v>
+        <v>1.126255008132724</v>
       </c>
       <c r="H11">
-        <v>1.052592904524059</v>
+        <v>1.126255008132724</v>
       </c>
       <c r="I11">
-        <v>0.8109170700227573</v>
+        <v>1.126255008132724</v>
       </c>
       <c r="J11">
-        <v>2.063420723421012</v>
+        <v>0.7522912816772533</v>
       </c>
       <c r="K11">
-        <v>0.9944398385084143</v>
+        <v>2.934682143652594</v>
       </c>
       <c r="L11">
-        <v>1.045201545640359</v>
+        <v>2.934682143652594</v>
       </c>
       <c r="M11">
-        <v>1.01371351104464</v>
+        <v>0.7582343430532114</v>
       </c>
       <c r="N11">
-        <v>0.8109170700227573</v>
+        <v>1.126255008132724</v>
       </c>
       <c r="O11">
-        <v>1.253631508310531</v>
+        <v>0.7522912816772533</v>
       </c>
       <c r="P11">
-        <v>1.658526115865772</v>
+        <v>1.843486712664923</v>
       </c>
       <c r="Q11">
-        <v>1.136764397908091</v>
+        <v>0.8793937301219171</v>
       </c>
       <c r="R11">
-        <v>1.375989767251434</v>
+        <v>1.604409477820857</v>
       </c>
       <c r="S11">
-        <v>1.445649839745732</v>
+        <v>1.564489867965476</v>
       </c>
       <c r="T11">
-        <v>1.375989767251434</v>
+        <v>1.604409477820857</v>
       </c>
       <c r="U11">
-        <v>1.286966647314988</v>
+        <v>1.454931153007288</v>
       </c>
       <c r="V11">
-        <v>1.191756731856542</v>
+        <v>1.389195924032375</v>
       </c>
       <c r="W11">
-        <v>1.156726798622178</v>
+        <v>1.206124851945419</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.379937255016049</v>
+        <v>1.117018488312304</v>
       </c>
       <c r="D12">
-        <v>0.001328490850010016</v>
+        <v>0.6336167774653726</v>
       </c>
       <c r="E12">
-        <v>0.00223759638392426</v>
+        <v>0.694107369745399</v>
       </c>
       <c r="F12">
-        <v>1.379937255016049</v>
+        <v>0.8032576241514495</v>
       </c>
       <c r="G12">
-        <v>1.916597466133351</v>
+        <v>1.042194791570058</v>
       </c>
       <c r="H12">
-        <v>0.5588256154470996</v>
+        <v>1.042194791570058</v>
       </c>
       <c r="I12">
-        <v>1.379937255016049</v>
+        <v>1.042194791570058</v>
       </c>
       <c r="J12">
-        <v>0.001328490850010016</v>
+        <v>0.8917008121109385</v>
       </c>
       <c r="K12">
-        <v>0.08313614211869384</v>
+        <v>7.371875189357552</v>
       </c>
       <c r="L12">
-        <v>0.3632148420855515</v>
+        <v>7.371875189357552</v>
       </c>
       <c r="M12">
-        <v>0.569984070182466</v>
+        <v>0.8396171408691885</v>
       </c>
       <c r="N12">
-        <v>1.379937255016049</v>
+        <v>1.042194791570058</v>
       </c>
       <c r="O12">
-        <v>0.00223759638392426</v>
+        <v>0.8917008121109385</v>
       </c>
       <c r="P12">
-        <v>0.001783043616967138</v>
+        <v>4.131788000734245</v>
       </c>
       <c r="Q12">
-        <v>0.9594175312586375</v>
+        <v>0.7929040909281688</v>
       </c>
       <c r="R12">
-        <v>0.4611677807499943</v>
+        <v>3.101923597679516</v>
       </c>
       <c r="S12">
-        <v>0.6400545177890949</v>
+        <v>2.985894457071296</v>
       </c>
       <c r="T12">
-        <v>0.4611677807499943</v>
+        <v>3.101923597679516</v>
       </c>
       <c r="U12">
-        <v>0.8250252020958334</v>
+        <v>2.499969540695987</v>
       </c>
       <c r="V12">
-        <v>0.9360076126798764</v>
+        <v>2.208414590870801</v>
       </c>
       <c r="W12">
-        <v>0.609407684777143</v>
+        <v>1.674173524197783</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.376818959164313</v>
+        <v>0.6672487745394171</v>
       </c>
       <c r="D13">
-        <v>0.4869577846942588</v>
+        <v>0.8056482910811112</v>
       </c>
       <c r="E13">
-        <v>2.359611698722835</v>
+        <v>0.6635741383564324</v>
       </c>
       <c r="F13">
-        <v>1.376818959164313</v>
+        <v>1.320002956595297</v>
       </c>
       <c r="G13">
-        <v>0.005356301082907025</v>
+        <v>1.67386080182847</v>
       </c>
       <c r="H13">
-        <v>1.128610781007445</v>
+        <v>1.67386080182847</v>
       </c>
       <c r="I13">
-        <v>1.376818959164313</v>
+        <v>1.67386080182847</v>
       </c>
       <c r="J13">
-        <v>0.4869577846942588</v>
+        <v>1.358845307334478</v>
       </c>
       <c r="K13">
-        <v>1.911625012920187</v>
+        <v>0.7361896534508522</v>
       </c>
       <c r="L13">
-        <v>0.4028156866737078</v>
+        <v>0.7361896534508522</v>
       </c>
       <c r="M13">
-        <v>0.3930322337325864</v>
+        <v>0.8331818604903317</v>
       </c>
       <c r="N13">
-        <v>1.376818959164313</v>
+        <v>1.67386080182847</v>
       </c>
       <c r="O13">
-        <v>2.359611698722835</v>
+        <v>1.358845307334478</v>
       </c>
       <c r="P13">
-        <v>1.423284741708547</v>
+        <v>1.047517480392665</v>
       </c>
       <c r="Q13">
-        <v>1.182483999902871</v>
+        <v>1.011209722845455</v>
       </c>
       <c r="R13">
-        <v>1.407796147527136</v>
+        <v>1.256298587537933</v>
       </c>
       <c r="S13">
-        <v>0.950641928166667</v>
+        <v>0.9195363663805874</v>
       </c>
       <c r="T13">
-        <v>1.407796147527136</v>
+        <v>1.256298587537933</v>
       </c>
       <c r="U13">
-        <v>1.057186185916078</v>
+        <v>1.108117475242558</v>
       </c>
       <c r="V13">
-        <v>1.121112740565725</v>
+        <v>1.22126614055974</v>
       </c>
       <c r="W13">
-        <v>1.00810355724978</v>
+        <v>1.007318972959549</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0003904390819234695</v>
+        <v>0.04955152399999998</v>
       </c>
       <c r="D14">
-        <v>0.001195947500271863</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="E14">
-        <v>3.835382676343218</v>
+        <v>0.002693453900000002</v>
       </c>
       <c r="F14">
-        <v>0.0003904390819234695</v>
+        <v>0.007878550500000006</v>
       </c>
       <c r="G14">
-        <v>0.08375329453524762</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="H14">
-        <v>2.215396312838417</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="I14">
-        <v>0.0003904390819234695</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="J14">
-        <v>0.001195947500271863</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="K14">
-        <v>1.719955642120349</v>
+        <v>60.75982100000006</v>
       </c>
       <c r="L14">
-        <v>0.03001048724434666</v>
+        <v>60.75982100000006</v>
       </c>
       <c r="M14">
-        <v>0.02879331316952837</v>
+        <v>0.003041090100000003</v>
       </c>
       <c r="N14">
-        <v>0.0003904390819234695</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="O14">
-        <v>3.835382676343218</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="P14">
-        <v>1.918289311921745</v>
+        <v>30.38145897090003</v>
       </c>
       <c r="Q14">
-        <v>1.959567985439233</v>
+        <v>0.002895197850000002</v>
       </c>
       <c r="R14">
-        <v>1.278989687641805</v>
+        <v>20.25638466996669</v>
       </c>
       <c r="S14">
-        <v>1.306777306126246</v>
+        <v>20.25520379856669</v>
       </c>
       <c r="T14">
-        <v>1.278989687641804</v>
+        <v>20.25638466996669</v>
       </c>
       <c r="U14">
-        <v>0.9801805893651652</v>
+        <v>15.19296186595002</v>
       </c>
       <c r="V14">
-        <v>0.7842225593085168</v>
+        <v>12.15561670638001</v>
       </c>
       <c r="W14">
-        <v>0.9893597641041627</v>
+        <v>7.603235669625007</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3335060775395658</v>
+        <v>0.049551524</v>
       </c>
       <c r="D15">
-        <v>0.4867331853026556</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="E15">
-        <v>0.006242625921474101</v>
+        <v>0.0026934539</v>
       </c>
       <c r="F15">
-        <v>0.3335060775395658</v>
+        <v>0.0078785505</v>
       </c>
       <c r="G15">
-        <v>1.930752885397658</v>
+        <v>0.0062360681</v>
       </c>
       <c r="H15">
-        <v>0.3262007917718728</v>
+        <v>0.0062360681</v>
       </c>
       <c r="I15">
-        <v>0.3335060775395658</v>
+        <v>0.0062360681</v>
       </c>
       <c r="J15">
-        <v>0.4867331853026556</v>
+        <v>0.0030969418</v>
       </c>
       <c r="K15">
-        <v>0.7639804803541627</v>
+        <v>60.759821</v>
       </c>
       <c r="L15">
-        <v>2.103189352075621</v>
+        <v>60.759821</v>
       </c>
       <c r="M15">
-        <v>1.978017528762467</v>
+        <v>0.003041090099999999</v>
       </c>
       <c r="N15">
-        <v>0.3335060775395658</v>
+        <v>0.0062360681</v>
       </c>
       <c r="O15">
-        <v>0.006242625921474101</v>
+        <v>0.0030969418</v>
       </c>
       <c r="P15">
-        <v>0.2464879056120649</v>
+        <v>30.3814589709</v>
       </c>
       <c r="Q15">
-        <v>0.9684977556595662</v>
+        <v>0.00289519785</v>
       </c>
       <c r="R15">
-        <v>0.2754939629212318</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="S15">
-        <v>0.807909565540596</v>
+        <v>20.25520379856667</v>
       </c>
       <c r="T15">
-        <v>0.2754939629212318</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="U15">
-        <v>0.6893086935403384</v>
+        <v>15.19296186595</v>
       </c>
       <c r="V15">
-        <v>0.6181481703401839</v>
+        <v>12.15561670638</v>
       </c>
       <c r="W15">
-        <v>0.9910778658906847</v>
+        <v>7.603235669625</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9989514806277295</v>
+        <v>0.049551524</v>
       </c>
       <c r="D16">
-        <v>1.041638882366565</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="E16">
-        <v>0.9885399238155337</v>
+        <v>0.0026934539</v>
       </c>
       <c r="F16">
-        <v>0.9989514806277295</v>
+        <v>0.0078785505</v>
       </c>
       <c r="G16">
-        <v>0.999572588401094</v>
+        <v>0.0062360681</v>
       </c>
       <c r="H16">
-        <v>0.9994326851865296</v>
+        <v>0.0062360681</v>
       </c>
       <c r="I16">
-        <v>0.9989514806277295</v>
+        <v>0.0062360681</v>
       </c>
       <c r="J16">
-        <v>1.041638882366565</v>
+        <v>0.0030969418</v>
       </c>
       <c r="K16">
-        <v>1.003008283263953</v>
+        <v>60.759821</v>
       </c>
       <c r="L16">
-        <v>1.000013452344058</v>
+        <v>60.759821</v>
       </c>
       <c r="M16">
-        <v>0.9995624595088477</v>
+        <v>0.003041090099999999</v>
       </c>
       <c r="N16">
-        <v>0.9989514806277295</v>
+        <v>0.0062360681</v>
       </c>
       <c r="O16">
-        <v>0.9885399238155337</v>
+        <v>0.0030969418</v>
       </c>
       <c r="P16">
-        <v>1.01508940309105</v>
+        <v>30.3814589709</v>
       </c>
       <c r="Q16">
-        <v>0.9940562561083138</v>
+        <v>0.00289519785</v>
       </c>
       <c r="R16">
-        <v>1.009710095603276</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="S16">
-        <v>1.009917131527731</v>
+        <v>20.25520379856667</v>
       </c>
       <c r="T16">
-        <v>1.009710095603276</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="U16">
-        <v>1.007175718802731</v>
+        <v>15.19296186595</v>
       </c>
       <c r="V16">
-        <v>1.00553087116773</v>
+        <v>12.15561670638</v>
       </c>
       <c r="W16">
-        <v>1.003839969439289</v>
+        <v>7.603235669625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9931101478651679</v>
+        <v>-0.0082885554</v>
       </c>
       <c r="D17">
-        <v>1.006463253683539</v>
+        <v>0.0035140694</v>
       </c>
       <c r="E17">
-        <v>1.038860998658934</v>
+        <v>-0.0063507761</v>
       </c>
       <c r="F17">
-        <v>0.9931101478651679</v>
+        <v>0.0016794768</v>
       </c>
       <c r="G17">
-        <v>0.9930648890227211</v>
+        <v>0.0002567862</v>
       </c>
       <c r="H17">
-        <v>0.9909018666916166</v>
+        <v>0.0002567862</v>
       </c>
       <c r="I17">
-        <v>0.9931101478651679</v>
+        <v>0.0002567862</v>
       </c>
       <c r="J17">
-        <v>1.006463253683539</v>
+        <v>0.056027822</v>
       </c>
       <c r="K17">
-        <v>0.9879946921121984</v>
+        <v>0.0013547887</v>
       </c>
       <c r="L17">
-        <v>0.9937588461679059</v>
+        <v>0.0013547887</v>
       </c>
       <c r="M17">
-        <v>1.000698421633131</v>
+        <v>10.971864</v>
       </c>
       <c r="N17">
-        <v>0.9931101478651679</v>
+        <v>0.0002567862</v>
       </c>
       <c r="O17">
-        <v>1.038860998658934</v>
+        <v>0.056027822</v>
       </c>
       <c r="P17">
-        <v>1.022662126171237</v>
+        <v>0.02869130535</v>
       </c>
       <c r="Q17">
-        <v>1.015962943840828</v>
+        <v>0.02483852295</v>
       </c>
       <c r="R17">
-        <v>1.01281146673588</v>
+        <v>0.0192131323</v>
       </c>
       <c r="S17">
-        <v>1.012796380455065</v>
+        <v>0.01701061153333333</v>
       </c>
       <c r="T17">
-        <v>1.01281146673588</v>
+        <v>0.0192131323</v>
       </c>
       <c r="U17">
-        <v>1.00787482230759</v>
+        <v>0.0128221552</v>
       </c>
       <c r="V17">
-        <v>1.004921887419106</v>
+        <v>0.0103090814</v>
       </c>
       <c r="W17">
-        <v>1.000606639479402</v>
+        <v>1.37750720145</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.018010906094998</v>
+        <v>0.2358865764986303</v>
       </c>
       <c r="D18">
-        <v>1.304988921488536</v>
+        <v>0.000972024362191781</v>
       </c>
       <c r="E18">
-        <v>0.9758771606163259</v>
+        <v>0.002328569554794522</v>
       </c>
       <c r="F18">
-        <v>1.018010906094998</v>
+        <v>0.0261257860890411</v>
       </c>
       <c r="G18">
-        <v>0.9824433943532049</v>
+        <v>-0.001174491636986302</v>
       </c>
       <c r="H18">
-        <v>0.9918378834124513</v>
+        <v>-0.001174491636986302</v>
       </c>
       <c r="I18">
-        <v>1.018010906094998</v>
+        <v>-0.001174491636986302</v>
       </c>
       <c r="J18">
-        <v>1.304988921488536</v>
+        <v>3.546992953636714</v>
       </c>
       <c r="K18">
-        <v>1.106263235839372</v>
+        <v>7.927111028986301</v>
       </c>
       <c r="L18">
-        <v>1.000717621606259</v>
+        <v>7.927111028986301</v>
       </c>
       <c r="M18">
-        <v>0.9571415779518964</v>
+        <v>3.545767832329591</v>
       </c>
       <c r="N18">
-        <v>1.018010906094998</v>
+        <v>-0.001174491636986302</v>
       </c>
       <c r="O18">
-        <v>0.9758771606163259</v>
+        <v>3.546992953636714</v>
       </c>
       <c r="P18">
-        <v>1.140433041052431</v>
+        <v>5.737051991311508</v>
       </c>
       <c r="Q18">
-        <v>0.9791602774847654</v>
+        <v>1.774660761595754</v>
       </c>
       <c r="R18">
-        <v>1.099625662733287</v>
+        <v>3.824309830328676</v>
       </c>
       <c r="S18">
-        <v>1.087769825486022</v>
+        <v>3.825477517392603</v>
       </c>
       <c r="T18">
-        <v>1.099625662733287</v>
+        <v>3.824309830328676</v>
       </c>
       <c r="U18">
-        <v>1.070330095638266</v>
+        <v>2.868814515135206</v>
       </c>
       <c r="V18">
-        <v>1.059866257729613</v>
+        <v>2.294816713780768</v>
       </c>
       <c r="W18">
-        <v>1.04216008767038</v>
+        <v>1.910501284977535</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.364968759966968</v>
+        <v>0.2285312454789473</v>
       </c>
       <c r="D19">
-        <v>1.534320803069876</v>
+        <v>0.0006797100494736845</v>
       </c>
       <c r="E19">
-        <v>1.24708349411705</v>
+        <v>0.002342972905263157</v>
       </c>
       <c r="F19">
-        <v>1.364968759966968</v>
+        <v>0.02540550047368421</v>
       </c>
       <c r="G19">
-        <v>1.07264057679271</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="H19">
-        <v>0.794435277671361</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="I19">
-        <v>1.364968759966968</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="J19">
-        <v>1.534320803069876</v>
+        <v>3.407102321590526</v>
       </c>
       <c r="K19">
-        <v>1.244150697344267</v>
+        <v>10.01261273836842</v>
       </c>
       <c r="L19">
-        <v>1.001998485719895</v>
+        <v>10.01261273836842</v>
       </c>
       <c r="M19">
-        <v>0.898966052342543</v>
+        <v>3.405923355662632</v>
       </c>
       <c r="N19">
-        <v>1.364968759966968</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="O19">
-        <v>1.24708349411705</v>
+        <v>3.407102321590526</v>
       </c>
       <c r="P19">
-        <v>1.390702148593463</v>
+        <v>6.709857529979473</v>
       </c>
       <c r="Q19">
-        <v>1.15986203545488</v>
+        <v>1.704722647247894</v>
       </c>
       <c r="R19">
-        <v>1.382124352384631</v>
+        <v>4.472944363472281</v>
       </c>
       <c r="S19">
-        <v>1.284681624659878</v>
+        <v>4.474019344288069</v>
       </c>
       <c r="T19">
-        <v>1.382124352384631</v>
+        <v>4.47294436347228</v>
       </c>
       <c r="U19">
-        <v>1.304753408486651</v>
+        <v>3.355294015830526</v>
       </c>
       <c r="V19">
-        <v>1.316796478782714</v>
+        <v>2.684058818755999</v>
       </c>
       <c r="W19">
-        <v>1.144820518378084</v>
+        <v>2.135214484373355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.2285312454789473</v>
+      </c>
+      <c r="D20">
+        <v>0.0006797100494736845</v>
+      </c>
+      <c r="E20">
+        <v>0.002342972905263157</v>
+      </c>
+      <c r="F20">
+        <v>0.02540550047368421</v>
+      </c>
+      <c r="G20">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="H20">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="I20">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="J20">
+        <v>3.407102321590526</v>
+      </c>
+      <c r="K20">
+        <v>10.01261273836842</v>
+      </c>
+      <c r="L20">
+        <v>10.01261273836842</v>
+      </c>
+      <c r="M20">
+        <v>3.405923355662632</v>
+      </c>
+      <c r="N20">
+        <v>-0.0008819695421052635</v>
+      </c>
+      <c r="O20">
+        <v>3.407102321590526</v>
+      </c>
+      <c r="P20">
+        <v>6.709857529979473</v>
+      </c>
+      <c r="Q20">
+        <v>1.704722647247894</v>
+      </c>
+      <c r="R20">
+        <v>4.472944363472281</v>
+      </c>
+      <c r="S20">
+        <v>4.474019344288069</v>
+      </c>
+      <c r="T20">
+        <v>4.47294436347228</v>
+      </c>
+      <c r="U20">
+        <v>3.355294015830526</v>
+      </c>
+      <c r="V20">
+        <v>2.684058818755999</v>
+      </c>
+      <c r="W20">
+        <v>2.135214484373355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.0287933131695283</v>
+      </c>
+      <c r="D21">
+        <v>0.03001048724434661</v>
+      </c>
+      <c r="E21">
+        <v>0.08375329453524756</v>
+      </c>
+      <c r="F21">
+        <v>2.215396312838418</v>
+      </c>
+      <c r="G21">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="H21">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="I21">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="J21">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="K21">
+        <v>0.001195947500271863</v>
+      </c>
+      <c r="L21">
+        <v>0.001195947500271863</v>
+      </c>
+      <c r="M21">
+        <v>1.719955642120351</v>
+      </c>
+      <c r="N21">
+        <v>0.0003904390819234697</v>
+      </c>
+      <c r="O21">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="P21">
+        <v>1.918289311921745</v>
+      </c>
+      <c r="Q21">
+        <v>1.959567985439233</v>
+      </c>
+      <c r="R21">
+        <v>1.278989687641805</v>
+      </c>
+      <c r="S21">
+        <v>1.306777306126246</v>
+      </c>
+      <c r="T21">
+        <v>1.278989687641805</v>
+      </c>
+      <c r="U21">
+        <v>0.9801805893651654</v>
+      </c>
+      <c r="V21">
+        <v>0.784222559308517</v>
+      </c>
+      <c r="W21">
+        <v>0.989359764104163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.978017528762467</v>
+      </c>
+      <c r="D22">
+        <v>2.103189352075622</v>
+      </c>
+      <c r="E22">
+        <v>1.930752885397657</v>
+      </c>
+      <c r="F22">
+        <v>0.3262007917718728</v>
+      </c>
+      <c r="G22">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="H22">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="I22">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="J22">
+        <v>0.0062426259214741</v>
+      </c>
+      <c r="K22">
+        <v>0.4867331853026556</v>
+      </c>
+      <c r="L22">
+        <v>0.4867331853026556</v>
+      </c>
+      <c r="M22">
+        <v>0.7639804803541627</v>
+      </c>
+      <c r="N22">
+        <v>0.3335060775395657</v>
+      </c>
+      <c r="O22">
+        <v>0.0062426259214741</v>
+      </c>
+      <c r="P22">
+        <v>0.2464879056120649</v>
+      </c>
+      <c r="Q22">
+        <v>0.9684977556595658</v>
+      </c>
+      <c r="R22">
+        <v>0.2754939629212318</v>
+      </c>
+      <c r="S22">
+        <v>0.8079095655405957</v>
+      </c>
+      <c r="T22">
+        <v>0.2754939629212318</v>
+      </c>
+      <c r="U22">
+        <v>0.6893086935403382</v>
+      </c>
+      <c r="V22">
+        <v>0.6181481703401837</v>
+      </c>
+      <c r="W22">
+        <v>0.9910778658906845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.569984070182464</v>
+      </c>
+      <c r="D23">
+        <v>0.3632148420855516</v>
+      </c>
+      <c r="E23">
+        <v>1.916597466133352</v>
+      </c>
+      <c r="F23">
+        <v>0.5588256154470996</v>
+      </c>
+      <c r="G23">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="H23">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="I23">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="J23">
+        <v>0.002237596383924254</v>
+      </c>
+      <c r="K23">
+        <v>0.001328490850010016</v>
+      </c>
+      <c r="L23">
+        <v>0.001328490850010016</v>
+      </c>
+      <c r="M23">
+        <v>0.08313614211869384</v>
+      </c>
+      <c r="N23">
+        <v>1.379937255016048</v>
+      </c>
+      <c r="O23">
+        <v>0.002237596383924254</v>
+      </c>
+      <c r="P23">
+        <v>0.001783043616967135</v>
+      </c>
+      <c r="Q23">
+        <v>0.9594175312586382</v>
+      </c>
+      <c r="R23">
+        <v>0.4611677807499943</v>
+      </c>
+      <c r="S23">
+        <v>0.6400545177890954</v>
+      </c>
+      <c r="T23">
+        <v>0.4611677807499943</v>
+      </c>
+      <c r="U23">
+        <v>0.8250252020958337</v>
+      </c>
+      <c r="V23">
+        <v>0.9360076126798766</v>
+      </c>
+      <c r="W23">
+        <v>0.609407684777143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.3930322337325861</v>
+      </c>
+      <c r="D24">
+        <v>0.4028156866737078</v>
+      </c>
+      <c r="E24">
+        <v>0.005356301082907026</v>
+      </c>
+      <c r="F24">
+        <v>1.128610781007443</v>
+      </c>
+      <c r="G24">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="H24">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="I24">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="J24">
+        <v>2.359611698722838</v>
+      </c>
+      <c r="K24">
+        <v>0.4869577846942586</v>
+      </c>
+      <c r="L24">
+        <v>0.4869577846942586</v>
+      </c>
+      <c r="M24">
+        <v>1.911625012920187</v>
+      </c>
+      <c r="N24">
+        <v>1.376818959164313</v>
+      </c>
+      <c r="O24">
+        <v>2.359611698722838</v>
+      </c>
+      <c r="P24">
+        <v>1.423284741708549</v>
+      </c>
+      <c r="Q24">
+        <v>1.182483999902873</v>
+      </c>
+      <c r="R24">
+        <v>1.407796147527137</v>
+      </c>
+      <c r="S24">
+        <v>0.950641928166668</v>
+      </c>
+      <c r="T24">
+        <v>1.407796147527137</v>
+      </c>
+      <c r="U24">
+        <v>1.057186185916079</v>
+      </c>
+      <c r="V24">
+        <v>1.121112740565726</v>
+      </c>
+      <c r="W24">
+        <v>1.00810355724978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.02879331316952831</v>
+      </c>
+      <c r="D25">
+        <v>0.0300104872443466</v>
+      </c>
+      <c r="E25">
+        <v>0.08375329453524757</v>
+      </c>
+      <c r="F25">
+        <v>2.215396312838417</v>
+      </c>
+      <c r="G25">
+        <v>0.0003904390819234731</v>
+      </c>
+      <c r="H25">
+        <v>0.0003904390819234731</v>
+      </c>
+      <c r="I25">
+        <v>0.0003904390819234731</v>
+      </c>
+      <c r="J25">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="K25">
+        <v>0.001195947486230521</v>
+      </c>
+      <c r="L25">
+        <v>0.001195947486230521</v>
+      </c>
+      <c r="M25">
+        <v>1.71995564212035</v>
+      </c>
+      <c r="N25">
+        <v>0.0003904390819234731</v>
+      </c>
+      <c r="O25">
+        <v>3.835382676343219</v>
+      </c>
+      <c r="P25">
+        <v>1.918289311914725</v>
+      </c>
+      <c r="Q25">
+        <v>1.959567985439233</v>
+      </c>
+      <c r="R25">
+        <v>1.278989687637125</v>
+      </c>
+      <c r="S25">
+        <v>1.306777306121566</v>
+      </c>
+      <c r="T25">
+        <v>1.278989687637125</v>
+      </c>
+      <c r="U25">
+        <v>0.9801805893616552</v>
+      </c>
+      <c r="V25">
+        <v>0.7842225593057088</v>
+      </c>
+      <c r="W25">
+        <v>0.9893597641024079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.978017528762467</v>
+      </c>
+      <c r="D26">
+        <v>2.103189352075622</v>
+      </c>
+      <c r="E26">
+        <v>1.930752885397657</v>
+      </c>
+      <c r="F26">
+        <v>0.3262007917718726</v>
+      </c>
+      <c r="G26">
+        <v>0.3335060775395662</v>
+      </c>
+      <c r="H26">
+        <v>0.3335060775395662</v>
+      </c>
+      <c r="I26">
+        <v>0.3335060775395662</v>
+      </c>
+      <c r="J26">
+        <v>0.006242625921474081</v>
+      </c>
+      <c r="K26">
+        <v>0.4867331853026644</v>
+      </c>
+      <c r="L26">
+        <v>0.4867331853026644</v>
+      </c>
+      <c r="M26">
+        <v>0.7639804803541627</v>
+      </c>
+      <c r="N26">
+        <v>0.3335060775395662</v>
+      </c>
+      <c r="O26">
+        <v>0.006242625921474081</v>
+      </c>
+      <c r="P26">
+        <v>0.2464879056120692</v>
+      </c>
+      <c r="Q26">
+        <v>0.9684977556595658</v>
+      </c>
+      <c r="R26">
+        <v>0.2754939629212349</v>
+      </c>
+      <c r="S26">
+        <v>0.8079095655405987</v>
+      </c>
+      <c r="T26">
+        <v>0.2754939629212349</v>
+      </c>
+      <c r="U26">
+        <v>0.6893086935403405</v>
+      </c>
+      <c r="V26">
+        <v>0.6181481703401857</v>
+      </c>
+      <c r="W26">
+        <v>0.9910778658906857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.04600138865378531</v>
+      </c>
+      <c r="D27">
+        <v>1.875846477088833</v>
+      </c>
+      <c r="E27">
+        <v>1.729017613154956</v>
+      </c>
+      <c r="F27">
+        <v>1.072011405849706</v>
+      </c>
+      <c r="G27">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="H27">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="I27">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="J27">
+        <v>0.06394563458397068</v>
+      </c>
+      <c r="K27">
+        <v>3.575753599251714</v>
+      </c>
+      <c r="L27">
+        <v>3.575753599251714</v>
+      </c>
+      <c r="M27">
+        <v>3.406828348519421</v>
+      </c>
+      <c r="N27">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="O27">
+        <v>0.06394563458397068</v>
+      </c>
+      <c r="P27">
+        <v>1.819849616917842</v>
+      </c>
+      <c r="Q27">
+        <v>0.8964816238694632</v>
+      </c>
+      <c r="R27">
+        <v>1.218260398714632</v>
+      </c>
+      <c r="S27">
+        <v>1.789572282330213</v>
+      </c>
+      <c r="T27">
+        <v>1.218260398714632</v>
+      </c>
+      <c r="U27">
+        <v>1.345949702324713</v>
+      </c>
+      <c r="V27">
+        <v>1.079776154321412</v>
+      </c>
+      <c r="W27">
+        <v>1.473060803676325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.3884201130979834</v>
+      </c>
+      <c r="D28">
+        <v>1.152465689530825</v>
+      </c>
+      <c r="E28">
+        <v>0.2453017638869989</v>
+      </c>
+      <c r="F28">
+        <v>0.1365809871778847</v>
+      </c>
+      <c r="G28">
+        <v>0.08535652632257268</v>
+      </c>
+      <c r="H28">
+        <v>0.08535652632257268</v>
+      </c>
+      <c r="I28">
+        <v>0.08535652632257268</v>
+      </c>
+      <c r="J28">
+        <v>2.080813916858228</v>
+      </c>
+      <c r="K28">
+        <v>0.2709192540440629</v>
+      </c>
+      <c r="L28">
+        <v>0.2709192540440629</v>
+      </c>
+      <c r="M28">
+        <v>3.126665604690211</v>
+      </c>
+      <c r="N28">
+        <v>0.08535652632257268</v>
+      </c>
+      <c r="O28">
+        <v>2.080813916858228</v>
+      </c>
+      <c r="P28">
+        <v>1.175866585451146</v>
+      </c>
+      <c r="Q28">
+        <v>1.163057840372614</v>
+      </c>
+      <c r="R28">
+        <v>0.812363232408288</v>
+      </c>
+      <c r="S28">
+        <v>0.8656783115964301</v>
+      </c>
+      <c r="T28">
+        <v>0.812363232408288</v>
+      </c>
+      <c r="U28">
+        <v>0.6705978652779657</v>
+      </c>
+      <c r="V28">
+        <v>0.5535495974868871</v>
+      </c>
+      <c r="W28">
+        <v>0.9358154819510958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.003498197981038845</v>
+      </c>
+      <c r="D29">
+        <v>0.393863496498899</v>
+      </c>
+      <c r="E29">
+        <v>0.502440844649569</v>
+      </c>
+      <c r="F29">
+        <v>0.1306662516702358</v>
+      </c>
+      <c r="G29">
+        <v>0.1650157339284239</v>
+      </c>
+      <c r="H29">
+        <v>0.1650157339284239</v>
+      </c>
+      <c r="I29">
+        <v>0.1650157339284239</v>
+      </c>
+      <c r="J29">
+        <v>1.23444317543616</v>
+      </c>
+      <c r="K29">
+        <v>-0.0001446655140792162</v>
+      </c>
+      <c r="L29">
+        <v>-0.0001446655140792162</v>
+      </c>
+      <c r="M29">
+        <v>3.015894795148841</v>
+      </c>
+      <c r="N29">
+        <v>0.1650157339284239</v>
+      </c>
+      <c r="O29">
+        <v>1.23444317543616</v>
+      </c>
+      <c r="P29">
+        <v>0.6171492549610403</v>
+      </c>
+      <c r="Q29">
+        <v>0.8684420100428645</v>
+      </c>
+      <c r="R29">
+        <v>0.4664380812835016</v>
+      </c>
+      <c r="S29">
+        <v>0.5789131181905499</v>
+      </c>
+      <c r="T29">
+        <v>0.4664380812835016</v>
+      </c>
+      <c r="U29">
+        <v>0.4754387721250184</v>
+      </c>
+      <c r="V29">
+        <v>0.4133541644856994</v>
+      </c>
+      <c r="W29">
+        <v>0.680709728724886</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.271305302961586</v>
+        <v>1.244954012271474</v>
       </c>
       <c r="D4">
-        <v>0.8157452884046038</v>
+        <v>0.8351683804023381</v>
       </c>
       <c r="E4">
-        <v>0.9326485799463847</v>
+        <v>0.9501010573252818</v>
       </c>
       <c r="F4">
-        <v>0.7935572696759775</v>
+        <v>0.8052372103193526</v>
       </c>
       <c r="G4">
-        <v>0.7628010176520446</v>
+        <v>0.7812762592089859</v>
       </c>
       <c r="H4">
-        <v>0.7628010176520446</v>
+        <v>0.7812762592089859</v>
       </c>
       <c r="I4">
-        <v>0.7628010176520446</v>
+        <v>0.7812762592089859</v>
       </c>
       <c r="J4">
-        <v>0.8780196593461093</v>
+        <v>0.8337315578664718</v>
       </c>
       <c r="K4">
-        <v>3.133541325624553</v>
+        <v>4.091170572473485</v>
       </c>
       <c r="L4">
-        <v>3.133541325624553</v>
+        <v>4.091170572473485</v>
       </c>
       <c r="M4">
-        <v>0.9901082499467646</v>
+        <v>0.948892488031977</v>
       </c>
       <c r="N4">
-        <v>0.7628010176520446</v>
+        <v>0.7812762592089859</v>
       </c>
       <c r="O4">
-        <v>0.8780196593461093</v>
+        <v>0.8337315578664718</v>
       </c>
       <c r="P4">
-        <v>2.005780492485331</v>
+        <v>2.462451065169978</v>
       </c>
       <c r="Q4">
-        <v>0.905334119646247</v>
+        <v>0.8919163075958768</v>
       </c>
       <c r="R4">
-        <v>1.591454000874235</v>
+        <v>1.902059463182981</v>
       </c>
       <c r="S4">
-        <v>1.648069854972349</v>
+        <v>1.958334395888413</v>
       </c>
       <c r="T4">
-        <v>1.591454000874235</v>
+        <v>1.902059463182981</v>
       </c>
       <c r="U4">
-        <v>1.426752645642273</v>
+        <v>1.664069861718556</v>
       </c>
       <c r="V4">
-        <v>1.293962320044227</v>
+        <v>1.487511141216642</v>
       </c>
       <c r="W4">
-        <v>1.197215836694753</v>
+        <v>1.311316442237421</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.177227910082598</v>
+        <v>0.2394496837162838</v>
       </c>
       <c r="D5">
-        <v>0.7814294200670343</v>
+        <v>0.00112344790160153</v>
       </c>
       <c r="E5">
-        <v>0.8892397304736644</v>
+        <v>0.002512355825932856</v>
       </c>
       <c r="F5">
-        <v>0.7546233449214304</v>
+        <v>0.02752177195081789</v>
       </c>
       <c r="G5">
-        <v>0.7312364429001235</v>
+        <v>-0.001327213979300888</v>
       </c>
       <c r="H5">
-        <v>0.7312364429001235</v>
+        <v>-0.001327213979300888</v>
       </c>
       <c r="I5">
-        <v>0.7312364429001235</v>
+        <v>-0.001327213979300888</v>
       </c>
       <c r="J5">
-        <v>0.9022677565366983</v>
+        <v>3.766703332693279</v>
       </c>
       <c r="K5">
-        <v>5.697991800285292</v>
+        <v>5.488704988933891</v>
       </c>
       <c r="L5">
-        <v>5.697991800285292</v>
+        <v>5.488704988933891</v>
       </c>
       <c r="M5">
-        <v>1.010453874806119</v>
+        <v>3.762758854977094</v>
       </c>
       <c r="N5">
-        <v>0.7312364429001235</v>
+        <v>-0.001327213979300888</v>
       </c>
       <c r="O5">
-        <v>0.9022677565366983</v>
+        <v>3.766703332693279</v>
       </c>
       <c r="P5">
-        <v>3.300129778410995</v>
+        <v>4.627704160813585</v>
       </c>
       <c r="Q5">
-        <v>0.8957537435051814</v>
+        <v>1.884607844259606</v>
       </c>
       <c r="R5">
-        <v>2.443831999907371</v>
+        <v>3.08469370254929</v>
       </c>
       <c r="S5">
-        <v>2.496499762431885</v>
+        <v>3.085973559151034</v>
       </c>
       <c r="T5">
-        <v>2.443831999907371</v>
+        <v>3.08469370254929</v>
       </c>
       <c r="U5">
-        <v>2.055183932548945</v>
+        <v>2.314148365868451</v>
       </c>
       <c r="V5">
-        <v>1.79039443461918</v>
+        <v>1.851053249898901</v>
       </c>
       <c r="W5">
-        <v>1.49305878500912</v>
+        <v>1.66093090275245</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6503803038767374</v>
+        <v>1.271305302961586</v>
       </c>
       <c r="D6">
-        <v>0.4143490544170742</v>
+        <v>0.8157452884046038</v>
       </c>
       <c r="E6">
-        <v>0.476978684855654</v>
+        <v>0.9326485799463847</v>
       </c>
       <c r="F6">
-        <v>0.4064132418113491</v>
+        <v>0.7935572696759775</v>
       </c>
       <c r="G6">
-        <v>0.394274429213854</v>
+        <v>0.7628010176520446</v>
       </c>
       <c r="H6">
-        <v>0.394274429213854</v>
+        <v>0.7628010176520446</v>
       </c>
       <c r="I6">
-        <v>0.394274429213854</v>
+        <v>0.7628010176520446</v>
       </c>
       <c r="J6">
-        <v>0.4086466486231076</v>
+        <v>0.8780196593461093</v>
       </c>
       <c r="K6">
-        <v>32.38979835641413</v>
+        <v>3.133541325624553</v>
       </c>
       <c r="L6">
-        <v>32.38979835641413</v>
+        <v>3.133541325624553</v>
       </c>
       <c r="M6">
-        <v>0.4669330274124808</v>
+        <v>0.9901082499467646</v>
       </c>
       <c r="N6">
-        <v>0.394274429213854</v>
+        <v>0.7628010176520446</v>
       </c>
       <c r="O6">
-        <v>0.4086466486231076</v>
+        <v>0.8780196593461093</v>
       </c>
       <c r="P6">
-        <v>16.39922250251862</v>
+        <v>2.005780492485331</v>
       </c>
       <c r="Q6">
-        <v>0.4428126667393808</v>
+        <v>0.905334119646247</v>
       </c>
       <c r="R6">
-        <v>11.06423981141703</v>
+        <v>1.591454000874235</v>
       </c>
       <c r="S6">
-        <v>11.09180789663096</v>
+        <v>1.648069854972349</v>
       </c>
       <c r="T6">
-        <v>11.06423981141703</v>
+        <v>1.591454000874235</v>
       </c>
       <c r="U6">
-        <v>8.417424529776685</v>
+        <v>1.426752645642273</v>
       </c>
       <c r="V6">
-        <v>6.812794509664118</v>
+        <v>1.293962320044227</v>
       </c>
       <c r="W6">
-        <v>4.450971718328049</v>
+        <v>1.197215836694753</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9694832973219962</v>
+        <v>1.177227910082598</v>
       </c>
       <c r="D7">
-        <v>0.9496169627056327</v>
+        <v>0.7814294200670343</v>
       </c>
       <c r="E7">
-        <v>0.9531403875924397</v>
+        <v>0.8892397304736644</v>
       </c>
       <c r="F7">
-        <v>0.9550730015016526</v>
+        <v>0.7546233449214304</v>
       </c>
       <c r="G7">
-        <v>0.9489874802718845</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="H7">
-        <v>0.9489874802718845</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="I7">
-        <v>0.9489874802718845</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="J7">
-        <v>1.108154912647222</v>
+        <v>0.9022677565366983</v>
       </c>
       <c r="K7">
-        <v>1.277531034035431</v>
+        <v>5.697991800285292</v>
       </c>
       <c r="L7">
-        <v>1.277531034035431</v>
+        <v>5.697991800285292</v>
       </c>
       <c r="M7">
-        <v>1.114145282339764</v>
+        <v>1.010453874806119</v>
       </c>
       <c r="N7">
-        <v>0.9489874802718845</v>
+        <v>0.7312364429001235</v>
       </c>
       <c r="O7">
-        <v>1.108154912647222</v>
+        <v>0.9022677565366983</v>
       </c>
       <c r="P7">
-        <v>1.192842973341327</v>
+        <v>3.300129778410995</v>
       </c>
       <c r="Q7">
-        <v>1.030647650119831</v>
+        <v>0.8957537435051814</v>
       </c>
       <c r="R7">
-        <v>1.111557808984846</v>
+        <v>2.443831999907371</v>
       </c>
       <c r="S7">
-        <v>1.112942111425031</v>
+        <v>2.496499762431885</v>
       </c>
       <c r="T7">
-        <v>1.111557808984846</v>
+        <v>2.443831999907371</v>
       </c>
       <c r="U7">
-        <v>1.071953453636744</v>
+        <v>2.055183932548945</v>
       </c>
       <c r="V7">
-        <v>1.047360258963772</v>
+        <v>1.79039443461918</v>
       </c>
       <c r="W7">
-        <v>1.034516544802003</v>
+        <v>1.49305878500912</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000698421633131</v>
+        <v>0.6503803038767374</v>
       </c>
       <c r="D8">
-        <v>0.993758846167905</v>
+        <v>0.4143490544170742</v>
       </c>
       <c r="E8">
-        <v>0.9930648890227208</v>
+        <v>0.476978684855654</v>
       </c>
       <c r="F8">
-        <v>0.9909018666916163</v>
+        <v>0.4064132418113491</v>
       </c>
       <c r="G8">
-        <v>0.9931101478651673</v>
+        <v>0.394274429213854</v>
       </c>
       <c r="H8">
-        <v>0.9931101478651673</v>
+        <v>0.394274429213854</v>
       </c>
       <c r="I8">
-        <v>0.9931101478651673</v>
+        <v>0.394274429213854</v>
       </c>
       <c r="J8">
-        <v>1.038860998658936</v>
+        <v>0.4086466486231076</v>
       </c>
       <c r="K8">
-        <v>1.006463253683541</v>
+        <v>32.38979835641413</v>
       </c>
       <c r="L8">
-        <v>1.006463253683541</v>
+        <v>32.38979835641413</v>
       </c>
       <c r="M8">
-        <v>0.9879946921121984</v>
+        <v>0.4669330274124808</v>
       </c>
       <c r="N8">
-        <v>0.9931101478651673</v>
+        <v>0.394274429213854</v>
       </c>
       <c r="O8">
-        <v>1.038860998658936</v>
+        <v>0.4086466486231076</v>
       </c>
       <c r="P8">
-        <v>1.022662126171238</v>
+        <v>16.39922250251862</v>
       </c>
       <c r="Q8">
-        <v>1.015962943840828</v>
+        <v>0.4428126667393808</v>
       </c>
       <c r="R8">
-        <v>1.012811466735881</v>
+        <v>11.06423981141703</v>
       </c>
       <c r="S8">
-        <v>1.012796380455066</v>
+        <v>11.09180789663096</v>
       </c>
       <c r="T8">
-        <v>1.012811466735881</v>
+        <v>11.06423981141703</v>
       </c>
       <c r="U8">
-        <v>1.007874822307591</v>
+        <v>8.417424529776685</v>
       </c>
       <c r="V8">
-        <v>1.004921887419106</v>
+        <v>6.812794509664118</v>
       </c>
       <c r="W8">
-        <v>1.000606639479402</v>
+        <v>4.450971718328049</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9518818160728856</v>
+        <v>0.9694832973219962</v>
       </c>
       <c r="D9">
-        <v>0.9711807209918591</v>
+        <v>0.9496169627056327</v>
       </c>
       <c r="E9">
-        <v>0.8586229122657004</v>
+        <v>0.9531403875924397</v>
       </c>
       <c r="F9">
-        <v>0.8849646903713391</v>
+        <v>0.9550730015016526</v>
       </c>
       <c r="G9">
-        <v>0.9685179208066926</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="H9">
-        <v>0.9685179208066926</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="I9">
-        <v>0.9685179208066926</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="J9">
-        <v>1.205893345514888</v>
+        <v>1.108154912647222</v>
       </c>
       <c r="K9">
-        <v>1.671977490293228</v>
+        <v>1.277531034035431</v>
       </c>
       <c r="L9">
-        <v>1.671977490293228</v>
+        <v>1.277531034035431</v>
       </c>
       <c r="M9">
-        <v>1.229885850192874</v>
+        <v>1.114145282339764</v>
       </c>
       <c r="N9">
-        <v>0.9685179208066926</v>
+        <v>0.9489874802718845</v>
       </c>
       <c r="O9">
-        <v>1.205893345514888</v>
+        <v>1.108154912647222</v>
       </c>
       <c r="P9">
-        <v>1.438935417904058</v>
+        <v>1.192842973341327</v>
       </c>
       <c r="Q9">
-        <v>1.032258128890294</v>
+        <v>1.030647650119831</v>
       </c>
       <c r="R9">
-        <v>1.28212958553827</v>
+        <v>1.111557808984846</v>
       </c>
       <c r="S9">
-        <v>1.245497916024605</v>
+        <v>1.112942111425031</v>
       </c>
       <c r="T9">
-        <v>1.28212958553827</v>
+        <v>1.111557808984846</v>
       </c>
       <c r="U9">
-        <v>1.176252917220127</v>
+        <v>1.071953453636744</v>
       </c>
       <c r="V9">
-        <v>1.13470591793744</v>
+        <v>1.047360258963772</v>
       </c>
       <c r="W9">
-        <v>1.092865593313683</v>
+        <v>1.034516544802003</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6365323209873008</v>
+        <v>1.000698421633131</v>
       </c>
       <c r="D10">
-        <v>0.3132099058101704</v>
+        <v>0.993758846167905</v>
       </c>
       <c r="E10">
-        <v>0.3814906670904826</v>
+        <v>0.9930648890227208</v>
       </c>
       <c r="F10">
-        <v>0.4440747210660893</v>
+        <v>0.9909018666916163</v>
       </c>
       <c r="G10">
-        <v>0.5149012431344437</v>
+        <v>0.9931101478651673</v>
       </c>
       <c r="H10">
-        <v>0.5149012431344437</v>
+        <v>0.9931101478651673</v>
       </c>
       <c r="I10">
-        <v>0.5149012431344437</v>
+        <v>0.9931101478651673</v>
       </c>
       <c r="J10">
-        <v>0.4539281208841073</v>
+        <v>1.038860998658936</v>
       </c>
       <c r="K10">
-        <v>33.07672559460195</v>
+        <v>1.006463253683541</v>
       </c>
       <c r="L10">
-        <v>33.07672559460195</v>
+        <v>1.006463253683541</v>
       </c>
       <c r="M10">
-        <v>0.4060912466534862</v>
+        <v>0.9879946921121984</v>
       </c>
       <c r="N10">
-        <v>0.5149012431344437</v>
+        <v>0.9931101478651673</v>
       </c>
       <c r="O10">
-        <v>0.4539281208841073</v>
+        <v>1.038860998658936</v>
       </c>
       <c r="P10">
-        <v>16.76532685774303</v>
+        <v>1.022662126171238</v>
       </c>
       <c r="Q10">
-        <v>0.417709393987295</v>
+        <v>1.015962943840828</v>
       </c>
       <c r="R10">
-        <v>11.34851831954017</v>
+        <v>1.012811466735881</v>
       </c>
       <c r="S10">
-        <v>11.30404812752551</v>
+        <v>1.012796380455066</v>
       </c>
       <c r="T10">
-        <v>11.34851831954017</v>
+        <v>1.012811466735881</v>
       </c>
       <c r="U10">
-        <v>8.606761406427747</v>
+        <v>1.007874822307591</v>
       </c>
       <c r="V10">
-        <v>6.988389373769087</v>
+        <v>1.004921887419106</v>
       </c>
       <c r="W10">
-        <v>4.528369227528504</v>
+        <v>1.000606639479402</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.275742217209513</v>
+        <v>0.9518818160728856</v>
       </c>
       <c r="D11">
-        <v>1.00183046425107</v>
+        <v>0.9711807209918591</v>
       </c>
       <c r="E11">
-        <v>1.006496178566581</v>
+        <v>0.8586229122657004</v>
       </c>
       <c r="F11">
-        <v>0.7934671790204072</v>
+        <v>0.8849646903713391</v>
       </c>
       <c r="G11">
-        <v>1.126255008132724</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="H11">
-        <v>1.126255008132724</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="I11">
-        <v>1.126255008132724</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="J11">
-        <v>0.7522912816772533</v>
+        <v>1.205893345514888</v>
       </c>
       <c r="K11">
-        <v>2.934682143652594</v>
+        <v>1.671977490293228</v>
       </c>
       <c r="L11">
-        <v>2.934682143652594</v>
+        <v>1.671977490293228</v>
       </c>
       <c r="M11">
-        <v>0.7582343430532114</v>
+        <v>1.229885850192874</v>
       </c>
       <c r="N11">
-        <v>1.126255008132724</v>
+        <v>0.9685179208066926</v>
       </c>
       <c r="O11">
-        <v>0.7522912816772533</v>
+        <v>1.205893345514888</v>
       </c>
       <c r="P11">
-        <v>1.843486712664923</v>
+        <v>1.438935417904058</v>
       </c>
       <c r="Q11">
-        <v>0.8793937301219171</v>
+        <v>1.032258128890294</v>
       </c>
       <c r="R11">
-        <v>1.604409477820857</v>
+        <v>1.28212958553827</v>
       </c>
       <c r="S11">
-        <v>1.564489867965476</v>
+        <v>1.245497916024605</v>
       </c>
       <c r="T11">
-        <v>1.604409477820857</v>
+        <v>1.28212958553827</v>
       </c>
       <c r="U11">
-        <v>1.454931153007288</v>
+        <v>1.176252917220127</v>
       </c>
       <c r="V11">
-        <v>1.389195924032375</v>
+        <v>1.13470591793744</v>
       </c>
       <c r="W11">
-        <v>1.206124851945419</v>
+        <v>1.092865593313683</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.117018488312304</v>
+        <v>0.6365323209873008</v>
       </c>
       <c r="D12">
-        <v>0.6336167774653726</v>
+        <v>0.3132099058101704</v>
       </c>
       <c r="E12">
-        <v>0.694107369745399</v>
+        <v>0.3814906670904826</v>
       </c>
       <c r="F12">
-        <v>0.8032576241514495</v>
+        <v>0.4440747210660893</v>
       </c>
       <c r="G12">
-        <v>1.042194791570058</v>
+        <v>0.5149012431344437</v>
       </c>
       <c r="H12">
-        <v>1.042194791570058</v>
+        <v>0.5149012431344437</v>
       </c>
       <c r="I12">
-        <v>1.042194791570058</v>
+        <v>0.5149012431344437</v>
       </c>
       <c r="J12">
-        <v>0.8917008121109385</v>
+        <v>0.4539281208841073</v>
       </c>
       <c r="K12">
-        <v>7.371875189357552</v>
+        <v>33.07672559460195</v>
       </c>
       <c r="L12">
-        <v>7.371875189357552</v>
+        <v>33.07672559460195</v>
       </c>
       <c r="M12">
-        <v>0.8396171408691885</v>
+        <v>0.4060912466534862</v>
       </c>
       <c r="N12">
-        <v>1.042194791570058</v>
+        <v>0.5149012431344437</v>
       </c>
       <c r="O12">
-        <v>0.8917008121109385</v>
+        <v>0.4539281208841073</v>
       </c>
       <c r="P12">
-        <v>4.131788000734245</v>
+        <v>16.76532685774303</v>
       </c>
       <c r="Q12">
-        <v>0.7929040909281688</v>
+        <v>0.417709393987295</v>
       </c>
       <c r="R12">
-        <v>3.101923597679516</v>
+        <v>11.34851831954017</v>
       </c>
       <c r="S12">
-        <v>2.985894457071296</v>
+        <v>11.30404812752551</v>
       </c>
       <c r="T12">
-        <v>3.101923597679516</v>
+        <v>11.34851831954017</v>
       </c>
       <c r="U12">
-        <v>2.499969540695987</v>
+        <v>8.606761406427747</v>
       </c>
       <c r="V12">
-        <v>2.208414590870801</v>
+        <v>6.988389373769087</v>
       </c>
       <c r="W12">
-        <v>1.674173524197783</v>
+        <v>4.528369227528504</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6672487745394171</v>
+        <v>1.275742217209513</v>
       </c>
       <c r="D13">
-        <v>0.8056482910811112</v>
+        <v>1.00183046425107</v>
       </c>
       <c r="E13">
-        <v>0.6635741383564324</v>
+        <v>1.006496178566581</v>
       </c>
       <c r="F13">
-        <v>1.320002956595297</v>
+        <v>0.7934671790204072</v>
       </c>
       <c r="G13">
-        <v>1.67386080182847</v>
+        <v>1.126255008132724</v>
       </c>
       <c r="H13">
-        <v>1.67386080182847</v>
+        <v>1.126255008132724</v>
       </c>
       <c r="I13">
-        <v>1.67386080182847</v>
+        <v>1.126255008132724</v>
       </c>
       <c r="J13">
-        <v>1.358845307334478</v>
+        <v>0.7522912816772533</v>
       </c>
       <c r="K13">
-        <v>0.7361896534508522</v>
+        <v>2.934682143652594</v>
       </c>
       <c r="L13">
-        <v>0.7361896534508522</v>
+        <v>2.934682143652594</v>
       </c>
       <c r="M13">
-        <v>0.8331818604903317</v>
+        <v>0.7582343430532114</v>
       </c>
       <c r="N13">
-        <v>1.67386080182847</v>
+        <v>1.126255008132724</v>
       </c>
       <c r="O13">
-        <v>1.358845307334478</v>
+        <v>0.7522912816772533</v>
       </c>
       <c r="P13">
-        <v>1.047517480392665</v>
+        <v>1.843486712664923</v>
       </c>
       <c r="Q13">
-        <v>1.011209722845455</v>
+        <v>0.8793937301219171</v>
       </c>
       <c r="R13">
-        <v>1.256298587537933</v>
+        <v>1.604409477820857</v>
       </c>
       <c r="S13">
-        <v>0.9195363663805874</v>
+        <v>1.564489867965476</v>
       </c>
       <c r="T13">
-        <v>1.256298587537933</v>
+        <v>1.604409477820857</v>
       </c>
       <c r="U13">
-        <v>1.108117475242558</v>
+        <v>1.454931153007288</v>
       </c>
       <c r="V13">
-        <v>1.22126614055974</v>
+        <v>1.389195924032375</v>
       </c>
       <c r="W13">
-        <v>1.007318972959549</v>
+        <v>1.206124851945419</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.04955152399999998</v>
+        <v>1.117018488312304</v>
       </c>
       <c r="D14">
-        <v>-0.006433271399999997</v>
+        <v>0.6336167774653726</v>
       </c>
       <c r="E14">
-        <v>0.002693453900000002</v>
+        <v>0.694107369745399</v>
       </c>
       <c r="F14">
-        <v>0.007878550500000006</v>
+        <v>0.8032576241514495</v>
       </c>
       <c r="G14">
-        <v>0.006236068099999995</v>
+        <v>1.042194791570058</v>
       </c>
       <c r="H14">
-        <v>0.006236068099999995</v>
+        <v>1.042194791570058</v>
       </c>
       <c r="I14">
-        <v>0.006236068099999995</v>
+        <v>1.042194791570058</v>
       </c>
       <c r="J14">
-        <v>0.003096941800000001</v>
+        <v>0.8917008121109385</v>
       </c>
       <c r="K14">
-        <v>60.75982100000006</v>
+        <v>7.371875189357552</v>
       </c>
       <c r="L14">
-        <v>60.75982100000006</v>
+        <v>7.371875189357552</v>
       </c>
       <c r="M14">
-        <v>0.003041090100000003</v>
+        <v>0.8396171408691885</v>
       </c>
       <c r="N14">
-        <v>0.006236068099999995</v>
+        <v>1.042194791570058</v>
       </c>
       <c r="O14">
-        <v>0.003096941800000001</v>
+        <v>0.8917008121109385</v>
       </c>
       <c r="P14">
-        <v>30.38145897090003</v>
+        <v>4.131788000734245</v>
       </c>
       <c r="Q14">
-        <v>0.002895197850000002</v>
+        <v>0.7929040909281688</v>
       </c>
       <c r="R14">
-        <v>20.25638466996669</v>
+        <v>3.101923597679516</v>
       </c>
       <c r="S14">
-        <v>20.25520379856669</v>
+        <v>2.985894457071296</v>
       </c>
       <c r="T14">
-        <v>20.25638466996669</v>
+        <v>3.101923597679516</v>
       </c>
       <c r="U14">
-        <v>15.19296186595002</v>
+        <v>2.499969540695987</v>
       </c>
       <c r="V14">
-        <v>12.15561670638001</v>
+        <v>2.208414590870801</v>
       </c>
       <c r="W14">
-        <v>7.603235669625007</v>
+        <v>1.674173524197783</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.049551524</v>
+        <v>0.6672487745394171</v>
       </c>
       <c r="D15">
-        <v>-0.0064332714</v>
+        <v>0.8056482910811112</v>
       </c>
       <c r="E15">
-        <v>0.0026934539</v>
+        <v>0.6635741383564324</v>
       </c>
       <c r="F15">
-        <v>0.0078785505</v>
+        <v>1.320002956595297</v>
       </c>
       <c r="G15">
-        <v>0.0062360681</v>
+        <v>1.67386080182847</v>
       </c>
       <c r="H15">
-        <v>0.0062360681</v>
+        <v>1.67386080182847</v>
       </c>
       <c r="I15">
-        <v>0.0062360681</v>
+        <v>1.67386080182847</v>
       </c>
       <c r="J15">
-        <v>0.0030969418</v>
+        <v>1.358845307334478</v>
       </c>
       <c r="K15">
-        <v>60.759821</v>
+        <v>0.7361896534508522</v>
       </c>
       <c r="L15">
-        <v>60.759821</v>
+        <v>0.7361896534508522</v>
       </c>
       <c r="M15">
-        <v>0.003041090099999999</v>
+        <v>0.8331818604903317</v>
       </c>
       <c r="N15">
-        <v>0.0062360681</v>
+        <v>1.67386080182847</v>
       </c>
       <c r="O15">
-        <v>0.0030969418</v>
+        <v>1.358845307334478</v>
       </c>
       <c r="P15">
-        <v>30.3814589709</v>
+        <v>1.047517480392665</v>
       </c>
       <c r="Q15">
-        <v>0.00289519785</v>
+        <v>1.011209722845455</v>
       </c>
       <c r="R15">
-        <v>20.25638466996667</v>
+        <v>1.256298587537933</v>
       </c>
       <c r="S15">
-        <v>20.25520379856667</v>
+        <v>0.9195363663805874</v>
       </c>
       <c r="T15">
-        <v>20.25638466996667</v>
+        <v>1.256298587537933</v>
       </c>
       <c r="U15">
-        <v>15.19296186595</v>
+        <v>1.108117475242558</v>
       </c>
       <c r="V15">
-        <v>12.15561670638</v>
+        <v>1.22126614055974</v>
       </c>
       <c r="W15">
-        <v>7.603235669625</v>
+        <v>1.007318972959549</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.049551524</v>
+        <v>0.04955152399999998</v>
       </c>
       <c r="D16">
-        <v>-0.0064332714</v>
+        <v>-0.006433271399999997</v>
       </c>
       <c r="E16">
-        <v>0.0026934539</v>
+        <v>0.002693453900000002</v>
       </c>
       <c r="F16">
-        <v>0.0078785505</v>
+        <v>0.007878550500000006</v>
       </c>
       <c r="G16">
-        <v>0.0062360681</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="H16">
-        <v>0.0062360681</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="I16">
-        <v>0.0062360681</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="J16">
-        <v>0.0030969418</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="K16">
-        <v>60.759821</v>
+        <v>60.75982100000006</v>
       </c>
       <c r="L16">
-        <v>60.759821</v>
+        <v>60.75982100000006</v>
       </c>
       <c r="M16">
-        <v>0.003041090099999999</v>
+        <v>0.003041090100000003</v>
       </c>
       <c r="N16">
-        <v>0.0062360681</v>
+        <v>0.006236068099999995</v>
       </c>
       <c r="O16">
-        <v>0.0030969418</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="P16">
-        <v>30.3814589709</v>
+        <v>30.38145897090003</v>
       </c>
       <c r="Q16">
-        <v>0.00289519785</v>
+        <v>0.002895197850000002</v>
       </c>
       <c r="R16">
-        <v>20.25638466996667</v>
+        <v>20.25638466996669</v>
       </c>
       <c r="S16">
-        <v>20.25520379856667</v>
+        <v>20.25520379856669</v>
       </c>
       <c r="T16">
-        <v>20.25638466996667</v>
+        <v>20.25638466996669</v>
       </c>
       <c r="U16">
-        <v>15.19296186595</v>
+        <v>15.19296186595002</v>
       </c>
       <c r="V16">
-        <v>12.15561670638</v>
+        <v>12.15561670638001</v>
       </c>
       <c r="W16">
-        <v>7.603235669625</v>
+        <v>7.603235669625007</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.0082885554</v>
+        <v>0.049551524</v>
       </c>
       <c r="D17">
-        <v>0.0035140694</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="E17">
-        <v>-0.0063507761</v>
+        <v>0.0026934539</v>
       </c>
       <c r="F17">
-        <v>0.0016794768</v>
+        <v>0.0078785505</v>
       </c>
       <c r="G17">
-        <v>0.0002567862</v>
+        <v>0.0062360681</v>
       </c>
       <c r="H17">
-        <v>0.0002567862</v>
+        <v>0.0062360681</v>
       </c>
       <c r="I17">
-        <v>0.0002567862</v>
+        <v>0.0062360681</v>
       </c>
       <c r="J17">
-        <v>0.056027822</v>
+        <v>0.0030969418</v>
       </c>
       <c r="K17">
-        <v>0.0013547887</v>
+        <v>60.759821</v>
       </c>
       <c r="L17">
-        <v>0.0013547887</v>
+        <v>60.759821</v>
       </c>
       <c r="M17">
-        <v>10.971864</v>
+        <v>0.003041090099999999</v>
       </c>
       <c r="N17">
-        <v>0.0002567862</v>
+        <v>0.0062360681</v>
       </c>
       <c r="O17">
-        <v>0.056027822</v>
+        <v>0.0030969418</v>
       </c>
       <c r="P17">
-        <v>0.02869130535</v>
+        <v>30.3814589709</v>
       </c>
       <c r="Q17">
-        <v>0.02483852295</v>
+        <v>0.00289519785</v>
       </c>
       <c r="R17">
-        <v>0.0192131323</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="S17">
-        <v>0.01701061153333333</v>
+        <v>20.25520379856667</v>
       </c>
       <c r="T17">
-        <v>0.0192131323</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="U17">
-        <v>0.0128221552</v>
+        <v>15.19296186595</v>
       </c>
       <c r="V17">
-        <v>0.0103090814</v>
+        <v>12.15561670638</v>
       </c>
       <c r="W17">
-        <v>1.37750720145</v>
+        <v>7.603235669625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.2358865764986303</v>
+        <v>0.049551524</v>
       </c>
       <c r="D18">
-        <v>0.000972024362191781</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="E18">
-        <v>0.002328569554794522</v>
+        <v>0.0026934539</v>
       </c>
       <c r="F18">
-        <v>0.0261257860890411</v>
+        <v>0.0078785505</v>
       </c>
       <c r="G18">
-        <v>-0.001174491636986302</v>
+        <v>0.0062360681</v>
       </c>
       <c r="H18">
-        <v>-0.001174491636986302</v>
+        <v>0.0062360681</v>
       </c>
       <c r="I18">
-        <v>-0.001174491636986302</v>
+        <v>0.0062360681</v>
       </c>
       <c r="J18">
-        <v>3.546992953636714</v>
+        <v>0.0030969418</v>
       </c>
       <c r="K18">
-        <v>7.927111028986301</v>
+        <v>60.759821</v>
       </c>
       <c r="L18">
-        <v>7.927111028986301</v>
+        <v>60.759821</v>
       </c>
       <c r="M18">
-        <v>3.545767832329591</v>
+        <v>0.003041090099999999</v>
       </c>
       <c r="N18">
-        <v>-0.001174491636986302</v>
+        <v>0.0062360681</v>
       </c>
       <c r="O18">
-        <v>3.546992953636714</v>
+        <v>0.0030969418</v>
       </c>
       <c r="P18">
-        <v>5.737051991311508</v>
+        <v>30.3814589709</v>
       </c>
       <c r="Q18">
-        <v>1.774660761595754</v>
+        <v>0.00289519785</v>
       </c>
       <c r="R18">
-        <v>3.824309830328676</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="S18">
-        <v>3.825477517392603</v>
+        <v>20.25520379856667</v>
       </c>
       <c r="T18">
-        <v>3.824309830328676</v>
+        <v>20.25638466996667</v>
       </c>
       <c r="U18">
-        <v>2.868814515135206</v>
+        <v>15.19296186595</v>
       </c>
       <c r="V18">
-        <v>2.294816713780768</v>
+        <v>12.15561670638</v>
       </c>
       <c r="W18">
-        <v>1.910501284977535</v>
+        <v>7.603235669625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.2285312454789473</v>
+        <v>-0.0082885554</v>
       </c>
       <c r="D19">
-        <v>0.0006797100494736845</v>
+        <v>0.0035140694</v>
       </c>
       <c r="E19">
-        <v>0.002342972905263157</v>
+        <v>-0.0063507761</v>
       </c>
       <c r="F19">
-        <v>0.02540550047368421</v>
+        <v>0.0016794768</v>
       </c>
       <c r="G19">
-        <v>-0.0008819695421052635</v>
+        <v>0.0002567862</v>
       </c>
       <c r="H19">
-        <v>-0.0008819695421052635</v>
+        <v>0.0002567862</v>
       </c>
       <c r="I19">
-        <v>-0.0008819695421052635</v>
+        <v>0.0002567862</v>
       </c>
       <c r="J19">
-        <v>3.407102321590526</v>
+        <v>0.056027822</v>
       </c>
       <c r="K19">
-        <v>10.01261273836842</v>
+        <v>0.0013547887</v>
       </c>
       <c r="L19">
-        <v>10.01261273836842</v>
+        <v>0.0013547887</v>
       </c>
       <c r="M19">
-        <v>3.405923355662632</v>
+        <v>10.971864</v>
       </c>
       <c r="N19">
-        <v>-0.0008819695421052635</v>
+        <v>0.0002567862</v>
       </c>
       <c r="O19">
-        <v>3.407102321590526</v>
+        <v>0.056027822</v>
       </c>
       <c r="P19">
-        <v>6.709857529979473</v>
+        <v>0.02869130535</v>
       </c>
       <c r="Q19">
-        <v>1.704722647247894</v>
+        <v>0.02483852295</v>
       </c>
       <c r="R19">
-        <v>4.472944363472281</v>
+        <v>0.0192131323</v>
       </c>
       <c r="S19">
-        <v>4.474019344288069</v>
+        <v>0.01701061153333333</v>
       </c>
       <c r="T19">
-        <v>4.47294436347228</v>
+        <v>0.0192131323</v>
       </c>
       <c r="U19">
-        <v>3.355294015830526</v>
+        <v>0.0128221552</v>
       </c>
       <c r="V19">
-        <v>2.684058818755999</v>
+        <v>0.0103090814</v>
       </c>
       <c r="W19">
-        <v>2.135214484373355</v>
+        <v>1.37750720145</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.2285312454789473</v>
+        <v>0.2358865764986303</v>
       </c>
       <c r="D20">
-        <v>0.0006797100494736845</v>
+        <v>0.000972024362191781</v>
       </c>
       <c r="E20">
-        <v>0.002342972905263157</v>
+        <v>0.002328569554794522</v>
       </c>
       <c r="F20">
-        <v>0.02540550047368421</v>
+        <v>0.0261257860890411</v>
       </c>
       <c r="G20">
-        <v>-0.0008819695421052635</v>
+        <v>-0.001174491636986302</v>
       </c>
       <c r="H20">
-        <v>-0.0008819695421052635</v>
+        <v>-0.001174491636986302</v>
       </c>
       <c r="I20">
-        <v>-0.0008819695421052635</v>
+        <v>-0.001174491636986302</v>
       </c>
       <c r="J20">
-        <v>3.407102321590526</v>
+        <v>3.546992953636714</v>
       </c>
       <c r="K20">
-        <v>10.01261273836842</v>
+        <v>7.927111028986301</v>
       </c>
       <c r="L20">
-        <v>10.01261273836842</v>
+        <v>7.927111028986301</v>
       </c>
       <c r="M20">
-        <v>3.405923355662632</v>
+        <v>3.545767832329591</v>
       </c>
       <c r="N20">
-        <v>-0.0008819695421052635</v>
+        <v>-0.001174491636986302</v>
       </c>
       <c r="O20">
-        <v>3.407102321590526</v>
+        <v>3.546992953636714</v>
       </c>
       <c r="P20">
-        <v>6.709857529979473</v>
+        <v>5.737051991311508</v>
       </c>
       <c r="Q20">
-        <v>1.704722647247894</v>
+        <v>1.774660761595754</v>
       </c>
       <c r="R20">
-        <v>4.472944363472281</v>
+        <v>3.824309830328676</v>
       </c>
       <c r="S20">
-        <v>4.474019344288069</v>
+        <v>3.825477517392603</v>
       </c>
       <c r="T20">
-        <v>4.47294436347228</v>
+        <v>3.824309830328676</v>
       </c>
       <c r="U20">
-        <v>3.355294015830526</v>
+        <v>2.868814515135206</v>
       </c>
       <c r="V20">
-        <v>2.684058818755999</v>
+        <v>2.294816713780768</v>
       </c>
       <c r="W20">
-        <v>2.135214484373355</v>
+        <v>1.910501284977535</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.0287933131695283</v>
+        <v>0.2285312454789473</v>
       </c>
       <c r="D21">
-        <v>0.03001048724434661</v>
+        <v>0.0006797100494736845</v>
       </c>
       <c r="E21">
-        <v>0.08375329453524756</v>
+        <v>0.002342972905263157</v>
       </c>
       <c r="F21">
-        <v>2.215396312838418</v>
+        <v>0.02540550047368421</v>
       </c>
       <c r="G21">
-        <v>0.0003904390819234697</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="H21">
-        <v>0.0003904390819234697</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="I21">
-        <v>0.0003904390819234697</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="J21">
-        <v>3.835382676343219</v>
+        <v>3.407102321590526</v>
       </c>
       <c r="K21">
-        <v>0.001195947500271863</v>
+        <v>10.01261273836842</v>
       </c>
       <c r="L21">
-        <v>0.001195947500271863</v>
+        <v>10.01261273836842</v>
       </c>
       <c r="M21">
-        <v>1.719955642120351</v>
+        <v>3.405923355662632</v>
       </c>
       <c r="N21">
-        <v>0.0003904390819234697</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="O21">
-        <v>3.835382676343219</v>
+        <v>3.407102321590526</v>
       </c>
       <c r="P21">
-        <v>1.918289311921745</v>
+        <v>6.709857529979473</v>
       </c>
       <c r="Q21">
-        <v>1.959567985439233</v>
+        <v>1.704722647247894</v>
       </c>
       <c r="R21">
-        <v>1.278989687641805</v>
+        <v>4.472944363472281</v>
       </c>
       <c r="S21">
-        <v>1.306777306126246</v>
+        <v>4.474019344288069</v>
       </c>
       <c r="T21">
-        <v>1.278989687641805</v>
+        <v>4.47294436347228</v>
       </c>
       <c r="U21">
-        <v>0.9801805893651654</v>
+        <v>3.355294015830526</v>
       </c>
       <c r="V21">
-        <v>0.784222559308517</v>
+        <v>2.684058818755999</v>
       </c>
       <c r="W21">
-        <v>0.989359764104163</v>
+        <v>2.135214484373355</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.978017528762467</v>
+        <v>0.2285312454789473</v>
       </c>
       <c r="D22">
-        <v>2.103189352075622</v>
+        <v>0.0006797100494736845</v>
       </c>
       <c r="E22">
-        <v>1.930752885397657</v>
+        <v>0.002342972905263157</v>
       </c>
       <c r="F22">
-        <v>0.3262007917718728</v>
+        <v>0.02540550047368421</v>
       </c>
       <c r="G22">
-        <v>0.3335060775395657</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="H22">
-        <v>0.3335060775395657</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="I22">
-        <v>0.3335060775395657</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="J22">
-        <v>0.0062426259214741</v>
+        <v>3.407102321590526</v>
       </c>
       <c r="K22">
-        <v>0.4867331853026556</v>
+        <v>10.01261273836842</v>
       </c>
       <c r="L22">
-        <v>0.4867331853026556</v>
+        <v>10.01261273836842</v>
       </c>
       <c r="M22">
-        <v>0.7639804803541627</v>
+        <v>3.405923355662632</v>
       </c>
       <c r="N22">
-        <v>0.3335060775395657</v>
+        <v>-0.0008819695421052635</v>
       </c>
       <c r="O22">
-        <v>0.0062426259214741</v>
+        <v>3.407102321590526</v>
       </c>
       <c r="P22">
-        <v>0.2464879056120649</v>
+        <v>6.709857529979473</v>
       </c>
       <c r="Q22">
-        <v>0.9684977556595658</v>
+        <v>1.704722647247894</v>
       </c>
       <c r="R22">
-        <v>0.2754939629212318</v>
+        <v>4.472944363472281</v>
       </c>
       <c r="S22">
-        <v>0.8079095655405957</v>
+        <v>4.474019344288069</v>
       </c>
       <c r="T22">
-        <v>0.2754939629212318</v>
+        <v>4.47294436347228</v>
       </c>
       <c r="U22">
-        <v>0.6893086935403382</v>
+        <v>3.355294015830526</v>
       </c>
       <c r="V22">
-        <v>0.6181481703401837</v>
+        <v>2.684058818755999</v>
       </c>
       <c r="W22">
-        <v>0.9910778658906845</v>
+        <v>2.135214484373355</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.569984070182464</v>
+        <v>0.0287933131695283</v>
       </c>
       <c r="D23">
-        <v>0.3632148420855516</v>
+        <v>0.03001048724434661</v>
       </c>
       <c r="E23">
-        <v>1.916597466133352</v>
+        <v>0.08375329453524756</v>
       </c>
       <c r="F23">
-        <v>0.5588256154470996</v>
+        <v>2.215396312838418</v>
       </c>
       <c r="G23">
-        <v>1.379937255016048</v>
+        <v>0.0003904390819234697</v>
       </c>
       <c r="H23">
-        <v>1.379937255016048</v>
+        <v>0.0003904390819234697</v>
       </c>
       <c r="I23">
-        <v>1.379937255016048</v>
+        <v>0.0003904390819234697</v>
       </c>
       <c r="J23">
-        <v>0.002237596383924254</v>
+        <v>3.835382676343219</v>
       </c>
       <c r="K23">
-        <v>0.001328490850010016</v>
+        <v>0.001195947500271863</v>
       </c>
       <c r="L23">
-        <v>0.001328490850010016</v>
+        <v>0.001195947500271863</v>
       </c>
       <c r="M23">
-        <v>0.08313614211869384</v>
+        <v>1.719955642120351</v>
       </c>
       <c r="N23">
-        <v>1.379937255016048</v>
+        <v>0.0003904390819234697</v>
       </c>
       <c r="O23">
-        <v>0.002237596383924254</v>
+        <v>3.835382676343219</v>
       </c>
       <c r="P23">
-        <v>0.001783043616967135</v>
+        <v>1.918289311921745</v>
       </c>
       <c r="Q23">
-        <v>0.9594175312586382</v>
+        <v>1.959567985439233</v>
       </c>
       <c r="R23">
-        <v>0.4611677807499943</v>
+        <v>1.278989687641805</v>
       </c>
       <c r="S23">
-        <v>0.6400545177890954</v>
+        <v>1.306777306126246</v>
       </c>
       <c r="T23">
-        <v>0.4611677807499943</v>
+        <v>1.278989687641805</v>
       </c>
       <c r="U23">
-        <v>0.8250252020958337</v>
+        <v>0.9801805893651654</v>
       </c>
       <c r="V23">
-        <v>0.9360076126798766</v>
+        <v>0.784222559308517</v>
       </c>
       <c r="W23">
-        <v>0.609407684777143</v>
+        <v>0.989359764104163</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.3930322337325861</v>
+        <v>1.978017528762467</v>
       </c>
       <c r="D24">
-        <v>0.4028156866737078</v>
+        <v>2.103189352075622</v>
       </c>
       <c r="E24">
-        <v>0.005356301082907026</v>
+        <v>1.930752885397657</v>
       </c>
       <c r="F24">
-        <v>1.128610781007443</v>
+        <v>0.3262007917718728</v>
       </c>
       <c r="G24">
-        <v>1.376818959164313</v>
+        <v>0.3335060775395657</v>
       </c>
       <c r="H24">
-        <v>1.376818959164313</v>
+        <v>0.3335060775395657</v>
       </c>
       <c r="I24">
-        <v>1.376818959164313</v>
+        <v>0.3335060775395657</v>
       </c>
       <c r="J24">
-        <v>2.359611698722838</v>
+        <v>0.0062426259214741</v>
       </c>
       <c r="K24">
-        <v>0.4869577846942586</v>
+        <v>0.4867331853026556</v>
       </c>
       <c r="L24">
-        <v>0.4869577846942586</v>
+        <v>0.4867331853026556</v>
       </c>
       <c r="M24">
-        <v>1.911625012920187</v>
+        <v>0.7639804803541627</v>
       </c>
       <c r="N24">
-        <v>1.376818959164313</v>
+        <v>0.3335060775395657</v>
       </c>
       <c r="O24">
-        <v>2.359611698722838</v>
+        <v>0.0062426259214741</v>
       </c>
       <c r="P24">
-        <v>1.423284741708549</v>
+        <v>0.2464879056120649</v>
       </c>
       <c r="Q24">
-        <v>1.182483999902873</v>
+        <v>0.9684977556595658</v>
       </c>
       <c r="R24">
-        <v>1.407796147527137</v>
+        <v>0.2754939629212318</v>
       </c>
       <c r="S24">
-        <v>0.950641928166668</v>
+        <v>0.8079095655405957</v>
       </c>
       <c r="T24">
-        <v>1.407796147527137</v>
+        <v>0.2754939629212318</v>
       </c>
       <c r="U24">
-        <v>1.057186185916079</v>
+        <v>0.6893086935403382</v>
       </c>
       <c r="V24">
-        <v>1.121112740565726</v>
+        <v>0.6181481703401837</v>
       </c>
       <c r="W24">
-        <v>1.00810355724978</v>
+        <v>0.9910778658906845</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.02879331316952831</v>
+        <v>0.569984070182464</v>
       </c>
       <c r="D25">
-        <v>0.0300104872443466</v>
+        <v>0.3632148420855516</v>
       </c>
       <c r="E25">
-        <v>0.08375329453524757</v>
+        <v>1.916597466133352</v>
       </c>
       <c r="F25">
-        <v>2.215396312838417</v>
+        <v>0.5588256154470996</v>
       </c>
       <c r="G25">
-        <v>0.0003904390819234731</v>
+        <v>1.379937255016048</v>
       </c>
       <c r="H25">
-        <v>0.0003904390819234731</v>
+        <v>1.379937255016048</v>
       </c>
       <c r="I25">
-        <v>0.0003904390819234731</v>
+        <v>1.379937255016048</v>
       </c>
       <c r="J25">
-        <v>3.835382676343219</v>
+        <v>0.002237596383924254</v>
       </c>
       <c r="K25">
-        <v>0.001195947486230521</v>
+        <v>0.001328490850010016</v>
       </c>
       <c r="L25">
-        <v>0.001195947486230521</v>
+        <v>0.001328490850010016</v>
       </c>
       <c r="M25">
-        <v>1.71995564212035</v>
+        <v>0.08313614211869384</v>
       </c>
       <c r="N25">
-        <v>0.0003904390819234731</v>
+        <v>1.379937255016048</v>
       </c>
       <c r="O25">
-        <v>3.835382676343219</v>
+        <v>0.002237596383924254</v>
       </c>
       <c r="P25">
-        <v>1.918289311914725</v>
+        <v>0.001783043616967135</v>
       </c>
       <c r="Q25">
-        <v>1.959567985439233</v>
+        <v>0.9594175312586382</v>
       </c>
       <c r="R25">
-        <v>1.278989687637125</v>
+        <v>0.4611677807499943</v>
       </c>
       <c r="S25">
-        <v>1.306777306121566</v>
+        <v>0.6400545177890954</v>
       </c>
       <c r="T25">
-        <v>1.278989687637125</v>
+        <v>0.4611677807499943</v>
       </c>
       <c r="U25">
-        <v>0.9801805893616552</v>
+        <v>0.8250252020958337</v>
       </c>
       <c r="V25">
-        <v>0.7842225593057088</v>
+        <v>0.9360076126798766</v>
       </c>
       <c r="W25">
-        <v>0.9893597641024079</v>
+        <v>0.609407684777143</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.978017528762467</v>
+        <v>0.3930322337325861</v>
       </c>
       <c r="D26">
-        <v>2.103189352075622</v>
+        <v>0.4028156866737078</v>
       </c>
       <c r="E26">
-        <v>1.930752885397657</v>
+        <v>0.005356301082907026</v>
       </c>
       <c r="F26">
-        <v>0.3262007917718726</v>
+        <v>1.128610781007443</v>
       </c>
       <c r="G26">
-        <v>0.3335060775395662</v>
+        <v>1.376818959164313</v>
       </c>
       <c r="H26">
-        <v>0.3335060775395662</v>
+        <v>1.376818959164313</v>
       </c>
       <c r="I26">
-        <v>0.3335060775395662</v>
+        <v>1.376818959164313</v>
       </c>
       <c r="J26">
-        <v>0.006242625921474081</v>
+        <v>2.359611698722838</v>
       </c>
       <c r="K26">
-        <v>0.4867331853026644</v>
+        <v>0.4869577846942586</v>
       </c>
       <c r="L26">
-        <v>0.4867331853026644</v>
+        <v>0.4869577846942586</v>
       </c>
       <c r="M26">
-        <v>0.7639804803541627</v>
+        <v>1.911625012920187</v>
       </c>
       <c r="N26">
-        <v>0.3335060775395662</v>
+        <v>1.376818959164313</v>
       </c>
       <c r="O26">
-        <v>0.006242625921474081</v>
+        <v>2.359611698722838</v>
       </c>
       <c r="P26">
-        <v>0.2464879056120692</v>
+        <v>1.423284741708549</v>
       </c>
       <c r="Q26">
-        <v>0.9684977556595658</v>
+        <v>1.182483999902873</v>
       </c>
       <c r="R26">
-        <v>0.2754939629212349</v>
+        <v>1.407796147527137</v>
       </c>
       <c r="S26">
-        <v>0.8079095655405987</v>
+        <v>0.950641928166668</v>
       </c>
       <c r="T26">
-        <v>0.2754939629212349</v>
+        <v>1.407796147527137</v>
       </c>
       <c r="U26">
-        <v>0.6893086935403405</v>
+        <v>1.057186185916079</v>
       </c>
       <c r="V26">
-        <v>0.6181481703401857</v>
+        <v>1.121112740565726</v>
       </c>
       <c r="W26">
-        <v>0.9910778658906857</v>
+        <v>1.00810355724978</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.04600138865378531</v>
+        <v>0.02879331316952831</v>
       </c>
       <c r="D27">
-        <v>1.875846477088833</v>
+        <v>0.0300104872443466</v>
       </c>
       <c r="E27">
-        <v>1.729017613154956</v>
+        <v>0.08375329453524757</v>
       </c>
       <c r="F27">
-        <v>1.072011405849706</v>
+        <v>2.215396312838417</v>
       </c>
       <c r="G27">
-        <v>0.01508196230821052</v>
+        <v>0.0003904390819234731</v>
       </c>
       <c r="H27">
-        <v>0.01508196230821052</v>
+        <v>0.0003904390819234731</v>
       </c>
       <c r="I27">
-        <v>0.01508196230821052</v>
+        <v>0.0003904390819234731</v>
       </c>
       <c r="J27">
-        <v>0.06394563458397068</v>
+        <v>3.835382676343219</v>
       </c>
       <c r="K27">
-        <v>3.575753599251714</v>
+        <v>0.001195947486230521</v>
       </c>
       <c r="L27">
-        <v>3.575753599251714</v>
+        <v>0.001195947486230521</v>
       </c>
       <c r="M27">
-        <v>3.406828348519421</v>
+        <v>1.71995564212035</v>
       </c>
       <c r="N27">
-        <v>0.01508196230821052</v>
+        <v>0.0003904390819234731</v>
       </c>
       <c r="O27">
-        <v>0.06394563458397068</v>
+        <v>3.835382676343219</v>
       </c>
       <c r="P27">
-        <v>1.819849616917842</v>
+        <v>1.918289311914725</v>
       </c>
       <c r="Q27">
-        <v>0.8964816238694632</v>
+        <v>1.959567985439233</v>
       </c>
       <c r="R27">
-        <v>1.218260398714632</v>
+        <v>1.278989687637125</v>
       </c>
       <c r="S27">
-        <v>1.789572282330213</v>
+        <v>1.306777306121566</v>
       </c>
       <c r="T27">
-        <v>1.218260398714632</v>
+        <v>1.278989687637125</v>
       </c>
       <c r="U27">
-        <v>1.345949702324713</v>
+        <v>0.9801805893616552</v>
       </c>
       <c r="V27">
-        <v>1.079776154321412</v>
+        <v>0.7842225593057088</v>
       </c>
       <c r="W27">
-        <v>1.473060803676325</v>
+        <v>0.9893597641024079</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.3884201130979834</v>
+        <v>1.978017528762467</v>
       </c>
       <c r="D28">
-        <v>1.152465689530825</v>
+        <v>2.103189352075622</v>
       </c>
       <c r="E28">
-        <v>0.2453017638869989</v>
+        <v>1.930752885397657</v>
       </c>
       <c r="F28">
-        <v>0.1365809871778847</v>
+        <v>0.3262007917718726</v>
       </c>
       <c r="G28">
-        <v>0.08535652632257268</v>
+        <v>0.3335060775395662</v>
       </c>
       <c r="H28">
-        <v>0.08535652632257268</v>
+        <v>0.3335060775395662</v>
       </c>
       <c r="I28">
-        <v>0.08535652632257268</v>
+        <v>0.3335060775395662</v>
       </c>
       <c r="J28">
-        <v>2.080813916858228</v>
+        <v>0.006242625921474081</v>
       </c>
       <c r="K28">
-        <v>0.2709192540440629</v>
+        <v>0.4867331853026644</v>
       </c>
       <c r="L28">
-        <v>0.2709192540440629</v>
+        <v>0.4867331853026644</v>
       </c>
       <c r="M28">
-        <v>3.126665604690211</v>
+        <v>0.7639804803541627</v>
       </c>
       <c r="N28">
-        <v>0.08535652632257268</v>
+        <v>0.3335060775395662</v>
       </c>
       <c r="O28">
-        <v>2.080813916858228</v>
+        <v>0.006242625921474081</v>
       </c>
       <c r="P28">
-        <v>1.175866585451146</v>
+        <v>0.2464879056120692</v>
       </c>
       <c r="Q28">
-        <v>1.163057840372614</v>
+        <v>0.9684977556595658</v>
       </c>
       <c r="R28">
-        <v>0.812363232408288</v>
+        <v>0.2754939629212349</v>
       </c>
       <c r="S28">
-        <v>0.8656783115964301</v>
+        <v>0.8079095655405987</v>
       </c>
       <c r="T28">
-        <v>0.812363232408288</v>
+        <v>0.2754939629212349</v>
       </c>
       <c r="U28">
-        <v>0.6705978652779657</v>
+        <v>0.6893086935403405</v>
       </c>
       <c r="V28">
-        <v>0.5535495974868871</v>
+        <v>0.6181481703401857</v>
       </c>
       <c r="W28">
-        <v>0.9358154819510958</v>
+        <v>0.9910778658906857</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.04600138865378531</v>
+      </c>
+      <c r="D29">
+        <v>1.875846477088833</v>
+      </c>
+      <c r="E29">
+        <v>1.729017613154956</v>
+      </c>
+      <c r="F29">
+        <v>1.072011405849706</v>
+      </c>
+      <c r="G29">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="H29">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="I29">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="J29">
+        <v>0.06394563458397068</v>
+      </c>
+      <c r="K29">
+        <v>3.575753599251714</v>
+      </c>
+      <c r="L29">
+        <v>3.575753599251714</v>
+      </c>
+      <c r="M29">
+        <v>3.406828348519421</v>
+      </c>
+      <c r="N29">
+        <v>0.01508196230821052</v>
+      </c>
+      <c r="O29">
+        <v>0.06394563458397068</v>
+      </c>
+      <c r="P29">
+        <v>1.819849616917842</v>
+      </c>
+      <c r="Q29">
+        <v>0.8964816238694632</v>
+      </c>
+      <c r="R29">
+        <v>1.218260398714632</v>
+      </c>
+      <c r="S29">
+        <v>1.789572282330213</v>
+      </c>
+      <c r="T29">
+        <v>1.218260398714632</v>
+      </c>
+      <c r="U29">
+        <v>1.345949702324713</v>
+      </c>
+      <c r="V29">
+        <v>1.079776154321412</v>
+      </c>
+      <c r="W29">
+        <v>1.473060803676325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.3884201130979834</v>
+      </c>
+      <c r="D30">
+        <v>1.152465689530825</v>
+      </c>
+      <c r="E30">
+        <v>0.2453017638869989</v>
+      </c>
+      <c r="F30">
+        <v>0.1365809871778847</v>
+      </c>
+      <c r="G30">
+        <v>0.08535652632257268</v>
+      </c>
+      <c r="H30">
+        <v>0.08535652632257268</v>
+      </c>
+      <c r="I30">
+        <v>0.08535652632257268</v>
+      </c>
+      <c r="J30">
+        <v>2.080813916858228</v>
+      </c>
+      <c r="K30">
+        <v>0.2709192540440629</v>
+      </c>
+      <c r="L30">
+        <v>0.2709192540440629</v>
+      </c>
+      <c r="M30">
+        <v>3.126665604690211</v>
+      </c>
+      <c r="N30">
+        <v>0.08535652632257268</v>
+      </c>
+      <c r="O30">
+        <v>2.080813916858228</v>
+      </c>
+      <c r="P30">
+        <v>1.175866585451146</v>
+      </c>
+      <c r="Q30">
+        <v>1.163057840372614</v>
+      </c>
+      <c r="R30">
+        <v>0.812363232408288</v>
+      </c>
+      <c r="S30">
+        <v>0.8656783115964301</v>
+      </c>
+      <c r="T30">
+        <v>0.812363232408288</v>
+      </c>
+      <c r="U30">
+        <v>0.6705978652779657</v>
+      </c>
+      <c r="V30">
+        <v>0.5535495974868871</v>
+      </c>
+      <c r="W30">
+        <v>0.9358154819510958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.003498197981038845</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.393863496498899</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.502440844649569</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.1306662516702358</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.1650157339284239</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.1650157339284239</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.1650157339284239</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.23444317543616</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>-0.0001446655140792162</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>-0.0001446655140792162</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>3.015894795148841</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.1650157339284239</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.23444317543616</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.6171492549610403</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.8684420100428645</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.4664380812835016</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.5789131181905499</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.4664380812835016</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.4754387721250184</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.4133541644856994</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.680709728724886</v>
       </c>
     </row>
